--- a/sql/websales.xlsx
+++ b/sql/websales.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="949">
-  <si>
-    <t>Guest list bos-majorca-holiday-2024 2024-10-03</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="957">
+  <si>
+    <t>Guest list bos-majorca-holiday-2024 2024-10-05</t>
   </si>
   <si>
     <t>Order number</t>
@@ -2147,13 +2147,7 @@
     <t>Olga Kniazeva</t>
   </si>
   <si>
-    <t>I'll share a room with Olga Kniazeva</t>
-  </si>
-  <si>
     <t>2WL8-5PZD-WL51Q</t>
-  </si>
-  <si>
-    <t>I'll share a room with Mycchaka Kleinbort</t>
   </si>
   <si>
     <t>2WL8-H715-QW8</t>
@@ -3608,7 +3602,7 @@
     <t>2WR9-ZN8M-PL71P</t>
   </si>
   <si>
-    <t>Katarzyna Kowal (awaiting money for the ticket)</t>
+    <t>Katarzyna Kowal</t>
   </si>
   <si>
     <t>2WR9-ZVB2-2RL</t>
@@ -4062,6 +4056,52 @@
   <si>
     <t>booked through Sandra
 Juan Miguel arrives THURS- will be joined by Francisco Herrera who arrives FRI</t>
+  </si>
+  <si>
+    <t>2WRX-DH75-35F</t>
+  </si>
+  <si>
+    <t>2024-10-05 13:52:58</t>
+  </si>
+  <si>
+    <t>Joel Cheung</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>joelcheung01@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRX-DH75-35F1P</t>
+  </si>
+  <si>
+    <t>Nived Subbarayan (I think awaiting the money)</t>
+  </si>
+  <si>
+    <t>2WRX-DN7N-N1R</t>
+  </si>
+  <si>
+    <t>2024-10-05 13:55:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>kasiakowal3001@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRX-DN7N-N1R1P</t>
   </si>
 </sst>
 </file>
@@ -5333,7 +5373,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T160"/>
+  <dimension ref="A2:T162"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -10050,12 +10090,8 @@
       <c r="Q83" t="s" s="11">
         <v>44</v>
       </c>
-      <c r="R83" t="s" s="11">
-        <v>507</v>
-      </c>
-      <c r="S83" t="s" s="11">
-        <v>508</v>
-      </c>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
       <c r="T83" t="s" s="11">
         <v>28</v>
       </c>
@@ -10077,7 +10113,7 @@
         <v>25</v>
       </c>
       <c r="F84" t="s" s="11">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G84" s="12">
         <v>680</v>
@@ -10108,34 +10144,30 @@
       <c r="Q84" t="s" s="11">
         <v>44</v>
       </c>
-      <c r="R84" t="s" s="11">
-        <v>503</v>
-      </c>
-      <c r="S84" t="s" s="11">
-        <v>510</v>
-      </c>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
       <c r="T84" t="s" s="11">
         <v>28</v>
       </c>
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="9">
+        <v>509</v>
+      </c>
+      <c r="B85" t="s" s="10">
+        <v>510</v>
+      </c>
+      <c r="C85" t="s" s="11">
         <v>511</v>
       </c>
-      <c r="B85" t="s" s="10">
+      <c r="D85" t="s" s="11">
         <v>512</v>
-      </c>
-      <c r="C85" t="s" s="11">
-        <v>513</v>
-      </c>
-      <c r="D85" t="s" s="11">
-        <v>514</v>
       </c>
       <c r="E85" t="s" s="11">
         <v>25</v>
       </c>
       <c r="F85" t="s" s="11">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G85" s="12">
         <v>680</v>
@@ -10178,22 +10210,22 @@
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="9">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B86" t="s" s="10">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C86" t="s" s="11">
         <v>500</v>
       </c>
       <c r="D86" t="s" s="11">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E86" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F86" t="s" s="11">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G86" s="12">
         <v>470</v>
@@ -10225,7 +10257,7 @@
         <v>44</v>
       </c>
       <c r="R86" t="s" s="11">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="S86" t="s" s="11">
         <v>80</v>
@@ -10236,22 +10268,22 @@
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" t="s" s="9">
+        <v>519</v>
+      </c>
+      <c r="B87" t="s" s="10">
+        <v>520</v>
+      </c>
+      <c r="C87" t="s" s="11">
         <v>521</v>
       </c>
-      <c r="B87" t="s" s="10">
+      <c r="D87" t="s" s="11">
         <v>522</v>
-      </c>
-      <c r="C87" t="s" s="11">
-        <v>523</v>
-      </c>
-      <c r="D87" t="s" s="11">
-        <v>524</v>
       </c>
       <c r="E87" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F87" t="s" s="11">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G87" s="12">
         <v>470</v>
@@ -10283,7 +10315,7 @@
         <v>44</v>
       </c>
       <c r="R87" t="s" s="11">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S87" t="s" s="11">
         <v>102</v>
@@ -10294,22 +10326,22 @@
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" t="s" s="9">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B88" t="s" s="10">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C88" t="s" s="11">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D88" t="s" s="11">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E88" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F88" t="s" s="11">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G88" s="12">
         <v>470</v>
@@ -10341,7 +10373,7 @@
         <v>44</v>
       </c>
       <c r="R88" t="s" s="11">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S88" t="s" s="11">
         <v>102</v>
@@ -10352,22 +10384,22 @@
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="9">
+        <v>528</v>
+      </c>
+      <c r="B89" t="s" s="10">
+        <v>529</v>
+      </c>
+      <c r="C89" t="s" s="11">
         <v>530</v>
       </c>
-      <c r="B89" t="s" s="10">
+      <c r="D89" t="s" s="11">
         <v>531</v>
-      </c>
-      <c r="C89" t="s" s="11">
-        <v>532</v>
-      </c>
-      <c r="D89" t="s" s="11">
-        <v>533</v>
       </c>
       <c r="E89" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F89" t="s" s="11">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G89" s="12">
         <v>470</v>
@@ -10399,10 +10431,10 @@
         <v>44</v>
       </c>
       <c r="R89" t="s" s="11">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="S89" t="s" s="11">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="T89" t="s" s="11">
         <v>28</v>
@@ -10410,22 +10442,22 @@
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="9">
+        <v>534</v>
+      </c>
+      <c r="B90" t="s" s="10">
+        <v>535</v>
+      </c>
+      <c r="C90" t="s" s="11">
         <v>536</v>
       </c>
-      <c r="B90" t="s" s="10">
+      <c r="D90" t="s" s="11">
         <v>537</v>
-      </c>
-      <c r="C90" t="s" s="11">
-        <v>538</v>
-      </c>
-      <c r="D90" t="s" s="11">
-        <v>539</v>
       </c>
       <c r="E90" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F90" t="s" s="11">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G90" s="12">
         <v>470</v>
@@ -10460,7 +10492,7 @@
         <v>102</v>
       </c>
       <c r="S90" t="s" s="11">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="T90" t="s" s="11">
         <v>28</v>
@@ -10468,22 +10500,22 @@
     </row>
     <row r="91" ht="32.05" customHeight="1">
       <c r="A91" t="s" s="9">
+        <v>540</v>
+      </c>
+      <c r="B91" t="s" s="10">
+        <v>541</v>
+      </c>
+      <c r="C91" t="s" s="11">
         <v>542</v>
       </c>
-      <c r="B91" t="s" s="10">
+      <c r="D91" t="s" s="11">
         <v>543</v>
-      </c>
-      <c r="C91" t="s" s="11">
-        <v>544</v>
-      </c>
-      <c r="D91" t="s" s="11">
-        <v>545</v>
       </c>
       <c r="E91" t="s" s="11">
         <v>264</v>
       </c>
       <c r="F91" t="s" s="11">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G91" s="12">
         <v>420</v>
@@ -10518,7 +10550,7 @@
         <v>102</v>
       </c>
       <c r="S91" t="s" s="14">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="T91" t="s" s="11">
         <v>28</v>
@@ -10526,22 +10558,22 @@
     </row>
     <row r="92" ht="20.05" customHeight="1">
       <c r="A92" t="s" s="9">
+        <v>546</v>
+      </c>
+      <c r="B92" t="s" s="10">
+        <v>547</v>
+      </c>
+      <c r="C92" t="s" s="11">
         <v>548</v>
       </c>
-      <c r="B92" t="s" s="10">
+      <c r="D92" t="s" s="11">
         <v>549</v>
-      </c>
-      <c r="C92" t="s" s="11">
-        <v>550</v>
-      </c>
-      <c r="D92" t="s" s="11">
-        <v>551</v>
       </c>
       <c r="E92" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F92" t="s" s="11">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G92" s="12">
         <v>470</v>
@@ -10573,7 +10605,7 @@
         <v>44</v>
       </c>
       <c r="R92" t="s" s="11">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="S92" t="s" s="11">
         <v>102</v>
@@ -10584,22 +10616,22 @@
     </row>
     <row r="93" ht="20.05" customHeight="1">
       <c r="A93" t="s" s="9">
+        <v>552</v>
+      </c>
+      <c r="B93" t="s" s="10">
+        <v>553</v>
+      </c>
+      <c r="C93" t="s" s="11">
         <v>554</v>
       </c>
-      <c r="B93" t="s" s="10">
+      <c r="D93" t="s" s="11">
         <v>555</v>
-      </c>
-      <c r="C93" t="s" s="11">
-        <v>556</v>
-      </c>
-      <c r="D93" t="s" s="11">
-        <v>557</v>
       </c>
       <c r="E93" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F93" t="s" s="11">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G93" s="12">
         <v>470</v>
@@ -10631,7 +10663,7 @@
         <v>44</v>
       </c>
       <c r="R93" t="s" s="11">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="S93" t="s" s="11">
         <v>243</v>
@@ -10642,22 +10674,22 @@
     </row>
     <row r="94" ht="20.05" customHeight="1">
       <c r="A94" t="s" s="9">
+        <v>558</v>
+      </c>
+      <c r="B94" t="s" s="10">
+        <v>559</v>
+      </c>
+      <c r="C94" t="s" s="11">
+        <v>551</v>
+      </c>
+      <c r="D94" t="s" s="11">
         <v>560</v>
-      </c>
-      <c r="B94" t="s" s="10">
-        <v>561</v>
-      </c>
-      <c r="C94" t="s" s="11">
-        <v>553</v>
-      </c>
-      <c r="D94" t="s" s="11">
-        <v>562</v>
       </c>
       <c r="E94" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F94" t="s" s="11">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G94" s="12">
         <v>470</v>
@@ -10689,7 +10721,7 @@
         <v>44</v>
       </c>
       <c r="R94" t="s" s="11">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S94" t="s" s="11">
         <v>102</v>
@@ -10700,22 +10732,22 @@
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" t="s" s="9">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B95" t="s" s="10">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C95" t="s" s="11">
         <v>428</v>
       </c>
       <c r="D95" t="s" s="11">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E95" t="s" s="11">
         <v>35</v>
       </c>
       <c r="F95" t="s" s="11">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G95" s="12">
         <v>0</v>
@@ -10748,7 +10780,7 @@
         <v>425</v>
       </c>
       <c r="S95" t="s" s="11">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T95" t="s" s="11">
         <v>28</v>
@@ -10756,22 +10788,22 @@
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" t="s" s="9">
+        <v>568</v>
+      </c>
+      <c r="B96" t="s" s="10">
+        <v>569</v>
+      </c>
+      <c r="C96" t="s" s="11">
         <v>570</v>
       </c>
-      <c r="B96" t="s" s="10">
+      <c r="D96" t="s" s="11">
         <v>571</v>
-      </c>
-      <c r="C96" t="s" s="11">
-        <v>572</v>
-      </c>
-      <c r="D96" t="s" s="11">
-        <v>573</v>
       </c>
       <c r="E96" t="s" s="11">
         <v>107</v>
       </c>
       <c r="F96" t="s" s="11">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G96" s="12">
         <v>630</v>
@@ -10814,22 +10846,22 @@
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" t="s" s="9">
+        <v>573</v>
+      </c>
+      <c r="B97" t="s" s="10">
+        <v>574</v>
+      </c>
+      <c r="C97" t="s" s="11">
         <v>575</v>
       </c>
-      <c r="B97" t="s" s="10">
+      <c r="D97" t="s" s="11">
         <v>576</v>
-      </c>
-      <c r="C97" t="s" s="11">
-        <v>577</v>
-      </c>
-      <c r="D97" t="s" s="11">
-        <v>578</v>
       </c>
       <c r="E97" t="s" s="11">
         <v>25</v>
       </c>
       <c r="F97" t="s" s="11">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G97" s="12">
         <v>680</v>
@@ -10861,10 +10893,10 @@
         <v>29</v>
       </c>
       <c r="R97" t="s" s="11">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="S97" t="s" s="11">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="T97" t="s" s="11">
         <v>28</v>
@@ -10872,22 +10904,22 @@
     </row>
     <row r="98" ht="20.05" customHeight="1">
       <c r="A98" t="s" s="9">
+        <v>580</v>
+      </c>
+      <c r="B98" t="s" s="10">
+        <v>581</v>
+      </c>
+      <c r="C98" t="s" s="11">
         <v>582</v>
       </c>
-      <c r="B98" t="s" s="10">
+      <c r="D98" t="s" s="11">
         <v>583</v>
-      </c>
-      <c r="C98" t="s" s="11">
-        <v>584</v>
-      </c>
-      <c r="D98" t="s" s="11">
-        <v>585</v>
       </c>
       <c r="E98" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F98" t="s" s="11">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G98" s="12">
         <v>470</v>
@@ -10922,7 +10954,7 @@
         <v>311</v>
       </c>
       <c r="S98" t="s" s="11">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="T98" t="s" s="11">
         <v>28</v>
@@ -10930,22 +10962,22 @@
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" t="s" s="9">
+        <v>586</v>
+      </c>
+      <c r="B99" t="s" s="10">
+        <v>587</v>
+      </c>
+      <c r="C99" t="s" s="11">
         <v>588</v>
       </c>
-      <c r="B99" t="s" s="10">
+      <c r="D99" t="s" s="11">
         <v>589</v>
-      </c>
-      <c r="C99" t="s" s="11">
-        <v>590</v>
-      </c>
-      <c r="D99" t="s" s="11">
-        <v>591</v>
       </c>
       <c r="E99" t="s" s="11">
         <v>107</v>
       </c>
       <c r="F99" t="s" s="11">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G99" s="12">
         <v>0</v>
@@ -10976,7 +11008,7 @@
       </c>
       <c r="R99" s="13"/>
       <c r="S99" t="s" s="11">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="T99" t="s" s="11">
         <v>28</v>
@@ -10984,22 +11016,22 @@
     </row>
     <row r="100" ht="32.05" customHeight="1">
       <c r="A100" t="s" s="9">
+        <v>592</v>
+      </c>
+      <c r="B100" t="s" s="10">
+        <v>593</v>
+      </c>
+      <c r="C100" t="s" s="11">
         <v>594</v>
       </c>
-      <c r="B100" t="s" s="10">
+      <c r="D100" t="s" s="11">
         <v>595</v>
-      </c>
-      <c r="C100" t="s" s="11">
-        <v>596</v>
-      </c>
-      <c r="D100" t="s" s="11">
-        <v>597</v>
       </c>
       <c r="E100" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F100" t="s" s="11">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G100" s="12">
         <v>0</v>
@@ -11029,10 +11061,10 @@
         <v>44</v>
       </c>
       <c r="R100" t="s" s="11">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="S100" t="s" s="14">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="T100" t="s" s="11">
         <v>28</v>
@@ -11040,22 +11072,22 @@
     </row>
     <row r="101" ht="32.05" customHeight="1">
       <c r="A101" t="s" s="9">
+        <v>599</v>
+      </c>
+      <c r="B101" t="s" s="10">
+        <v>600</v>
+      </c>
+      <c r="C101" t="s" s="11">
+        <v>597</v>
+      </c>
+      <c r="D101" t="s" s="11">
         <v>601</v>
-      </c>
-      <c r="B101" t="s" s="10">
-        <v>602</v>
-      </c>
-      <c r="C101" t="s" s="11">
-        <v>599</v>
-      </c>
-      <c r="D101" t="s" s="11">
-        <v>603</v>
       </c>
       <c r="E101" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F101" t="s" s="11">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G101" s="12">
         <v>0</v>
@@ -11085,10 +11117,10 @@
         <v>44</v>
       </c>
       <c r="R101" t="s" s="11">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="S101" t="s" s="14">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="T101" t="s" s="11">
         <v>28</v>
@@ -11096,22 +11128,22 @@
     </row>
     <row r="102" ht="20.05" customHeight="1">
       <c r="A102" t="s" s="9">
+        <v>603</v>
+      </c>
+      <c r="B102" t="s" s="10">
+        <v>604</v>
+      </c>
+      <c r="C102" t="s" s="11">
         <v>605</v>
       </c>
-      <c r="B102" t="s" s="10">
+      <c r="D102" t="s" s="11">
         <v>606</v>
-      </c>
-      <c r="C102" t="s" s="11">
-        <v>607</v>
-      </c>
-      <c r="D102" t="s" s="11">
-        <v>608</v>
       </c>
       <c r="E102" t="s" s="11">
         <v>35</v>
       </c>
       <c r="F102" t="s" s="11">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G102" s="12">
         <v>0</v>
@@ -11141,10 +11173,10 @@
         <v>44</v>
       </c>
       <c r="R102" t="s" s="11">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="S102" t="s" s="11">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="T102" t="s" s="11">
         <v>28</v>
@@ -11152,22 +11184,22 @@
     </row>
     <row r="103" ht="20.05" customHeight="1">
       <c r="A103" t="s" s="9">
+        <v>610</v>
+      </c>
+      <c r="B103" t="s" s="10">
+        <v>611</v>
+      </c>
+      <c r="C103" t="s" s="11">
+        <v>608</v>
+      </c>
+      <c r="D103" t="s" s="11">
         <v>612</v>
-      </c>
-      <c r="B103" t="s" s="10">
-        <v>613</v>
-      </c>
-      <c r="C103" t="s" s="11">
-        <v>610</v>
-      </c>
-      <c r="D103" t="s" s="11">
-        <v>614</v>
       </c>
       <c r="E103" t="s" s="11">
         <v>35</v>
       </c>
       <c r="F103" t="s" s="11">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G103" s="12">
         <v>0</v>
@@ -11197,10 +11229,10 @@
         <v>44</v>
       </c>
       <c r="R103" t="s" s="11">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="S103" t="s" s="11">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="T103" t="s" s="11">
         <v>28</v>
@@ -11208,22 +11240,22 @@
     </row>
     <row r="104" ht="32.05" customHeight="1">
       <c r="A104" t="s" s="9">
+        <v>615</v>
+      </c>
+      <c r="B104" t="s" s="10">
+        <v>616</v>
+      </c>
+      <c r="C104" t="s" s="11">
         <v>617</v>
       </c>
-      <c r="B104" t="s" s="10">
+      <c r="D104" t="s" s="11">
         <v>618</v>
-      </c>
-      <c r="C104" t="s" s="11">
-        <v>619</v>
-      </c>
-      <c r="D104" t="s" s="11">
-        <v>620</v>
       </c>
       <c r="E104" t="s" s="11">
         <v>264</v>
       </c>
       <c r="F104" t="s" s="11">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G104" s="12">
         <v>0</v>
@@ -11253,10 +11285,10 @@
         <v>44</v>
       </c>
       <c r="R104" t="s" s="11">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="S104" t="s" s="14">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="T104" t="s" s="11">
         <v>28</v>
@@ -11264,22 +11296,22 @@
     </row>
     <row r="105" ht="32.05" customHeight="1">
       <c r="A105" t="s" s="9">
+        <v>622</v>
+      </c>
+      <c r="B105" t="s" s="10">
+        <v>623</v>
+      </c>
+      <c r="C105" t="s" s="11">
+        <v>620</v>
+      </c>
+      <c r="D105" t="s" s="11">
         <v>624</v>
-      </c>
-      <c r="B105" t="s" s="10">
-        <v>625</v>
-      </c>
-      <c r="C105" t="s" s="11">
-        <v>622</v>
-      </c>
-      <c r="D105" t="s" s="11">
-        <v>626</v>
       </c>
       <c r="E105" t="s" s="11">
         <v>264</v>
       </c>
       <c r="F105" t="s" s="11">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G105" s="12">
         <v>0</v>
@@ -11309,10 +11341,10 @@
         <v>44</v>
       </c>
       <c r="R105" t="s" s="11">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="S105" t="s" s="14">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="T105" t="s" s="11">
         <v>28</v>
@@ -11320,22 +11352,22 @@
     </row>
     <row r="106" ht="44.05" customHeight="1">
       <c r="A106" t="s" s="9">
+        <v>626</v>
+      </c>
+      <c r="B106" t="s" s="10">
+        <v>627</v>
+      </c>
+      <c r="C106" t="s" s="11">
         <v>628</v>
       </c>
-      <c r="B106" t="s" s="10">
+      <c r="D106" t="s" s="11">
         <v>629</v>
-      </c>
-      <c r="C106" t="s" s="11">
-        <v>630</v>
-      </c>
-      <c r="D106" t="s" s="11">
-        <v>631</v>
       </c>
       <c r="E106" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F106" t="s" s="11">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G106" s="12">
         <v>470</v>
@@ -11370,7 +11402,7 @@
         <v>28</v>
       </c>
       <c r="S106" t="s" s="14">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="T106" t="s" s="11">
         <v>28</v>
@@ -11378,22 +11410,22 @@
     </row>
     <row r="107" ht="20.05" customHeight="1">
       <c r="A107" t="s" s="9">
+        <v>632</v>
+      </c>
+      <c r="B107" t="s" s="10">
+        <v>633</v>
+      </c>
+      <c r="C107" t="s" s="11">
         <v>634</v>
       </c>
-      <c r="B107" t="s" s="10">
+      <c r="D107" t="s" s="11">
         <v>635</v>
-      </c>
-      <c r="C107" t="s" s="11">
-        <v>636</v>
-      </c>
-      <c r="D107" t="s" s="11">
-        <v>637</v>
       </c>
       <c r="E107" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F107" t="s" s="11">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G107" s="12">
         <v>470</v>
@@ -11423,7 +11455,7 @@
         <v>44</v>
       </c>
       <c r="R107" t="s" s="11">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="S107" t="s" s="11">
         <v>151</v>
@@ -11434,22 +11466,22 @@
     </row>
     <row r="108" ht="20.05" customHeight="1">
       <c r="A108" t="s" s="9">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B108" t="s" s="10">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C108" t="s" s="11">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D108" t="s" s="11">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E108" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F108" t="s" s="11">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G108" s="12">
         <v>470</v>
@@ -11479,7 +11511,7 @@
         <v>44</v>
       </c>
       <c r="R108" t="s" s="11">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="S108" t="s" s="11">
         <v>151</v>
@@ -11490,22 +11522,22 @@
     </row>
     <row r="109" ht="20.05" customHeight="1">
       <c r="A109" t="s" s="9">
+        <v>640</v>
+      </c>
+      <c r="B109" t="s" s="10">
+        <v>641</v>
+      </c>
+      <c r="C109" t="s" s="11">
         <v>642</v>
       </c>
-      <c r="B109" t="s" s="10">
+      <c r="D109" t="s" s="11">
         <v>643</v>
-      </c>
-      <c r="C109" t="s" s="11">
-        <v>644</v>
-      </c>
-      <c r="D109" t="s" s="11">
-        <v>645</v>
       </c>
       <c r="E109" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F109" t="s" s="11">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G109" s="12">
         <v>470</v>
@@ -11537,10 +11569,10 @@
         <v>44</v>
       </c>
       <c r="R109" t="s" s="11">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="S109" t="s" s="11">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="T109" t="s" s="11">
         <v>28</v>
@@ -11548,22 +11580,22 @@
     </row>
     <row r="110" ht="20.05" customHeight="1">
       <c r="A110" t="s" s="9">
+        <v>647</v>
+      </c>
+      <c r="B110" t="s" s="10">
+        <v>648</v>
+      </c>
+      <c r="C110" t="s" s="11">
+        <v>645</v>
+      </c>
+      <c r="D110" t="s" s="11">
         <v>649</v>
-      </c>
-      <c r="B110" t="s" s="10">
-        <v>650</v>
-      </c>
-      <c r="C110" t="s" s="11">
-        <v>647</v>
-      </c>
-      <c r="D110" t="s" s="11">
-        <v>651</v>
       </c>
       <c r="E110" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F110" t="s" s="11">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G110" s="12">
         <v>470</v>
@@ -11595,10 +11627,10 @@
         <v>44</v>
       </c>
       <c r="R110" t="s" s="11">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="S110" t="s" s="11">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="T110" t="s" s="11">
         <v>274</v>
@@ -11606,22 +11638,22 @@
     </row>
     <row r="111" ht="20.05" customHeight="1">
       <c r="A111" t="s" s="9">
+        <v>652</v>
+      </c>
+      <c r="B111" t="s" s="10">
+        <v>653</v>
+      </c>
+      <c r="C111" t="s" s="11">
         <v>654</v>
       </c>
-      <c r="B111" t="s" s="10">
+      <c r="D111" t="s" s="11">
         <v>655</v>
-      </c>
-      <c r="C111" t="s" s="11">
-        <v>656</v>
-      </c>
-      <c r="D111" t="s" s="11">
-        <v>657</v>
       </c>
       <c r="E111" t="s" s="11">
         <v>25</v>
       </c>
       <c r="F111" t="s" s="11">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G111" s="12">
         <v>680</v>
@@ -11651,10 +11683,10 @@
         <v>29</v>
       </c>
       <c r="R111" t="s" s="11">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="S111" t="s" s="11">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="T111" t="s" s="11">
         <v>28</v>
@@ -11662,22 +11694,22 @@
     </row>
     <row r="112" ht="20.05" customHeight="1">
       <c r="A112" t="s" s="9">
+        <v>657</v>
+      </c>
+      <c r="B112" t="s" s="10">
+        <v>658</v>
+      </c>
+      <c r="C112" t="s" s="11">
         <v>659</v>
       </c>
-      <c r="B112" t="s" s="10">
+      <c r="D112" t="s" s="11">
         <v>660</v>
-      </c>
-      <c r="C112" t="s" s="11">
-        <v>661</v>
-      </c>
-      <c r="D112" t="s" s="11">
-        <v>662</v>
       </c>
       <c r="E112" t="s" s="11">
         <v>264</v>
       </c>
       <c r="F112" t="s" s="11">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G112" s="12">
         <v>0</v>
@@ -11707,10 +11739,10 @@
         <v>44</v>
       </c>
       <c r="R112" t="s" s="11">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="S112" t="s" s="11">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="T112" t="s" s="11">
         <v>28</v>
@@ -11718,22 +11750,22 @@
     </row>
     <row r="113" ht="44.05" customHeight="1">
       <c r="A113" t="s" s="9">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B113" t="s" s="10">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C113" t="s" s="11">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D113" t="s" s="11">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E113" t="s" s="11">
         <v>264</v>
       </c>
       <c r="F113" t="s" s="11">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G113" s="12">
         <v>0</v>
@@ -11763,10 +11795,10 @@
         <v>44</v>
       </c>
       <c r="R113" t="s" s="11">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="S113" t="s" s="14">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="T113" t="s" s="11">
         <v>28</v>
@@ -11774,22 +11806,22 @@
     </row>
     <row r="114" ht="20.05" customHeight="1">
       <c r="A114" t="s" s="9">
+        <v>668</v>
+      </c>
+      <c r="B114" t="s" s="10">
+        <v>669</v>
+      </c>
+      <c r="C114" t="s" s="11">
         <v>670</v>
       </c>
-      <c r="B114" t="s" s="10">
+      <c r="D114" t="s" s="11">
         <v>671</v>
-      </c>
-      <c r="C114" t="s" s="11">
-        <v>672</v>
-      </c>
-      <c r="D114" t="s" s="11">
-        <v>673</v>
       </c>
       <c r="E114" t="s" s="11">
         <v>107</v>
       </c>
       <c r="F114" t="s" s="11">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G114" s="12">
         <v>0</v>
@@ -11820,7 +11852,7 @@
       </c>
       <c r="R114" s="13"/>
       <c r="S114" t="s" s="11">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="T114" t="s" s="11">
         <v>28</v>
@@ -11828,22 +11860,22 @@
     </row>
     <row r="115" ht="32.05" customHeight="1">
       <c r="A115" t="s" s="9">
+        <v>674</v>
+      </c>
+      <c r="B115" t="s" s="10">
+        <v>675</v>
+      </c>
+      <c r="C115" t="s" s="11">
         <v>676</v>
       </c>
-      <c r="B115" t="s" s="10">
+      <c r="D115" t="s" s="11">
         <v>677</v>
-      </c>
-      <c r="C115" t="s" s="11">
-        <v>678</v>
-      </c>
-      <c r="D115" t="s" s="11">
-        <v>679</v>
       </c>
       <c r="E115" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F115" t="s" s="11">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G115" s="12">
         <v>0</v>
@@ -11873,10 +11905,10 @@
         <v>44</v>
       </c>
       <c r="R115" t="s" s="11">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="S115" t="s" s="14">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="T115" t="s" s="11">
         <v>28</v>
@@ -11884,22 +11916,22 @@
     </row>
     <row r="116" ht="20.05" customHeight="1">
       <c r="A116" t="s" s="9">
+        <v>681</v>
+      </c>
+      <c r="B116" t="s" s="10">
+        <v>682</v>
+      </c>
+      <c r="C116" t="s" s="11">
         <v>683</v>
       </c>
-      <c r="B116" t="s" s="10">
+      <c r="D116" t="s" s="11">
         <v>684</v>
-      </c>
-      <c r="C116" t="s" s="11">
-        <v>685</v>
-      </c>
-      <c r="D116" t="s" s="11">
-        <v>686</v>
       </c>
       <c r="E116" t="s" s="11">
         <v>25</v>
       </c>
       <c r="F116" t="s" s="11">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G116" s="12">
         <v>0</v>
@@ -11930,7 +11962,7 @@
       </c>
       <c r="R116" s="13"/>
       <c r="S116" t="s" s="11">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="T116" t="s" s="11">
         <v>28</v>
@@ -11938,22 +11970,22 @@
     </row>
     <row r="117" ht="44.05" customHeight="1">
       <c r="A117" t="s" s="9">
+        <v>687</v>
+      </c>
+      <c r="B117" t="s" s="10">
+        <v>688</v>
+      </c>
+      <c r="C117" t="s" s="11">
         <v>689</v>
       </c>
-      <c r="B117" t="s" s="10">
+      <c r="D117" t="s" s="11">
         <v>690</v>
-      </c>
-      <c r="C117" t="s" s="11">
-        <v>691</v>
-      </c>
-      <c r="D117" t="s" s="11">
-        <v>692</v>
       </c>
       <c r="E117" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F117" t="s" s="11">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G117" s="12">
         <v>0</v>
@@ -11983,10 +12015,10 @@
         <v>44</v>
       </c>
       <c r="R117" t="s" s="11">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="S117" t="s" s="14">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="T117" t="s" s="11">
         <v>28</v>
@@ -11994,22 +12026,22 @@
     </row>
     <row r="118" ht="20.05" customHeight="1">
       <c r="A118" t="s" s="9">
+        <v>694</v>
+      </c>
+      <c r="B118" t="s" s="10">
+        <v>695</v>
+      </c>
+      <c r="C118" t="s" s="11">
         <v>696</v>
       </c>
-      <c r="B118" t="s" s="10">
+      <c r="D118" t="s" s="11">
         <v>697</v>
-      </c>
-      <c r="C118" t="s" s="11">
-        <v>698</v>
-      </c>
-      <c r="D118" t="s" s="11">
-        <v>699</v>
       </c>
       <c r="E118" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F118" t="s" s="11">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G118" s="12">
         <v>0</v>
@@ -12039,10 +12071,10 @@
         <v>44</v>
       </c>
       <c r="R118" t="s" s="11">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="S118" t="s" s="11">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="T118" t="s" s="11">
         <v>28</v>
@@ -12050,22 +12082,22 @@
     </row>
     <row r="119" ht="20.05" customHeight="1">
       <c r="A119" t="s" s="9">
+        <v>701</v>
+      </c>
+      <c r="B119" t="s" s="10">
+        <v>702</v>
+      </c>
+      <c r="C119" t="s" s="11">
+        <v>699</v>
+      </c>
+      <c r="D119" t="s" s="11">
         <v>703</v>
-      </c>
-      <c r="B119" t="s" s="10">
-        <v>704</v>
-      </c>
-      <c r="C119" t="s" s="11">
-        <v>701</v>
-      </c>
-      <c r="D119" t="s" s="11">
-        <v>705</v>
       </c>
       <c r="E119" t="s" s="11">
         <v>264</v>
       </c>
       <c r="F119" t="s" s="11">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G119" s="12">
         <v>0</v>
@@ -12095,10 +12127,10 @@
         <v>44</v>
       </c>
       <c r="R119" t="s" s="11">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="S119" t="s" s="11">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="T119" t="s" s="11">
         <v>28</v>
@@ -12106,22 +12138,22 @@
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" t="s" s="9">
+        <v>706</v>
+      </c>
+      <c r="B120" t="s" s="10">
+        <v>707</v>
+      </c>
+      <c r="C120" t="s" s="11">
         <v>708</v>
       </c>
-      <c r="B120" t="s" s="10">
+      <c r="D120" t="s" s="11">
         <v>709</v>
-      </c>
-      <c r="C120" t="s" s="11">
-        <v>710</v>
-      </c>
-      <c r="D120" t="s" s="11">
-        <v>711</v>
       </c>
       <c r="E120" t="s" s="11">
         <v>25</v>
       </c>
       <c r="F120" t="s" s="11">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G120" s="12">
         <v>680</v>
@@ -12153,10 +12185,10 @@
         <v>29</v>
       </c>
       <c r="R120" t="s" s="11">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="S120" t="s" s="11">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="T120" t="s" s="11">
         <v>28</v>
@@ -12164,22 +12196,22 @@
     </row>
     <row r="121" ht="20.05" customHeight="1">
       <c r="A121" t="s" s="9">
+        <v>712</v>
+      </c>
+      <c r="B121" t="s" s="10">
+        <v>713</v>
+      </c>
+      <c r="C121" t="s" s="11">
         <v>714</v>
       </c>
-      <c r="B121" t="s" s="10">
+      <c r="D121" t="s" s="11">
         <v>715</v>
-      </c>
-      <c r="C121" t="s" s="11">
-        <v>716</v>
-      </c>
-      <c r="D121" t="s" s="11">
-        <v>717</v>
       </c>
       <c r="E121" t="s" s="11">
         <v>25</v>
       </c>
       <c r="F121" t="s" s="11">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G121" s="12">
         <v>680</v>
@@ -12211,10 +12243,10 @@
         <v>29</v>
       </c>
       <c r="R121" t="s" s="11">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="S121" t="s" s="11">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="T121" t="s" s="11">
         <v>28</v>
@@ -12222,22 +12254,22 @@
     </row>
     <row r="122" ht="20.05" customHeight="1">
       <c r="A122" t="s" s="9">
+        <v>718</v>
+      </c>
+      <c r="B122" t="s" s="10">
+        <v>719</v>
+      </c>
+      <c r="C122" t="s" s="11">
         <v>720</v>
       </c>
-      <c r="B122" t="s" s="10">
+      <c r="D122" t="s" s="11">
         <v>721</v>
-      </c>
-      <c r="C122" t="s" s="11">
-        <v>722</v>
-      </c>
-      <c r="D122" t="s" s="11">
-        <v>723</v>
       </c>
       <c r="E122" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F122" t="s" s="11">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G122" s="12">
         <v>0</v>
@@ -12267,7 +12299,7 @@
         <v>44</v>
       </c>
       <c r="R122" t="s" s="11">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="S122" s="13"/>
       <c r="T122" t="s" s="11">
@@ -12276,29 +12308,29 @@
     </row>
     <row r="123" ht="20.05" customHeight="1">
       <c r="A123" t="s" s="9">
+        <v>723</v>
+      </c>
+      <c r="B123" t="s" s="10">
+        <v>724</v>
+      </c>
+      <c r="C123" t="s" s="11">
         <v>725</v>
       </c>
-      <c r="B123" t="s" s="10">
+      <c r="D123" t="s" s="11">
         <v>726</v>
-      </c>
-      <c r="C123" t="s" s="11">
-        <v>727</v>
-      </c>
-      <c r="D123" t="s" s="11">
-        <v>728</v>
       </c>
       <c r="E123" t="s" s="11">
         <v>25</v>
       </c>
       <c r="F123" t="s" s="11">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G123" s="12">
         <v>680</v>
       </c>
       <c r="H123" s="13"/>
       <c r="I123" t="s" s="11">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J123" s="12">
         <v>0</v>
@@ -12323,7 +12355,7 @@
         <v>44</v>
       </c>
       <c r="R123" t="s" s="11">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="S123" t="s" s="11">
         <v>102</v>
@@ -12334,22 +12366,22 @@
     </row>
     <row r="124" ht="20.05" customHeight="1">
       <c r="A124" t="s" s="9">
+        <v>730</v>
+      </c>
+      <c r="B124" t="s" s="10">
+        <v>731</v>
+      </c>
+      <c r="C124" t="s" s="11">
         <v>732</v>
       </c>
-      <c r="B124" t="s" s="10">
+      <c r="D124" t="s" s="11">
         <v>733</v>
-      </c>
-      <c r="C124" t="s" s="11">
-        <v>734</v>
-      </c>
-      <c r="D124" t="s" s="11">
-        <v>735</v>
       </c>
       <c r="E124" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F124" t="s" s="11">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G124" s="12">
         <v>470</v>
@@ -12392,22 +12424,22 @@
     </row>
     <row r="125" ht="20.05" customHeight="1">
       <c r="A125" t="s" s="9">
+        <v>735</v>
+      </c>
+      <c r="B125" t="s" s="10">
+        <v>736</v>
+      </c>
+      <c r="C125" t="s" s="11">
         <v>737</v>
       </c>
-      <c r="B125" t="s" s="10">
+      <c r="D125" t="s" s="11">
         <v>738</v>
-      </c>
-      <c r="C125" t="s" s="11">
-        <v>739</v>
-      </c>
-      <c r="D125" t="s" s="11">
-        <v>740</v>
       </c>
       <c r="E125" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F125" t="s" s="11">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G125" s="12">
         <v>470</v>
@@ -12440,7 +12472,7 @@
         <v>311</v>
       </c>
       <c r="S125" t="s" s="11">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="T125" t="s" s="11">
         <v>28</v>
@@ -12448,29 +12480,29 @@
     </row>
     <row r="126" ht="20.05" customHeight="1">
       <c r="A126" t="s" s="9">
+        <v>741</v>
+      </c>
+      <c r="B126" t="s" s="10">
+        <v>742</v>
+      </c>
+      <c r="C126" t="s" s="11">
         <v>743</v>
       </c>
-      <c r="B126" t="s" s="10">
+      <c r="D126" t="s" s="11">
         <v>744</v>
-      </c>
-      <c r="C126" t="s" s="11">
-        <v>745</v>
-      </c>
-      <c r="D126" t="s" s="11">
-        <v>746</v>
       </c>
       <c r="E126" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F126" t="s" s="11">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G126" s="12">
         <v>470</v>
       </c>
       <c r="H126" s="13"/>
       <c r="I126" t="s" s="11">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J126" s="12">
         <v>0</v>
@@ -12495,10 +12527,10 @@
         <v>44</v>
       </c>
       <c r="R126" t="s" s="11">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="S126" t="s" s="11">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="T126" t="s" s="11">
         <v>28</v>
@@ -12506,29 +12538,29 @@
     </row>
     <row r="127" ht="20.05" customHeight="1">
       <c r="A127" t="s" s="9">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B127" t="s" s="10">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C127" t="s" s="11">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D127" t="s" s="11">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E127" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F127" t="s" s="11">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G127" s="12">
         <v>470</v>
       </c>
       <c r="H127" s="13"/>
       <c r="I127" t="s" s="11">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J127" s="12">
         <v>0</v>
@@ -12553,10 +12585,10 @@
         <v>44</v>
       </c>
       <c r="R127" t="s" s="11">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="S127" t="s" s="11">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="T127" t="s" s="11">
         <v>28</v>
@@ -12564,29 +12596,29 @@
     </row>
     <row r="128" ht="20.05" customHeight="1">
       <c r="A128" t="s" s="9">
+        <v>753</v>
+      </c>
+      <c r="B128" t="s" s="10">
+        <v>754</v>
+      </c>
+      <c r="C128" t="s" s="11">
         <v>755</v>
       </c>
-      <c r="B128" t="s" s="10">
+      <c r="D128" t="s" s="11">
         <v>756</v>
-      </c>
-      <c r="C128" t="s" s="11">
-        <v>757</v>
-      </c>
-      <c r="D128" t="s" s="11">
-        <v>758</v>
       </c>
       <c r="E128" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F128" t="s" s="11">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G128" s="12">
         <v>470</v>
       </c>
       <c r="H128" s="13"/>
       <c r="I128" t="s" s="11">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J128" s="12">
         <v>0</v>
@@ -12611,10 +12643,10 @@
         <v>44</v>
       </c>
       <c r="R128" t="s" s="11">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="S128" t="s" s="11">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="T128" t="s" s="11">
         <v>28</v>
@@ -12622,22 +12654,22 @@
     </row>
     <row r="129" ht="20.05" customHeight="1">
       <c r="A129" t="s" s="9">
+        <v>761</v>
+      </c>
+      <c r="B129" t="s" s="10">
+        <v>762</v>
+      </c>
+      <c r="C129" t="s" s="11">
         <v>763</v>
       </c>
-      <c r="B129" t="s" s="10">
+      <c r="D129" t="s" s="11">
         <v>764</v>
-      </c>
-      <c r="C129" t="s" s="11">
-        <v>765</v>
-      </c>
-      <c r="D129" t="s" s="11">
-        <v>766</v>
       </c>
       <c r="E129" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F129" t="s" s="11">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G129" s="12">
         <v>470</v>
@@ -12672,7 +12704,7 @@
         <v>88</v>
       </c>
       <c r="S129" t="s" s="11">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="T129" t="s" s="11">
         <v>165</v>
@@ -12680,22 +12712,22 @@
     </row>
     <row r="130" ht="20.05" customHeight="1">
       <c r="A130" t="s" s="9">
+        <v>767</v>
+      </c>
+      <c r="B130" t="s" s="10">
+        <v>768</v>
+      </c>
+      <c r="C130" t="s" s="11">
         <v>769</v>
       </c>
-      <c r="B130" t="s" s="10">
+      <c r="D130" t="s" s="11">
         <v>770</v>
-      </c>
-      <c r="C130" t="s" s="11">
-        <v>771</v>
-      </c>
-      <c r="D130" t="s" s="11">
-        <v>772</v>
       </c>
       <c r="E130" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F130" t="s" s="11">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G130" s="12">
         <v>0</v>
@@ -12725,10 +12757,10 @@
         <v>44</v>
       </c>
       <c r="R130" t="s" s="11">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="S130" t="s" s="11">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="T130" t="s" s="11">
         <v>28</v>
@@ -12736,22 +12768,22 @@
     </row>
     <row r="131" ht="20.05" customHeight="1">
       <c r="A131" t="s" s="9">
+        <v>774</v>
+      </c>
+      <c r="B131" t="s" s="10">
+        <v>775</v>
+      </c>
+      <c r="C131" t="s" s="11">
         <v>776</v>
       </c>
-      <c r="B131" t="s" s="10">
+      <c r="D131" t="s" s="11">
         <v>777</v>
-      </c>
-      <c r="C131" t="s" s="11">
-        <v>778</v>
-      </c>
-      <c r="D131" t="s" s="11">
-        <v>779</v>
       </c>
       <c r="E131" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F131" t="s" s="11">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G131" s="12">
         <v>0</v>
@@ -12781,10 +12813,10 @@
         <v>44</v>
       </c>
       <c r="R131" t="s" s="11">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="S131" t="s" s="11">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="T131" t="s" s="11">
         <v>28</v>
@@ -12792,22 +12824,22 @@
     </row>
     <row r="132" ht="20.05" customHeight="1">
       <c r="A132" t="s" s="9">
+        <v>781</v>
+      </c>
+      <c r="B132" t="s" s="10">
+        <v>782</v>
+      </c>
+      <c r="C132" t="s" s="11">
         <v>783</v>
       </c>
-      <c r="B132" t="s" s="10">
+      <c r="D132" t="s" s="11">
         <v>784</v>
-      </c>
-      <c r="C132" t="s" s="11">
-        <v>785</v>
-      </c>
-      <c r="D132" t="s" s="11">
-        <v>786</v>
       </c>
       <c r="E132" t="s" s="11">
         <v>365</v>
       </c>
       <c r="F132" t="s" s="11">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G132" s="12">
         <v>0</v>
@@ -12838,7 +12870,7 @@
       </c>
       <c r="R132" s="13"/>
       <c r="S132" t="s" s="11">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="T132" t="s" s="11">
         <v>28</v>
@@ -12846,22 +12878,22 @@
     </row>
     <row r="133" ht="20.05" customHeight="1">
       <c r="A133" t="s" s="9">
+        <v>787</v>
+      </c>
+      <c r="B133" t="s" s="10">
+        <v>788</v>
+      </c>
+      <c r="C133" t="s" s="11">
         <v>789</v>
       </c>
-      <c r="B133" t="s" s="10">
+      <c r="D133" t="s" s="11">
         <v>790</v>
-      </c>
-      <c r="C133" t="s" s="11">
-        <v>791</v>
-      </c>
-      <c r="D133" t="s" s="11">
-        <v>792</v>
       </c>
       <c r="E133" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F133" t="s" s="11">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G133" s="12">
         <v>0</v>
@@ -12891,10 +12923,10 @@
         <v>44</v>
       </c>
       <c r="R133" t="s" s="11">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="S133" t="s" s="11">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="T133" t="s" s="11">
         <v>28</v>
@@ -12902,22 +12934,22 @@
     </row>
     <row r="134" ht="20.05" customHeight="1">
       <c r="A134" t="s" s="9">
+        <v>794</v>
+      </c>
+      <c r="B134" t="s" s="10">
+        <v>795</v>
+      </c>
+      <c r="C134" t="s" s="11">
+        <v>792</v>
+      </c>
+      <c r="D134" t="s" s="11">
         <v>796</v>
-      </c>
-      <c r="B134" t="s" s="10">
-        <v>797</v>
-      </c>
-      <c r="C134" t="s" s="11">
-        <v>794</v>
-      </c>
-      <c r="D134" t="s" s="11">
-        <v>798</v>
       </c>
       <c r="E134" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F134" t="s" s="11">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G134" s="12">
         <v>0</v>
@@ -12947,10 +12979,10 @@
         <v>44</v>
       </c>
       <c r="R134" t="s" s="11">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="S134" t="s" s="11">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="T134" t="s" s="11">
         <v>28</v>
@@ -12958,22 +12990,22 @@
     </row>
     <row r="135" ht="20.05" customHeight="1">
       <c r="A135" t="s" s="9">
+        <v>799</v>
+      </c>
+      <c r="B135" t="s" s="10">
+        <v>800</v>
+      </c>
+      <c r="C135" t="s" s="11">
         <v>801</v>
       </c>
-      <c r="B135" t="s" s="10">
+      <c r="D135" t="s" s="11">
         <v>802</v>
-      </c>
-      <c r="C135" t="s" s="11">
-        <v>803</v>
-      </c>
-      <c r="D135" t="s" s="11">
-        <v>804</v>
       </c>
       <c r="E135" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F135" t="s" s="11">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G135" s="12">
         <v>0</v>
@@ -13004,7 +13036,7 @@
       </c>
       <c r="R135" s="13"/>
       <c r="S135" t="s" s="11">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="T135" t="s" s="11">
         <v>28</v>
@@ -13012,22 +13044,22 @@
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" t="s" s="9">
+        <v>805</v>
+      </c>
+      <c r="B136" t="s" s="10">
+        <v>806</v>
+      </c>
+      <c r="C136" t="s" s="11">
         <v>807</v>
       </c>
-      <c r="B136" t="s" s="10">
+      <c r="D136" t="s" s="11">
         <v>808</v>
-      </c>
-      <c r="C136" t="s" s="11">
-        <v>809</v>
-      </c>
-      <c r="D136" t="s" s="11">
-        <v>810</v>
       </c>
       <c r="E136" t="s" s="11">
         <v>25</v>
       </c>
       <c r="F136" t="s" s="11">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G136" s="12">
         <v>0</v>
@@ -13058,7 +13090,7 @@
       </c>
       <c r="R136" s="13"/>
       <c r="S136" t="s" s="11">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="T136" t="s" s="11">
         <v>28</v>
@@ -13066,29 +13098,29 @@
     </row>
     <row r="137" ht="20.05" customHeight="1">
       <c r="A137" t="s" s="9">
+        <v>811</v>
+      </c>
+      <c r="B137" t="s" s="10">
+        <v>812</v>
+      </c>
+      <c r="C137" t="s" s="11">
         <v>813</v>
       </c>
-      <c r="B137" t="s" s="10">
+      <c r="D137" t="s" s="11">
         <v>814</v>
-      </c>
-      <c r="C137" t="s" s="11">
-        <v>815</v>
-      </c>
-      <c r="D137" t="s" s="11">
-        <v>816</v>
       </c>
       <c r="E137" t="s" s="11">
         <v>264</v>
       </c>
       <c r="F137" t="s" s="11">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G137" s="12">
         <v>420</v>
       </c>
       <c r="H137" s="13"/>
       <c r="I137" t="s" s="11">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="J137" s="12">
         <v>0</v>
@@ -13116,7 +13148,7 @@
         <v>311</v>
       </c>
       <c r="S137" t="s" s="11">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="T137" t="s" s="11">
         <v>28</v>
@@ -13124,22 +13156,22 @@
     </row>
     <row r="138" ht="20.05" customHeight="1">
       <c r="A138" t="s" s="9">
+        <v>818</v>
+      </c>
+      <c r="B138" t="s" s="10">
+        <v>819</v>
+      </c>
+      <c r="C138" t="s" s="11">
         <v>820</v>
       </c>
-      <c r="B138" t="s" s="10">
+      <c r="D138" t="s" s="11">
         <v>821</v>
-      </c>
-      <c r="C138" t="s" s="11">
-        <v>822</v>
-      </c>
-      <c r="D138" t="s" s="11">
-        <v>823</v>
       </c>
       <c r="E138" t="s" s="11">
         <v>25</v>
       </c>
       <c r="F138" t="s" s="11">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G138" s="12">
         <v>0</v>
@@ -13170,7 +13202,7 @@
       </c>
       <c r="R138" s="13"/>
       <c r="S138" t="s" s="11">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="T138" t="s" s="11">
         <v>28</v>
@@ -13178,22 +13210,22 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="9">
+        <v>824</v>
+      </c>
+      <c r="B139" t="s" s="10">
+        <v>825</v>
+      </c>
+      <c r="C139" t="s" s="11">
         <v>826</v>
       </c>
-      <c r="B139" t="s" s="10">
+      <c r="D139" t="s" s="11">
         <v>827</v>
-      </c>
-      <c r="C139" t="s" s="11">
-        <v>828</v>
-      </c>
-      <c r="D139" t="s" s="11">
-        <v>829</v>
       </c>
       <c r="E139" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F139" t="s" s="11">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G139" s="12">
         <v>0</v>
@@ -13223,10 +13255,10 @@
         <v>44</v>
       </c>
       <c r="R139" t="s" s="11">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="S139" t="s" s="11">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T139" t="s" s="11">
         <v>28</v>
@@ -13234,22 +13266,22 @@
     </row>
     <row r="140" ht="20.05" customHeight="1">
       <c r="A140" t="s" s="9">
+        <v>831</v>
+      </c>
+      <c r="B140" t="s" s="10">
+        <v>832</v>
+      </c>
+      <c r="C140" t="s" s="11">
+        <v>829</v>
+      </c>
+      <c r="D140" t="s" s="11">
         <v>833</v>
-      </c>
-      <c r="B140" t="s" s="10">
-        <v>834</v>
-      </c>
-      <c r="C140" t="s" s="11">
-        <v>831</v>
-      </c>
-      <c r="D140" t="s" s="11">
-        <v>835</v>
       </c>
       <c r="E140" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F140" t="s" s="11">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G140" s="12">
         <v>0</v>
@@ -13279,10 +13311,10 @@
         <v>44</v>
       </c>
       <c r="R140" t="s" s="11">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="S140" t="s" s="11">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="T140" t="s" s="11">
         <v>28</v>
@@ -13290,22 +13322,22 @@
     </row>
     <row r="141" ht="20.05" customHeight="1">
       <c r="A141" t="s" s="9">
+        <v>836</v>
+      </c>
+      <c r="B141" t="s" s="10">
+        <v>837</v>
+      </c>
+      <c r="C141" t="s" s="11">
         <v>838</v>
       </c>
-      <c r="B141" t="s" s="10">
+      <c r="D141" t="s" s="11">
         <v>839</v>
-      </c>
-      <c r="C141" t="s" s="11">
-        <v>840</v>
-      </c>
-      <c r="D141" t="s" s="11">
-        <v>841</v>
       </c>
       <c r="E141" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F141" t="s" s="11">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G141" s="12">
         <v>0</v>
@@ -13335,10 +13367,10 @@
         <v>44</v>
       </c>
       <c r="R141" t="s" s="11">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="S141" t="s" s="11">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T141" t="s" s="11">
         <v>28</v>
@@ -13346,22 +13378,22 @@
     </row>
     <row r="142" ht="20.05" customHeight="1">
       <c r="A142" t="s" s="9">
+        <v>842</v>
+      </c>
+      <c r="B142" t="s" s="10">
+        <v>843</v>
+      </c>
+      <c r="C142" t="s" s="11">
         <v>844</v>
       </c>
-      <c r="B142" t="s" s="10">
+      <c r="D142" t="s" s="11">
         <v>845</v>
-      </c>
-      <c r="C142" t="s" s="11">
-        <v>846</v>
-      </c>
-      <c r="D142" t="s" s="11">
-        <v>847</v>
       </c>
       <c r="E142" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F142" t="s" s="11">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G142" s="12">
         <v>0</v>
@@ -13391,10 +13423,10 @@
         <v>29</v>
       </c>
       <c r="R142" t="s" s="11">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="S142" t="s" s="11">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T142" t="s" s="11">
         <v>28</v>
@@ -13402,22 +13434,22 @@
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="9">
+        <v>848</v>
+      </c>
+      <c r="B143" t="s" s="10">
+        <v>849</v>
+      </c>
+      <c r="C143" t="s" s="11">
         <v>850</v>
       </c>
-      <c r="B143" t="s" s="10">
+      <c r="D143" t="s" s="11">
         <v>851</v>
-      </c>
-      <c r="C143" t="s" s="11">
-        <v>852</v>
-      </c>
-      <c r="D143" t="s" s="11">
-        <v>853</v>
       </c>
       <c r="E143" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F143" t="s" s="11">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G143" s="12">
         <v>0</v>
@@ -13447,10 +13479,10 @@
         <v>44</v>
       </c>
       <c r="R143" t="s" s="11">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="S143" t="s" s="11">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T143" t="s" s="11">
         <v>28</v>
@@ -13458,22 +13490,22 @@
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" t="s" s="9">
+        <v>854</v>
+      </c>
+      <c r="B144" t="s" s="10">
+        <v>855</v>
+      </c>
+      <c r="C144" t="s" s="11">
+        <v>853</v>
+      </c>
+      <c r="D144" t="s" s="11">
         <v>856</v>
-      </c>
-      <c r="B144" t="s" s="10">
-        <v>857</v>
-      </c>
-      <c r="C144" t="s" s="11">
-        <v>855</v>
-      </c>
-      <c r="D144" t="s" s="11">
-        <v>858</v>
       </c>
       <c r="E144" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F144" t="s" s="11">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G144" s="12">
         <v>0</v>
@@ -13503,10 +13535,10 @@
         <v>44</v>
       </c>
       <c r="R144" t="s" s="11">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="S144" t="s" s="11">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T144" t="s" s="11">
         <v>28</v>
@@ -13514,22 +13546,22 @@
     </row>
     <row r="145" ht="20.05" customHeight="1">
       <c r="A145" t="s" s="9">
+        <v>858</v>
+      </c>
+      <c r="B145" t="s" s="10">
+        <v>859</v>
+      </c>
+      <c r="C145" t="s" s="11">
         <v>860</v>
       </c>
-      <c r="B145" t="s" s="10">
+      <c r="D145" t="s" s="11">
         <v>861</v>
-      </c>
-      <c r="C145" t="s" s="11">
-        <v>862</v>
-      </c>
-      <c r="D145" t="s" s="11">
-        <v>863</v>
       </c>
       <c r="E145" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F145" t="s" s="11">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G145" s="12">
         <v>0</v>
@@ -13559,7 +13591,7 @@
         <v>44</v>
       </c>
       <c r="R145" t="s" s="11">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="S145" s="13"/>
       <c r="T145" t="s" s="11">
@@ -13568,22 +13600,22 @@
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" t="s" s="9">
+        <v>864</v>
+      </c>
+      <c r="B146" t="s" s="10">
+        <v>865</v>
+      </c>
+      <c r="C146" t="s" s="11">
         <v>866</v>
       </c>
-      <c r="B146" t="s" s="10">
+      <c r="D146" t="s" s="11">
         <v>867</v>
-      </c>
-      <c r="C146" t="s" s="11">
-        <v>868</v>
-      </c>
-      <c r="D146" t="s" s="11">
-        <v>869</v>
       </c>
       <c r="E146" t="s" s="11">
         <v>264</v>
       </c>
       <c r="F146" t="s" s="11">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G146" s="12">
         <v>0</v>
@@ -13613,10 +13645,10 @@
         <v>44</v>
       </c>
       <c r="R146" t="s" s="11">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="S146" t="s" s="11">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T146" t="s" s="11">
         <v>28</v>
@@ -13624,22 +13656,22 @@
     </row>
     <row r="147" ht="20.05" customHeight="1">
       <c r="A147" t="s" s="9">
+        <v>870</v>
+      </c>
+      <c r="B147" t="s" s="10">
+        <v>871</v>
+      </c>
+      <c r="C147" t="s" s="11">
         <v>872</v>
       </c>
-      <c r="B147" t="s" s="10">
+      <c r="D147" t="s" s="11">
         <v>873</v>
-      </c>
-      <c r="C147" t="s" s="11">
-        <v>874</v>
-      </c>
-      <c r="D147" t="s" s="11">
-        <v>875</v>
       </c>
       <c r="E147" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F147" t="s" s="11">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G147" s="12">
         <v>0</v>
@@ -13669,10 +13701,10 @@
         <v>44</v>
       </c>
       <c r="R147" t="s" s="11">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="S147" t="s" s="11">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T147" t="s" s="11">
         <v>28</v>
@@ -13680,22 +13712,22 @@
     </row>
     <row r="148" ht="20.05" customHeight="1">
       <c r="A148" t="s" s="9">
+        <v>875</v>
+      </c>
+      <c r="B148" t="s" s="10">
+        <v>876</v>
+      </c>
+      <c r="C148" t="s" s="11">
         <v>877</v>
       </c>
-      <c r="B148" t="s" s="10">
+      <c r="D148" t="s" s="11">
         <v>878</v>
-      </c>
-      <c r="C148" t="s" s="11">
-        <v>879</v>
-      </c>
-      <c r="D148" t="s" s="11">
-        <v>880</v>
       </c>
       <c r="E148" t="s" s="11">
         <v>264</v>
       </c>
       <c r="F148" t="s" s="11">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G148" s="12">
         <v>0</v>
@@ -13725,10 +13757,10 @@
         <v>44</v>
       </c>
       <c r="R148" t="s" s="11">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="S148" t="s" s="11">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T148" t="s" s="11">
         <v>28</v>
@@ -13736,22 +13768,22 @@
     </row>
     <row r="149" ht="20.05" customHeight="1">
       <c r="A149" t="s" s="9">
+        <v>880</v>
+      </c>
+      <c r="B149" t="s" s="10">
+        <v>881</v>
+      </c>
+      <c r="C149" t="s" s="11">
         <v>882</v>
       </c>
-      <c r="B149" t="s" s="10">
+      <c r="D149" t="s" s="11">
         <v>883</v>
-      </c>
-      <c r="C149" t="s" s="11">
-        <v>884</v>
-      </c>
-      <c r="D149" t="s" s="11">
-        <v>885</v>
       </c>
       <c r="E149" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F149" t="s" s="11">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G149" s="12">
         <v>0</v>
@@ -13781,10 +13813,10 @@
         <v>44</v>
       </c>
       <c r="R149" t="s" s="11">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="S149" t="s" s="11">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="T149" t="s" s="11">
         <v>28</v>
@@ -13792,22 +13824,22 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="9">
+        <v>887</v>
+      </c>
+      <c r="B150" t="s" s="10">
+        <v>888</v>
+      </c>
+      <c r="C150" t="s" s="11">
+        <v>885</v>
+      </c>
+      <c r="D150" t="s" s="11">
         <v>889</v>
-      </c>
-      <c r="B150" t="s" s="10">
-        <v>890</v>
-      </c>
-      <c r="C150" t="s" s="11">
-        <v>887</v>
-      </c>
-      <c r="D150" t="s" s="11">
-        <v>891</v>
       </c>
       <c r="E150" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F150" t="s" s="11">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G150" s="12">
         <v>0</v>
@@ -13837,10 +13869,10 @@
         <v>44</v>
       </c>
       <c r="R150" t="s" s="11">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="S150" t="s" s="11">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="T150" t="s" s="11">
         <v>28</v>
@@ -13848,22 +13880,22 @@
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="9">
+        <v>891</v>
+      </c>
+      <c r="B151" t="s" s="10">
+        <v>892</v>
+      </c>
+      <c r="C151" t="s" s="11">
         <v>893</v>
       </c>
-      <c r="B151" t="s" s="10">
+      <c r="D151" t="s" s="11">
         <v>894</v>
-      </c>
-      <c r="C151" t="s" s="11">
-        <v>895</v>
-      </c>
-      <c r="D151" t="s" s="11">
-        <v>896</v>
       </c>
       <c r="E151" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F151" t="s" s="11">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G151" s="12">
         <v>0</v>
@@ -13893,10 +13925,10 @@
         <v>44</v>
       </c>
       <c r="R151" t="s" s="11">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="S151" t="s" s="11">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="T151" t="s" s="11">
         <v>28</v>
@@ -13904,22 +13936,22 @@
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="9">
+        <v>897</v>
+      </c>
+      <c r="B152" t="s" s="10">
+        <v>898</v>
+      </c>
+      <c r="C152" t="s" s="11">
+        <v>896</v>
+      </c>
+      <c r="D152" t="s" s="11">
         <v>899</v>
-      </c>
-      <c r="B152" t="s" s="10">
-        <v>900</v>
-      </c>
-      <c r="C152" t="s" s="11">
-        <v>898</v>
-      </c>
-      <c r="D152" t="s" s="11">
-        <v>901</v>
       </c>
       <c r="E152" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F152" t="s" s="11">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G152" s="12">
         <v>0</v>
@@ -13949,10 +13981,10 @@
         <v>44</v>
       </c>
       <c r="R152" t="s" s="11">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="S152" t="s" s="11">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="T152" t="s" s="11">
         <v>28</v>
@@ -13960,13 +13992,13 @@
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="9">
+        <v>901</v>
+      </c>
+      <c r="B153" t="s" s="10">
+        <v>902</v>
+      </c>
+      <c r="C153" t="s" s="11">
         <v>903</v>
-      </c>
-      <c r="B153" t="s" s="10">
-        <v>904</v>
-      </c>
-      <c r="C153" t="s" s="11">
-        <v>905</v>
       </c>
       <c r="D153" t="s" s="11">
         <v>457</v>
@@ -13975,7 +14007,7 @@
         <v>50</v>
       </c>
       <c r="F153" t="s" s="11">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G153" s="12">
         <v>0</v>
@@ -14005,10 +14037,10 @@
         <v>44</v>
       </c>
       <c r="R153" t="s" s="11">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="S153" t="s" s="11">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="T153" t="s" s="11">
         <v>28</v>
@@ -14016,22 +14048,22 @@
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" t="s" s="9">
+        <v>907</v>
+      </c>
+      <c r="B154" t="s" s="10">
+        <v>908</v>
+      </c>
+      <c r="C154" t="s" s="11">
+        <v>905</v>
+      </c>
+      <c r="D154" t="s" s="11">
         <v>909</v>
-      </c>
-      <c r="B154" t="s" s="10">
-        <v>910</v>
-      </c>
-      <c r="C154" t="s" s="11">
-        <v>907</v>
-      </c>
-      <c r="D154" t="s" s="11">
-        <v>911</v>
       </c>
       <c r="E154" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F154" t="s" s="11">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G154" s="12">
         <v>0</v>
@@ -14061,10 +14093,10 @@
         <v>44</v>
       </c>
       <c r="R154" t="s" s="11">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="S154" t="s" s="11">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="T154" t="s" s="11">
         <v>28</v>
@@ -14072,22 +14104,22 @@
     </row>
     <row r="155" ht="20.05" customHeight="1">
       <c r="A155" t="s" s="9">
+        <v>912</v>
+      </c>
+      <c r="B155" t="s" s="10">
+        <v>913</v>
+      </c>
+      <c r="C155" t="s" s="11">
         <v>914</v>
       </c>
-      <c r="B155" t="s" s="10">
+      <c r="D155" t="s" s="11">
         <v>915</v>
-      </c>
-      <c r="C155" t="s" s="11">
-        <v>916</v>
-      </c>
-      <c r="D155" t="s" s="11">
-        <v>917</v>
       </c>
       <c r="E155" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F155" t="s" s="11">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G155" s="12">
         <v>0</v>
@@ -14117,10 +14149,10 @@
         <v>44</v>
       </c>
       <c r="R155" t="s" s="11">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="S155" t="s" s="11">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="T155" t="s" s="11">
         <v>28</v>
@@ -14128,22 +14160,22 @@
     </row>
     <row r="156" ht="20.05" customHeight="1">
       <c r="A156" t="s" s="9">
+        <v>918</v>
+      </c>
+      <c r="B156" t="s" s="10">
+        <v>919</v>
+      </c>
+      <c r="C156" t="s" s="11">
+        <v>917</v>
+      </c>
+      <c r="D156" t="s" s="11">
         <v>920</v>
-      </c>
-      <c r="B156" t="s" s="10">
-        <v>921</v>
-      </c>
-      <c r="C156" t="s" s="11">
-        <v>919</v>
-      </c>
-      <c r="D156" t="s" s="11">
-        <v>922</v>
       </c>
       <c r="E156" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F156" t="s" s="11">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G156" s="12">
         <v>0</v>
@@ -14173,10 +14205,10 @@
         <v>44</v>
       </c>
       <c r="R156" t="s" s="11">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="S156" t="s" s="11">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="T156" t="s" s="11">
         <v>28</v>
@@ -14184,13 +14216,13 @@
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" t="s" s="9">
+        <v>922</v>
+      </c>
+      <c r="B157" t="s" s="10">
+        <v>923</v>
+      </c>
+      <c r="C157" t="s" s="11">
         <v>924</v>
-      </c>
-      <c r="B157" t="s" s="10">
-        <v>925</v>
-      </c>
-      <c r="C157" t="s" s="11">
-        <v>926</v>
       </c>
       <c r="D157" t="s" s="11">
         <v>457</v>
@@ -14199,7 +14231,7 @@
         <v>50</v>
       </c>
       <c r="F157" t="s" s="11">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G157" s="12">
         <v>0</v>
@@ -14229,10 +14261,10 @@
         <v>44</v>
       </c>
       <c r="R157" t="s" s="11">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="S157" t="s" s="11">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="T157" t="s" s="11">
         <v>28</v>
@@ -14240,22 +14272,22 @@
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" t="s" s="9">
+        <v>928</v>
+      </c>
+      <c r="B158" t="s" s="10">
+        <v>929</v>
+      </c>
+      <c r="C158" t="s" s="11">
+        <v>926</v>
+      </c>
+      <c r="D158" t="s" s="11">
         <v>930</v>
-      </c>
-      <c r="B158" t="s" s="10">
-        <v>931</v>
-      </c>
-      <c r="C158" t="s" s="11">
-        <v>928</v>
-      </c>
-      <c r="D158" t="s" s="11">
-        <v>932</v>
       </c>
       <c r="E158" t="s" s="11">
         <v>264</v>
       </c>
       <c r="F158" t="s" s="11">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G158" s="12">
         <v>0</v>
@@ -14285,10 +14317,10 @@
         <v>44</v>
       </c>
       <c r="R158" t="s" s="11">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="S158" t="s" s="11">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="T158" t="s" s="11">
         <v>28</v>
@@ -14296,22 +14328,22 @@
     </row>
     <row r="159" ht="32.05" customHeight="1">
       <c r="A159" t="s" s="9">
+        <v>934</v>
+      </c>
+      <c r="B159" t="s" s="10">
+        <v>935</v>
+      </c>
+      <c r="C159" t="s" s="11">
         <v>936</v>
       </c>
-      <c r="B159" t="s" s="10">
+      <c r="D159" t="s" s="11">
         <v>937</v>
-      </c>
-      <c r="C159" t="s" s="11">
-        <v>938</v>
-      </c>
-      <c r="D159" t="s" s="11">
-        <v>939</v>
       </c>
       <c r="E159" t="s" s="11">
         <v>264</v>
       </c>
       <c r="F159" t="s" s="11">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G159" s="12">
         <v>0</v>
@@ -14341,10 +14373,10 @@
         <v>44</v>
       </c>
       <c r="R159" t="s" s="11">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="S159" t="s" s="14">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="T159" t="s" s="11">
         <v>28</v>
@@ -14352,22 +14384,22 @@
     </row>
     <row r="160" ht="32.05" customHeight="1">
       <c r="A160" t="s" s="9">
+        <v>941</v>
+      </c>
+      <c r="B160" t="s" s="10">
+        <v>942</v>
+      </c>
+      <c r="C160" t="s" s="11">
+        <v>939</v>
+      </c>
+      <c r="D160" t="s" s="11">
         <v>943</v>
-      </c>
-      <c r="B160" t="s" s="10">
-        <v>944</v>
-      </c>
-      <c r="C160" t="s" s="11">
-        <v>941</v>
-      </c>
-      <c r="D160" t="s" s="11">
-        <v>945</v>
       </c>
       <c r="E160" t="s" s="11">
         <v>50</v>
       </c>
       <c r="F160" t="s" s="11">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G160" s="12">
         <v>0</v>
@@ -14397,12 +14429,124 @@
         <v>44</v>
       </c>
       <c r="R160" t="s" s="11">
+        <v>945</v>
+      </c>
+      <c r="S160" t="s" s="14">
+        <v>946</v>
+      </c>
+      <c r="T160" t="s" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" ht="20.05" customHeight="1">
+      <c r="A161" t="s" s="9">
         <v>947</v>
       </c>
-      <c r="S160" t="s" s="14">
+      <c r="B161" t="s" s="10">
         <v>948</v>
       </c>
-      <c r="T160" t="s" s="11">
+      <c r="C161" t="s" s="11">
+        <v>949</v>
+      </c>
+      <c r="D161" t="s" s="11">
+        <v>950</v>
+      </c>
+      <c r="E161" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="F161" t="s" s="11">
+        <v>951</v>
+      </c>
+      <c r="G161" s="12">
+        <v>0</v>
+      </c>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="12">
+        <v>0</v>
+      </c>
+      <c r="K161" s="12">
+        <v>0</v>
+      </c>
+      <c r="L161" s="12">
+        <v>0</v>
+      </c>
+      <c r="M161" s="12">
+        <v>0</v>
+      </c>
+      <c r="N161" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="O161" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="P161" s="13"/>
+      <c r="Q161" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="R161" t="s" s="11">
+        <v>952</v>
+      </c>
+      <c r="S161" t="s" s="11">
+        <v>835</v>
+      </c>
+      <c r="T161" t="s" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" ht="20.05" customHeight="1">
+      <c r="A162" t="s" s="9">
+        <v>953</v>
+      </c>
+      <c r="B162" t="s" s="10">
+        <v>954</v>
+      </c>
+      <c r="C162" t="s" s="11">
+        <v>841</v>
+      </c>
+      <c r="D162" t="s" s="11">
+        <v>955</v>
+      </c>
+      <c r="E162" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="F162" t="s" s="11">
+        <v>956</v>
+      </c>
+      <c r="G162" s="12">
+        <v>0</v>
+      </c>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="12">
+        <v>0</v>
+      </c>
+      <c r="K162" s="12">
+        <v>0</v>
+      </c>
+      <c r="L162" s="12">
+        <v>0</v>
+      </c>
+      <c r="M162" s="12">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="O162" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="P162" s="13"/>
+      <c r="Q162" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="R162" t="s" s="11">
+        <v>838</v>
+      </c>
+      <c r="S162" t="s" s="11">
+        <v>835</v>
+      </c>
+      <c r="T162" t="s" s="11">
         <v>28</v>
       </c>
     </row>
@@ -14569,6 +14713,8 @@
     <hyperlink ref="D158" r:id="rId156" location="" tooltip="" display="marcos_19_90@hotmail.com"/>
     <hyperlink ref="D159" r:id="rId157" location="" tooltip="" display="franjo.helu@gmail.com"/>
     <hyperlink ref="D160" r:id="rId158" location="" tooltip="" display="juanmiguel.garcia17@gmail.com"/>
+    <hyperlink ref="D161" r:id="rId159" location="" tooltip="" display="joelcheung01@gmail.com"/>
+    <hyperlink ref="D162" r:id="rId160" location="" tooltip="" display="kasiakowal3001@gmail.com"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/sql/websales.xlsx
+++ b/sql/websales.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="957">
-  <si>
-    <t>Guest list bos-majorca-holiday-2024 2024-10-05</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1008">
+  <si>
+    <t>Guest list bos-majorca-holiday-2024 2024-10-10</t>
   </si>
   <si>
     <t>Order number</t>
@@ -3628,7 +3628,7 @@
     <t>2WR9-ZVB2-2RL1P</t>
   </si>
   <si>
-    <t>TBC - ask Marky Mark</t>
+    <t>Mariusz Zarachowicz</t>
   </si>
   <si>
     <t>2WRB-00XM-XL3</t>
@@ -4081,7 +4081,7 @@
     <t>2WRX-DH75-35F1P</t>
   </si>
   <si>
-    <t>Nived Subbarayan (I think awaiting the money)</t>
+    <t>Nived Subbarayan</t>
   </si>
   <si>
     <t>2WRX-DN7N-N1R</t>
@@ -4102,6 +4102,232 @@
   </si>
   <si>
     <t>2WRX-DN7N-N1R1P</t>
+  </si>
+  <si>
+    <t>2WS3-DS6Z-DVB</t>
+  </si>
+  <si>
+    <t>2024-10-06 20:19:07</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>mariuszzar@icloud.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WS3-DS6Z-DVB1P</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>2WS7-6C02-793</t>
+  </si>
+  <si>
+    <t>2024-10-07 19:18:51</t>
+  </si>
+  <si>
+    <t>Sanjay Chugh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>chughsanj@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WS7-6C02-7931P</t>
+  </si>
+  <si>
+    <t>Single Room booked through BOS</t>
+  </si>
+  <si>
+    <t>booked direct through BOS</t>
+  </si>
+  <si>
+    <t>2WS8-0N3L-PV6</t>
+  </si>
+  <si>
+    <t>2024-10-08 00:14:09</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>ssnived@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WS8-0N3L-PV61P</t>
+  </si>
+  <si>
+    <t>2WS8-0TW1-23N</t>
+  </si>
+  <si>
+    <t>2024-10-08 00:16:29</t>
+  </si>
+  <si>
+    <t>Su Jin Han</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>sujinpark79@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WS8-0TW1-23N1P</t>
+  </si>
+  <si>
+    <t>Chrysa Skliopidou (awaiting payment)</t>
+  </si>
+  <si>
+    <t>2WSB-4V55-RR1</t>
+  </si>
+  <si>
+    <t>2024-10-08 13:14:12</t>
+  </si>
+  <si>
+    <t>Lola Gill</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Kevin_p_gill@yahoo.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WSB-4V55-RR11P</t>
+  </si>
+  <si>
+    <t>2WSB-50T2-N5J</t>
+  </si>
+  <si>
+    <t>2024-10-08 13:16:05</t>
+  </si>
+  <si>
+    <t>Ariana Zuna Ortega</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>arianazuna@googlemail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WSB-50T2-N5J1P</t>
+  </si>
+  <si>
+    <t>Jonathan Goldman</t>
+  </si>
+  <si>
+    <t>2WSB-54KW-BGJ</t>
+  </si>
+  <si>
+    <t>2024-10-08 13:17:36</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>jgoldman229@live.co.uk</t>
+    </r>
+  </si>
+  <si>
+    <t>2WSB-54KW-BGJ1P</t>
+  </si>
+  <si>
+    <t>2WSF-DRKD-D5K</t>
+  </si>
+  <si>
+    <t>2024-10-09 09:03:51</t>
+  </si>
+  <si>
+    <t>Oi Yean Wong</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>w.o.yean@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WSF-DRKD-D5K1P</t>
+  </si>
+  <si>
+    <t>N/A. If there is last minute cancellation and availability for single occupancy or jacuzzi rooms, please let me know. Thank you.</t>
+  </si>
+  <si>
+    <t>Female. Ideally &gt;30 years old. 
+If there is last minute cancellation and availability for single occupancy or jacuzzi rooms, please let me know. Thank you.</t>
+  </si>
+  <si>
+    <t>2WSH-QGGN-ZR9</t>
+  </si>
+  <si>
+    <t>2024-10-09 23:10:40</t>
+  </si>
+  <si>
+    <t>James re</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Jamezreid1@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WSH-QGGN-ZR91P</t>
+  </si>
+  <si>
+    <t>I do not already have someone to share a room with</t>
+  </si>
+  <si>
+    <t>I have no preferences other than to be paired with another male.</t>
   </si>
 </sst>
 </file>
@@ -5373,7 +5599,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T162"/>
+  <dimension ref="A2:T171"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -13420,7 +13646,7 @@
       </c>
       <c r="P142" s="13"/>
       <c r="Q142" t="s" s="11">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="R142" t="s" s="11">
         <v>847</v>
@@ -14547,6 +14773,506 @@
         <v>835</v>
       </c>
       <c r="T162" t="s" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" ht="20.05" customHeight="1">
+      <c r="A163" t="s" s="9">
+        <v>957</v>
+      </c>
+      <c r="B163" t="s" s="10">
+        <v>958</v>
+      </c>
+      <c r="C163" t="s" s="11">
+        <v>847</v>
+      </c>
+      <c r="D163" t="s" s="11">
+        <v>959</v>
+      </c>
+      <c r="E163" t="s" s="11">
+        <v>264</v>
+      </c>
+      <c r="F163" t="s" s="11">
+        <v>960</v>
+      </c>
+      <c r="G163" s="12">
+        <v>420</v>
+      </c>
+      <c r="H163" s="13"/>
+      <c r="I163" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="J163" s="12">
+        <v>0</v>
+      </c>
+      <c r="K163" s="12">
+        <v>400</v>
+      </c>
+      <c r="L163" s="12">
+        <v>0</v>
+      </c>
+      <c r="M163" s="12">
+        <v>400</v>
+      </c>
+      <c r="N163" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="O163" t="s" s="11">
+        <v>961</v>
+      </c>
+      <c r="P163" s="13"/>
+      <c r="Q163" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="R163" t="s" s="11">
+        <v>844</v>
+      </c>
+      <c r="S163" s="13"/>
+      <c r="T163" t="s" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" ht="20.05" customHeight="1">
+      <c r="A164" t="s" s="9">
+        <v>962</v>
+      </c>
+      <c r="B164" t="s" s="10">
+        <v>963</v>
+      </c>
+      <c r="C164" t="s" s="11">
+        <v>964</v>
+      </c>
+      <c r="D164" t="s" s="11">
+        <v>965</v>
+      </c>
+      <c r="E164" t="s" s="11">
+        <v>107</v>
+      </c>
+      <c r="F164" t="s" s="11">
+        <v>966</v>
+      </c>
+      <c r="G164" s="12">
+        <v>0</v>
+      </c>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="12">
+        <v>0</v>
+      </c>
+      <c r="K164" s="12">
+        <v>0</v>
+      </c>
+      <c r="L164" s="12">
+        <v>0</v>
+      </c>
+      <c r="M164" s="12">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="O164" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="P164" s="13"/>
+      <c r="Q164" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="R164" t="s" s="11">
+        <v>967</v>
+      </c>
+      <c r="S164" t="s" s="11">
+        <v>968</v>
+      </c>
+      <c r="T164" t="s" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" ht="20.05" customHeight="1">
+      <c r="A165" t="s" s="9">
+        <v>969</v>
+      </c>
+      <c r="B165" t="s" s="10">
+        <v>970</v>
+      </c>
+      <c r="C165" t="s" s="11">
+        <v>952</v>
+      </c>
+      <c r="D165" t="s" s="11">
+        <v>971</v>
+      </c>
+      <c r="E165" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="F165" t="s" s="11">
+        <v>972</v>
+      </c>
+      <c r="G165" s="12">
+        <v>0</v>
+      </c>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="12">
+        <v>0</v>
+      </c>
+      <c r="K165" s="12">
+        <v>0</v>
+      </c>
+      <c r="L165" s="12">
+        <v>0</v>
+      </c>
+      <c r="M165" s="12">
+        <v>0</v>
+      </c>
+      <c r="N165" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="O165" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="P165" s="13"/>
+      <c r="Q165" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="R165" t="s" s="11">
+        <v>949</v>
+      </c>
+      <c r="S165" t="s" s="11">
+        <v>835</v>
+      </c>
+      <c r="T165" t="s" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" ht="20.05" customHeight="1">
+      <c r="A166" t="s" s="9">
+        <v>973</v>
+      </c>
+      <c r="B166" t="s" s="10">
+        <v>974</v>
+      </c>
+      <c r="C166" t="s" s="11">
+        <v>975</v>
+      </c>
+      <c r="D166" t="s" s="11">
+        <v>976</v>
+      </c>
+      <c r="E166" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="F166" t="s" s="11">
+        <v>977</v>
+      </c>
+      <c r="G166" s="12">
+        <v>0</v>
+      </c>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="12">
+        <v>0</v>
+      </c>
+      <c r="K166" s="12">
+        <v>0</v>
+      </c>
+      <c r="L166" s="12">
+        <v>0</v>
+      </c>
+      <c r="M166" s="12">
+        <v>0</v>
+      </c>
+      <c r="N166" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="O166" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="P166" s="13"/>
+      <c r="Q166" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="R166" t="s" s="11">
+        <v>978</v>
+      </c>
+      <c r="S166" t="s" s="11">
+        <v>835</v>
+      </c>
+      <c r="T166" t="s" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" ht="20.05" customHeight="1">
+      <c r="A167" t="s" s="9">
+        <v>979</v>
+      </c>
+      <c r="B167" t="s" s="10">
+        <v>980</v>
+      </c>
+      <c r="C167" t="s" s="11">
+        <v>981</v>
+      </c>
+      <c r="D167" t="s" s="11">
+        <v>982</v>
+      </c>
+      <c r="E167" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="F167" t="s" s="11">
+        <v>983</v>
+      </c>
+      <c r="G167" s="12">
+        <v>0</v>
+      </c>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="12">
+        <v>0</v>
+      </c>
+      <c r="K167" s="12">
+        <v>0</v>
+      </c>
+      <c r="L167" s="12">
+        <v>0</v>
+      </c>
+      <c r="M167" s="12">
+        <v>0</v>
+      </c>
+      <c r="N167" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="O167" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="P167" s="13"/>
+      <c r="Q167" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="R167" t="s" s="11">
+        <v>755</v>
+      </c>
+      <c r="S167" s="13"/>
+      <c r="T167" t="s" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" ht="20.05" customHeight="1">
+      <c r="A168" t="s" s="9">
+        <v>984</v>
+      </c>
+      <c r="B168" t="s" s="10">
+        <v>985</v>
+      </c>
+      <c r="C168" t="s" s="11">
+        <v>986</v>
+      </c>
+      <c r="D168" t="s" s="11">
+        <v>987</v>
+      </c>
+      <c r="E168" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="F168" t="s" s="11">
+        <v>988</v>
+      </c>
+      <c r="G168" s="12">
+        <v>0</v>
+      </c>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="12">
+        <v>0</v>
+      </c>
+      <c r="K168" s="12">
+        <v>0</v>
+      </c>
+      <c r="L168" s="12">
+        <v>0</v>
+      </c>
+      <c r="M168" s="12">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="O168" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="P168" s="13"/>
+      <c r="Q168" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="R168" t="s" s="11">
+        <v>989</v>
+      </c>
+      <c r="S168" s="13"/>
+      <c r="T168" t="s" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" ht="20.05" customHeight="1">
+      <c r="A169" t="s" s="9">
+        <v>990</v>
+      </c>
+      <c r="B169" t="s" s="10">
+        <v>991</v>
+      </c>
+      <c r="C169" t="s" s="11">
+        <v>989</v>
+      </c>
+      <c r="D169" t="s" s="11">
+        <v>992</v>
+      </c>
+      <c r="E169" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="F169" t="s" s="11">
+        <v>993</v>
+      </c>
+      <c r="G169" s="12">
+        <v>0</v>
+      </c>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="12">
+        <v>0</v>
+      </c>
+      <c r="K169" s="12">
+        <v>0</v>
+      </c>
+      <c r="L169" s="12">
+        <v>0</v>
+      </c>
+      <c r="M169" s="12">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s" s="11">
+        <v>208</v>
+      </c>
+      <c r="O169" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="P169" s="13"/>
+      <c r="Q169" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="R169" t="s" s="11">
+        <v>986</v>
+      </c>
+      <c r="S169" s="13"/>
+      <c r="T169" t="s" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" ht="44.05" customHeight="1">
+      <c r="A170" t="s" s="9">
+        <v>994</v>
+      </c>
+      <c r="B170" t="s" s="10">
+        <v>995</v>
+      </c>
+      <c r="C170" t="s" s="11">
+        <v>996</v>
+      </c>
+      <c r="D170" t="s" s="11">
+        <v>997</v>
+      </c>
+      <c r="E170" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="F170" t="s" s="11">
+        <v>998</v>
+      </c>
+      <c r="G170" s="12">
+        <v>470</v>
+      </c>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13"/>
+      <c r="J170" s="12">
+        <v>0</v>
+      </c>
+      <c r="K170" s="12">
+        <v>470</v>
+      </c>
+      <c r="L170" s="12">
+        <v>0</v>
+      </c>
+      <c r="M170" s="12">
+        <v>470</v>
+      </c>
+      <c r="N170" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="O170" t="s" s="11">
+        <v>961</v>
+      </c>
+      <c r="P170" s="13"/>
+      <c r="Q170" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="R170" t="s" s="11">
+        <v>999</v>
+      </c>
+      <c r="S170" t="s" s="14">
+        <v>1000</v>
+      </c>
+      <c r="T170" t="s" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" ht="20.05" customHeight="1">
+      <c r="A171" t="s" s="9">
+        <v>1001</v>
+      </c>
+      <c r="B171" t="s" s="10">
+        <v>1002</v>
+      </c>
+      <c r="C171" t="s" s="11">
+        <v>1003</v>
+      </c>
+      <c r="D171" t="s" s="11">
+        <v>1004</v>
+      </c>
+      <c r="E171" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="F171" t="s" s="11">
+        <v>1005</v>
+      </c>
+      <c r="G171" s="12">
+        <v>470</v>
+      </c>
+      <c r="H171" s="13"/>
+      <c r="I171" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="J171" s="12">
+        <v>0</v>
+      </c>
+      <c r="K171" s="12">
+        <v>450</v>
+      </c>
+      <c r="L171" s="12">
+        <v>0</v>
+      </c>
+      <c r="M171" s="12">
+        <v>450</v>
+      </c>
+      <c r="N171" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="O171" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="P171" s="13"/>
+      <c r="Q171" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="R171" t="s" s="11">
+        <v>1006</v>
+      </c>
+      <c r="S171" t="s" s="11">
+        <v>1007</v>
+      </c>
+      <c r="T171" t="s" s="11">
         <v>28</v>
       </c>
     </row>
@@ -14715,6 +15441,15 @@
     <hyperlink ref="D160" r:id="rId158" location="" tooltip="" display="juanmiguel.garcia17@gmail.com"/>
     <hyperlink ref="D161" r:id="rId159" location="" tooltip="" display="joelcheung01@gmail.com"/>
     <hyperlink ref="D162" r:id="rId160" location="" tooltip="" display="kasiakowal3001@gmail.com"/>
+    <hyperlink ref="D163" r:id="rId161" location="" tooltip="" display="mariuszzar@icloud.com"/>
+    <hyperlink ref="D164" r:id="rId162" location="" tooltip="" display="chughsanj@gmail.com"/>
+    <hyperlink ref="D165" r:id="rId163" location="" tooltip="" display="ssnived@gmail.com"/>
+    <hyperlink ref="D166" r:id="rId164" location="" tooltip="" display="sujinpark79@hotmail.com"/>
+    <hyperlink ref="D167" r:id="rId165" location="" tooltip="" display="Kevin_p_gill@yahoo.com"/>
+    <hyperlink ref="D168" r:id="rId166" location="" tooltip="" display="arianazuna@googlemail.com"/>
+    <hyperlink ref="D169" r:id="rId167" location="" tooltip="" display="jgoldman229@live.co.uk"/>
+    <hyperlink ref="D170" r:id="rId168" location="" tooltip="" display="w.o.yean@gmail.com"/>
+    <hyperlink ref="D171" r:id="rId169" location="" tooltip="" display="Jamezreid1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/sql/websales.xlsx
+++ b/sql/websales.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1275">
-  <si>
-    <t>Guest list bos-majorca-holiday-2024 2024-10-14-2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1333">
+  <si>
+    <t>Guest list bos-majorca-holiday-2024 2024-10-21</t>
   </si>
   <si>
     <t>Order number</t>
@@ -3621,10 +3621,1737 @@
     <t>No preferences</t>
   </si>
   <si>
-    <t>2WQC-RS58-4DD</t>
-  </si>
-  <si>
-    <t>2024-09-23 18:38:44</t>
+    <t>2WQD-JT1M-34G</t>
+  </si>
+  <si>
+    <t>2024-09-23 23:18:33</t>
+  </si>
+  <si>
+    <t>Gill</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>kevin_p_gill@yahoo.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WQD-JT1M-34G1P</t>
+  </si>
+  <si>
+    <t>£20 - RICKY</t>
+  </si>
+  <si>
+    <t>Lola Gill - my daughter aged 8 - she must stay with me</t>
+  </si>
+  <si>
+    <t>Please let us know if a premium room becomes available - we will take it</t>
+  </si>
+  <si>
+    <t>2WQG-LGCV-NBL</t>
+  </si>
+  <si>
+    <t>2024-09-24 11:47:32</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Gomm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>jess_gomm@live.co.uk</t>
+    </r>
+  </si>
+  <si>
+    <t>2WQG-LGCV-NBL1P</t>
+  </si>
+  <si>
+    <t>Female please</t>
+  </si>
+  <si>
+    <t>2WQH-2D36-PF3</t>
+  </si>
+  <si>
+    <t>2024-09-24 14:36:42</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Smith-Londoño</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>sofia_sl@hotmail.co.uk</t>
+    </r>
+  </si>
+  <si>
+    <t>2WQH-2D36-PF31P</t>
+  </si>
+  <si>
+    <t>Angie Shucad</t>
+  </si>
+  <si>
+    <t>Booked through Thalia</t>
+  </si>
+  <si>
+    <t>2WQH-313N-D7W</t>
+  </si>
+  <si>
+    <t>2024-09-24 14:44:24</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Brinceño Salazar</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>pedrito_51@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WQH-313N-D7W1P</t>
+  </si>
+  <si>
+    <t>Thalia Padilla</t>
+  </si>
+  <si>
+    <t>(Thalia's BF - they will share Double bed room)</t>
+  </si>
+  <si>
+    <t>2WQQ-Q3QC-4J0</t>
+  </si>
+  <si>
+    <t>2024-09-26 13:07:49</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Aquilar Martin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>javiecija96@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WQQ-Q3QC-4J01P</t>
+  </si>
+  <si>
+    <t>Twin room to share with another single attendee - Booked through Andre &amp; Aurora</t>
+  </si>
+  <si>
+    <t>2WQQ-T3J8-60M</t>
+  </si>
+  <si>
+    <t>2024-09-26 13:44:11</t>
+  </si>
+  <si>
+    <t>Whinney</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>susiwhinney@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WQQ-T3J8-60M1P</t>
+  </si>
+  <si>
+    <t>Luiza Mejlun</t>
+  </si>
+  <si>
+    <t>booked through Debora Lima</t>
+  </si>
+  <si>
+    <t>2WQQ-TG6J-DPT</t>
+  </si>
+  <si>
+    <t>2024-09-26 13:48:30</t>
+  </si>
+  <si>
+    <t>Luiza</t>
+  </si>
+  <si>
+    <t>Mejlun</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>luizamejlun@yahoo.co.uk</t>
+    </r>
+  </si>
+  <si>
+    <t>2WQQ-TG6J-DPT1P</t>
+  </si>
+  <si>
+    <t>Suzanne Whinney</t>
+  </si>
+  <si>
+    <t>Booked through Debora Lima</t>
+  </si>
+  <si>
+    <t>2WQQ-V5B3-CNS</t>
+  </si>
+  <si>
+    <t>2024-09-26 13:57:03</t>
+  </si>
+  <si>
+    <t>Beatrice</t>
+  </si>
+  <si>
+    <t>Muzi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>bea5_89@hotmail.fr</t>
+    </r>
+  </si>
+  <si>
+    <t>2WQQ-V5B3-CNS1P</t>
+  </si>
+  <si>
+    <t>Booked through Debora Lima (Maybe also sharing with Debora maybe not)</t>
+  </si>
+  <si>
+    <t>2WQR-MCZJ-099</t>
+  </si>
+  <si>
+    <t>2024-09-26 18:39:12</t>
+  </si>
+  <si>
+    <t>Thuvaraka</t>
+  </si>
+  <si>
+    <t>Vetpillai</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>tvetpillai@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WQR-MCZJ-0991P</t>
+  </si>
+  <si>
+    <t>booked through CAMY</t>
+  </si>
+  <si>
+    <t>2WQW-TD19-KKQ</t>
+  </si>
+  <si>
+    <t>2024-09-27 20:10:07</t>
+  </si>
+  <si>
+    <t>Emmanuel</t>
+  </si>
+  <si>
+    <t>Ekpiken</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Eekpiken@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WQW-TD19-KKQ1P</t>
+  </si>
+  <si>
+    <t>£20 - DEBORA</t>
+  </si>
+  <si>
+    <t>If possible please allow it to be a single room</t>
+  </si>
+  <si>
+    <t>2WR6-1HKK-7B5</t>
+  </si>
+  <si>
+    <t>2024-09-29 22:00:27</t>
+  </si>
+  <si>
+    <t>Neto</t>
+  </si>
+  <si>
+    <t>Garcia Domingos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>netodomingos92@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WR6-1HKK-7B51P</t>
+  </si>
+  <si>
+    <t>Booked through GUSTO</t>
+  </si>
+  <si>
+    <t>2WR9-ZD83-L5M</t>
+  </si>
+  <si>
+    <t>2024-09-30 21:52:49</t>
+  </si>
+  <si>
+    <t>Anait</t>
+  </si>
+  <si>
+    <t>Sliska</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>anna44free@yahoo.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WR9-ZD83-L5M1P</t>
+  </si>
+  <si>
+    <t>Hui Jun Ho</t>
+  </si>
+  <si>
+    <t>Booked through Marky Mark</t>
+  </si>
+  <si>
+    <t>2WR9-ZJ31-J01</t>
+  </si>
+  <si>
+    <t>2024-09-30 21:54:22</t>
+  </si>
+  <si>
+    <t>Hui Jun</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>hohuijunn@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WR9-ZJ31-J011P</t>
+  </si>
+  <si>
+    <t>Anait Sliska</t>
+  </si>
+  <si>
+    <t>booked through Marky Mark</t>
+  </si>
+  <si>
+    <t>2WR9-ZN8M-PL7</t>
+  </si>
+  <si>
+    <t>2024-09-30 21:56:04</t>
+  </si>
+  <si>
+    <t>Aneta</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>ajenkinsanimations@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WR9-ZN8M-PL71P</t>
+  </si>
+  <si>
+    <t>Katarzyna Kowal</t>
+  </si>
+  <si>
+    <t>2WR9-ZVB2-2RL</t>
+  </si>
+  <si>
+    <t>2024-09-30 21:58:31</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Gulston</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>winter998@hotmail.co.uk</t>
+    </r>
+  </si>
+  <si>
+    <t>2WR9-ZVB2-2RL1P</t>
+  </si>
+  <si>
+    <t>Mariusz Zarachowicz</t>
+  </si>
+  <si>
+    <t>2WRB-00XM-XL3</t>
+  </si>
+  <si>
+    <t>2024-09-30 22:00:23</t>
+  </si>
+  <si>
+    <t>Paulina</t>
+  </si>
+  <si>
+    <t>Malgorazata Chyrc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>pchyrc@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRB-00XM-XL31P</t>
+  </si>
+  <si>
+    <t>Ferenc Hegedus</t>
+  </si>
+  <si>
+    <t>2WRB-04XL-32Q</t>
+  </si>
+  <si>
+    <t>2024-09-30 22:02:00</t>
+  </si>
+  <si>
+    <t>Ferenc</t>
+  </si>
+  <si>
+    <t>Hegedus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>ferenc.hegedus88@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRB-04XL-32Q1P</t>
+  </si>
+  <si>
+    <t>Paulina Malgorazata Chyrc</t>
+  </si>
+  <si>
+    <t>2WRB-074N-XFK</t>
+  </si>
+  <si>
+    <t>2024-09-30 22:02:54</t>
+  </si>
+  <si>
+    <t>Oisin</t>
+  </si>
+  <si>
+    <t>Molloy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>oisinjpm@outlook.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRB-074N-XFK1P</t>
+  </si>
+  <si>
+    <t>John Stinton</t>
+  </si>
+  <si>
+    <t>2WRB-0DCZ-27P</t>
+  </si>
+  <si>
+    <t>2024-09-30 22:05:01</t>
+  </si>
+  <si>
+    <t>Alexia</t>
+  </si>
+  <si>
+    <t>Bartuccio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>alexiabart@hotmail.co.uk</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRB-0DCZ-27P1P</t>
+  </si>
+  <si>
+    <t>Grace Castro (awaiting money for ticket)</t>
+  </si>
+  <si>
+    <t>2WRB-0R9D-MPW</t>
+  </si>
+  <si>
+    <t>2024-09-30 22:09:26</t>
+  </si>
+  <si>
+    <t>Stinson</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>johnstinson99@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRB-0R9D-MPW1P</t>
+  </si>
+  <si>
+    <t>Oisin Molloy</t>
+  </si>
+  <si>
+    <t>2WRG-8CN0-7MH</t>
+  </si>
+  <si>
+    <t>2024-10-01 23:59:55</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>gracetty8@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRG-8CN0-7MH1P</t>
+  </si>
+  <si>
+    <t>Alexia Bartuccio</t>
+  </si>
+  <si>
+    <t>2WRN-P4RM-CHQ</t>
+  </si>
+  <si>
+    <t>2024-10-03 15:02:05</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Munoz Garcia</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>migueldemencia@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRN-P4RM-CHQ1P</t>
+  </si>
+  <si>
+    <t>Jesus Polo Carmona</t>
+  </si>
+  <si>
+    <t>booked through Sandra</t>
+  </si>
+  <si>
+    <t>2WRN-P7MK-4VR</t>
+  </si>
+  <si>
+    <t>2024-10-03 15:03:15</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Polo Carmona</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>jesuspoloc@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRN-P7MK-4VR1P</t>
+  </si>
+  <si>
+    <t>Miguel Munoz Garcia</t>
+  </si>
+  <si>
+    <t>2WRN-PBHF-FRB</t>
+  </si>
+  <si>
+    <t>2024-10-03 15:04:24</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Sanchez Garcia</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>danielsg26@icloud.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRN-PBHF-FRB1P</t>
+  </si>
+  <si>
+    <t>Alvaro Lopez Romero</t>
+  </si>
+  <si>
+    <t>2WRN-PGL2-9BZ</t>
+  </si>
+  <si>
+    <t>2024-10-03 15:06:03</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Lopez Romero</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>kokelop29@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRN-PGL2-9BZ1P</t>
+  </si>
+  <si>
+    <t>Daniel Sanchez Garcia</t>
+  </si>
+  <si>
+    <t>2WRN-PRZD-2QK</t>
+  </si>
+  <si>
+    <t>2024-10-03 15:09:51</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>2WRN-PRZD-2QK1P</t>
+  </si>
+  <si>
+    <t>Soraya Ciudad Solis</t>
+  </si>
+  <si>
+    <t>ARTIST</t>
+  </si>
+  <si>
+    <t>2WRN-PXSG-GZL</t>
+  </si>
+  <si>
+    <t>2024-10-03 15:11:49</t>
+  </si>
+  <si>
+    <t>Soraya</t>
+  </si>
+  <si>
+    <t>Ciudad Solis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>sorayaciudadsolis@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRN-PXSG-GZL1P</t>
+  </si>
+  <si>
+    <t>Sandra Vega (ARTIST)</t>
+  </si>
+  <si>
+    <t>2WRN-Q4M8-510</t>
+  </si>
+  <si>
+    <t>2024-10-03 15:14:10</t>
+  </si>
+  <si>
+    <t>Raquel</t>
+  </si>
+  <si>
+    <t>Carrero</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>carreroraquel@yahoo.es</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRN-Q4M8-5101P</t>
+  </si>
+  <si>
+    <t>Alexandra Gutierrez</t>
+  </si>
+  <si>
+    <t>2WRN-Q7WM-782</t>
+  </si>
+  <si>
+    <t>2024-10-03 15:15:30</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>alexandra_gutierrez@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRN-Q7WM-7821P</t>
+  </si>
+  <si>
+    <t>Raquel Carrero</t>
+  </si>
+  <si>
+    <t>2WRN-QZL2-MMB</t>
+  </si>
+  <si>
+    <t>2024-10-03 15:24:17</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Gomez Quiroga</t>
+  </si>
+  <si>
+    <t>2WRN-QZL2-MMB1P</t>
+  </si>
+  <si>
+    <t>Marcos Tataje Garcia</t>
+  </si>
+  <si>
+    <t>ARTIST - Sharing with Marcos who arrives on Friday</t>
+  </si>
+  <si>
+    <t>2WRN-RBFP-6D1</t>
+  </si>
+  <si>
+    <t>2024-10-03 15:28:41</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Tataje Garcia</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>marcos_19_90@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRN-RBFP-6D11P</t>
+  </si>
+  <si>
+    <t>Edward Gomez Quiroga (ARTIST)</t>
+  </si>
+  <si>
+    <t>booked through Sandra. Marcos arrives FRIDAY and will join Edward who arrives THURS</t>
+  </si>
+  <si>
+    <t>2WRN-RK8J-HB3</t>
+  </si>
+  <si>
+    <t>2024-10-03 15:31:27</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Herrera Luque</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>franjo.helu@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRN-RK8J-HB31P</t>
+  </si>
+  <si>
+    <t>Juan Miguel Garcia Haro</t>
+  </si>
+  <si>
+    <t>Booked through Sandra
+Francisco arrives FRIDAY who will join Juan Miguel who arrives Saturday</t>
+  </si>
+  <si>
+    <t>2WRN-RQWM-485</t>
+  </si>
+  <si>
+    <t>2024-10-03 15:33:44</t>
+  </si>
+  <si>
+    <t>Juan Miguel</t>
+  </si>
+  <si>
+    <t>Garcia Haro</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>juanmiguel.garcia17@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRN-RQWM-4851P</t>
+  </si>
+  <si>
+    <t>Francisco Jerrera Luque</t>
+  </si>
+  <si>
+    <t>booked through Sandra
+Juan Miguel arrives THURS- will be joined by Francisco Herrera who arrives FRI</t>
+  </si>
+  <si>
+    <t>2WRX-DH75-35F</t>
+  </si>
+  <si>
+    <t>2024-10-05 13:52:58</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Cheung</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>joelcheung01@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRX-DH75-35F1P</t>
+  </si>
+  <si>
+    <t>Nived Subbarayan</t>
+  </si>
+  <si>
+    <t>2WRX-DN7N-N1R</t>
+  </si>
+  <si>
+    <t>2024-10-05 13:55:00</t>
+  </si>
+  <si>
+    <t>Katarzyna</t>
+  </si>
+  <si>
+    <t>Kowal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>kasiakowal3001@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WRX-DN7N-N1R1P</t>
+  </si>
+  <si>
+    <t>Aneta Jenkins</t>
+  </si>
+  <si>
+    <t>2WS3-DS6Z-DVB</t>
+  </si>
+  <si>
+    <t>2024-10-06 20:19:07</t>
+  </si>
+  <si>
+    <t>Mariusz</t>
+  </si>
+  <si>
+    <t>Zarachowicz</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>mariuszzar@icloud.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WS3-DS6Z-DVB1P</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Leon Gulston</t>
+  </si>
+  <si>
+    <t>2WS7-6C02-793</t>
+  </si>
+  <si>
+    <t>2024-10-07 19:18:51</t>
+  </si>
+  <si>
+    <t>Sanjay</t>
+  </si>
+  <si>
+    <t>Chugh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>chughsanj@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WS7-6C02-7931P</t>
+  </si>
+  <si>
+    <t>Single Room booked through BOS</t>
+  </si>
+  <si>
+    <t>booked direct through BOS</t>
+  </si>
+  <si>
+    <t>2WS8-0N3L-PV6</t>
+  </si>
+  <si>
+    <t>2024-10-08 00:14:09</t>
+  </si>
+  <si>
+    <t>Nived</t>
+  </si>
+  <si>
+    <t>Subbarayan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>ssnived@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WS8-0N3L-PV61P</t>
+  </si>
+  <si>
+    <t>Joel Cheung</t>
+  </si>
+  <si>
+    <t>2WS8-0TW1-23N</t>
+  </si>
+  <si>
+    <t>2024-10-08 00:16:29</t>
+  </si>
+  <si>
+    <t>Su Jin</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>sujinpark79@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WS8-0TW1-23N1P</t>
+  </si>
+  <si>
+    <t>Chrysa Skliopidou (awaiting payment)</t>
+  </si>
+  <si>
+    <t>2WSB-4V55-RR1</t>
+  </si>
+  <si>
+    <t>2024-10-08 13:14:12</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Kevin_p_gill@yahoo.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WSB-4V55-RR11P</t>
+  </si>
+  <si>
+    <t>Kevin Gill</t>
+  </si>
+  <si>
+    <t>2WSB-50T2-N5J</t>
+  </si>
+  <si>
+    <t>2024-10-08 13:16:05</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>Zuna Ortega</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>arianazuna@googlemail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WSB-50T2-N5J1P</t>
+  </si>
+  <si>
+    <t>Jonathan Goldman</t>
+  </si>
+  <si>
+    <t>2WSB-54KW-BGJ</t>
+  </si>
+  <si>
+    <t>2024-10-08 13:17:36</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Goldman</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>jgoldman229@live.co.uk</t>
+    </r>
+  </si>
+  <si>
+    <t>2WSB-54KW-BGJ1P</t>
+  </si>
+  <si>
+    <t>Ariana Zuna Ortega</t>
+  </si>
+  <si>
+    <t>2WSH-QGGN-ZR9</t>
+  </si>
+  <si>
+    <t>2024-10-09 23:10:40</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Jamezreid1@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WSH-QGGN-ZR91P</t>
+  </si>
+  <si>
+    <t>I do not already have someone to share a room with</t>
+  </si>
+  <si>
+    <t>I have no preferences other than to be paired with another male.</t>
+  </si>
+  <si>
+    <t>2WSL-1B15-5ML</t>
+  </si>
+  <si>
+    <t>2024-10-10 13:07:13</t>
+  </si>
+  <si>
+    <t>Oi Yean</t>
+  </si>
+  <si>
+    <t>Wong</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>w.o.yean@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WSL-1B15-5ML1P</t>
+  </si>
+  <si>
+    <t>single occupancy (twin)
+previously booked sharing room - transferred direct and upgraded to single via BOS</t>
+  </si>
+  <si>
+    <t>2WT1-18LW-XG5</t>
+  </si>
+  <si>
+    <t>2024-10-13 20:05:08</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>laura.miller.1@hotmail.co.uk</t>
+    </r>
+  </si>
+  <si>
+    <t>2WT1-18LW-XG51P</t>
+  </si>
+  <si>
+    <t>£20 - BRYAN</t>
+  </si>
+  <si>
+    <t>Mrs Katharine O'Dwyer</t>
+  </si>
+  <si>
+    <t>I am booking two tickets together now one for myself Ms Laura Miller and one for Mrs Katharine O'Dwyer for us to share a double room together, with separate beds thanks</t>
+  </si>
+  <si>
+    <t>Katharine</t>
+  </si>
+  <si>
+    <t>O'Dwyer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>katharine.gould@hotmail.co.uk</t>
+    </r>
+  </si>
+  <si>
+    <t>2WT1-18LW-XG51Q</t>
+  </si>
+  <si>
+    <t>Ms Laura Miller</t>
+  </si>
+  <si>
+    <t>I am booking two tickets together now so that myself Mrs Katharine O'Dwyer can share with Ms Laura Miller a double room with separate beds.</t>
+  </si>
+  <si>
+    <t>2WT3-SM37-TK8</t>
+  </si>
+  <si>
+    <t>2024-10-14 12:57:50</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Ignatyeva</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>ignatvm@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WT3-SM37-TK81P</t>
+  </si>
+  <si>
+    <t>Anna Kacena</t>
+  </si>
+  <si>
+    <t>2WT3-SPG8-7SD</t>
+  </si>
+  <si>
+    <t>2024-10-14 12:58:47</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Kacena</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>anna36471@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WT3-SPG8-7SD1P</t>
+  </si>
+  <si>
+    <t>Vera Ignatyeva</t>
+  </si>
+  <si>
+    <t>2WT4-FWHX-VFL</t>
+  </si>
+  <si>
+    <t>2024-10-14 16:52:06</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Srspencer@outlook.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WT4-FWHX-VFL1P</t>
+  </si>
+  <si>
+    <t>£20 - DANIK</t>
+  </si>
+  <si>
+    <t>Nasir Farooq</t>
+  </si>
+  <si>
+    <t>2WT4-WQTL-0HB</t>
+  </si>
+  <si>
+    <t>2024-10-14 19:40:18</t>
+  </si>
+  <si>
+    <t>Gabor</t>
+  </si>
+  <si>
+    <t>Takacs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>gabika9393@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WT4-WQTL-0HB1P</t>
+  </si>
+  <si>
+    <t>Anyone</t>
+  </si>
+  <si>
+    <t>2WT5-2PS1-T87</t>
+  </si>
+  <si>
+    <t>2024-10-14 20:40:37</t>
+  </si>
+  <si>
+    <t>Angie</t>
+  </si>
+  <si>
+    <t>Shucad</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>angie.shucad@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WT5-2PS1-T871P</t>
+  </si>
+  <si>
+    <t>Sofia Smith-Londono</t>
+  </si>
+  <si>
+    <t>Booked through THALIA</t>
+  </si>
+  <si>
+    <t>2WTD-987L-TL0</t>
+  </si>
+  <si>
+    <t>2024-10-16 16:31:41</t>
+  </si>
+  <si>
+    <t>Magdalena</t>
+  </si>
+  <si>
+    <t>Swiecica</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>basiunia3433@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WTD-987L-TL01P</t>
+  </si>
+  <si>
+    <t>Reka</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>aguska1988@op.pl</t>
+    </r>
+  </si>
+  <si>
+    <t>2WTD-987L-TL01Q</t>
+  </si>
+  <si>
+    <t>2WTD-C0J8-RXL</t>
+  </si>
+  <si>
+    <t>2024-10-16 16:52:52</t>
+  </si>
+  <si>
+    <t>Valdenize</t>
+  </si>
+  <si>
+    <t>Ferreira de Lima</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>valdenizeferreira@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WTD-C0J8-RXL1P</t>
+  </si>
+  <si>
+    <t>To share with a female</t>
+  </si>
+  <si>
+    <t>booked through Carlos Paz</t>
+  </si>
+  <si>
+    <t>2WTD-M29V-X59</t>
+  </si>
+  <si>
+    <t>2024-10-16 18:30:47</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Hale</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>ethanhale89@outlook.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WTD-M29V-X591P</t>
+  </si>
+  <si>
+    <t>£20 - CHARANGA</t>
+  </si>
+  <si>
+    <t>2WTR-TH9V-XLB</t>
+  </si>
+  <si>
+    <t>2024-10-19 14:38:27</t>
+  </si>
+  <si>
+    <t>Dimana</t>
+  </si>
+  <si>
+    <t>Karakirova</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>dimanakarakirova@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WTR-TH9V-XLB1P</t>
+  </si>
+  <si>
+    <t>to share with a girl
+booked through Laurita bosettes</t>
+  </si>
+  <si>
+    <t>2WTW-NS1V-NDD</t>
+  </si>
+  <si>
+    <t>2024-10-20 13:59:14</t>
+  </si>
+  <si>
+    <t>Indre</t>
+  </si>
+  <si>
+    <t>Galvanauskaite</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>indre89@yahoo.co.uk</t>
+    </r>
+  </si>
+  <si>
+    <t>2WTW-NS1V-NDD1P</t>
+  </si>
+  <si>
+    <t>Irene Dziewiecka</t>
+  </si>
+  <si>
+    <t>2WTW-W6FS-T6S</t>
+  </si>
+  <si>
+    <t>2024-10-20 15:17:10</t>
+  </si>
+  <si>
+    <t>Stefanescu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>laurastefanescu.ls@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WTW-W6FS-T6S1P</t>
+  </si>
+  <si>
+    <t>Tidy and quiet person.</t>
+  </si>
+  <si>
+    <t>2WTX-T99K-N02</t>
+  </si>
+  <si>
+    <t>2024-10-20 20:58:31</t>
+  </si>
+  <si>
+    <t>Elina</t>
+  </si>
+  <si>
+    <t>Fjodorova</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>elinafjodorova91@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WTX-T99K-N021P</t>
+  </si>
+  <si>
+    <t>Katerina (ARTIST)</t>
+  </si>
+  <si>
+    <t>booked through Katerina.
+Katerina arrives Thurs, Elina arrives Fri</t>
+  </si>
+  <si>
+    <t>2WV1-SHHK-CSC</t>
+  </si>
+  <si>
+    <t>2024-10-21 15:02:23</t>
   </si>
   <si>
     <t>Mohan</t>
@@ -3644,16 +5371,17 @@
     </r>
   </si>
   <si>
-    <t>2WQC-RS58-4DD1P</t>
-  </si>
-  <si>
-    <t>£20 - PEYNAO</t>
-  </si>
-  <si>
-    <t>Irene Dziewiecka</t>
-  </si>
-  <si>
-    <t>One room with twin bed please</t>
+    <t>2WV1-SHHK-CSC1P</t>
+  </si>
+  <si>
+    <t>booked through PEYNAO CODE - will need to send commission
+Mohan topped up for single room directly</t>
+  </si>
+  <si>
+    <t>2WV1-SQ0V-GG2</t>
+  </si>
+  <si>
+    <t>2024-10-21 15:05:01</t>
   </si>
   <si>
     <t>Irena</t>
@@ -3673,22 +5401,26 @@
     </r>
   </si>
   <si>
-    <t>2WQC-RS58-4DD1Q</t>
-  </si>
-  <si>
-    <t>Mohan Ayyanki</t>
-  </si>
-  <si>
-    <t>Same room with Twin beds please</t>
-  </si>
-  <si>
-    <t>2WQD-JT1M-34G</t>
-  </si>
-  <si>
-    <t>2024-09-23 23:18:33</t>
-  </si>
-  <si>
-    <t>Gill</t>
+    <t>2WV1-SQ0V-GG21P</t>
+  </si>
+  <si>
+    <t>Indre Galvanauskaite</t>
+  </si>
+  <si>
+    <t>Twin bed
+Booked through PEYNAO - commission to be issued</t>
+  </si>
+  <si>
+    <t>2WV1-W3QC-1QT</t>
+  </si>
+  <si>
+    <t>2024-10-21 15:34:04</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>Shamseldin</t>
   </si>
   <si>
     <r>
@@ -3698,1493 +5430,11 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>kevin_p_gill@yahoo.com</t>
+      <t>mustafahshams@hotmail.com</t>
     </r>
   </si>
   <si>
-    <t>2WQD-JT1M-34G1P</t>
-  </si>
-  <si>
-    <t>£20 - RICKY</t>
-  </si>
-  <si>
-    <t>Lola Gill - my daughter aged 8 - she must stay with me</t>
-  </si>
-  <si>
-    <t>Please let us know if a premium room becomes available - we will take it</t>
-  </si>
-  <si>
-    <t>2WQG-LGCV-NBL</t>
-  </si>
-  <si>
-    <t>2024-09-24 11:47:32</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Gomm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>jess_gomm@live.co.uk</t>
-    </r>
-  </si>
-  <si>
-    <t>2WQG-LGCV-NBL1P</t>
-  </si>
-  <si>
-    <t>Female please</t>
-  </si>
-  <si>
-    <t>2WQH-2D36-PF3</t>
-  </si>
-  <si>
-    <t>2024-09-24 14:36:42</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>Smith-Londoño</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>sofia_sl@hotmail.co.uk</t>
-    </r>
-  </si>
-  <si>
-    <t>2WQH-2D36-PF31P</t>
-  </si>
-  <si>
-    <t>Angie Shucad</t>
-  </si>
-  <si>
-    <t>Booked through Thalia</t>
-  </si>
-  <si>
-    <t>2WQH-313N-D7W</t>
-  </si>
-  <si>
-    <t>2024-09-24 14:44:24</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Brinceño Salazar</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>pedrito_51@hotmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WQH-313N-D7W1P</t>
-  </si>
-  <si>
-    <t>Thalia Padilla</t>
-  </si>
-  <si>
-    <t>(Thalia's BF - they will share Double bed room)</t>
-  </si>
-  <si>
-    <t>2WQQ-Q3QC-4J0</t>
-  </si>
-  <si>
-    <t>2024-09-26 13:07:49</t>
-  </si>
-  <si>
-    <t>Javier</t>
-  </si>
-  <si>
-    <t>Aquilar Martin</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>javiecija96@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WQQ-Q3QC-4J01P</t>
-  </si>
-  <si>
-    <t>Twin room to share with another single attendee - Booked through Andre &amp; Aurora</t>
-  </si>
-  <si>
-    <t>2WQQ-T3J8-60M</t>
-  </si>
-  <si>
-    <t>2024-09-26 13:44:11</t>
-  </si>
-  <si>
-    <t>Whinney</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>susiwhinney@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WQQ-T3J8-60M1P</t>
-  </si>
-  <si>
-    <t>Luiza Mejlun</t>
-  </si>
-  <si>
-    <t>booked through Debora Lima</t>
-  </si>
-  <si>
-    <t>2WQQ-TG6J-DPT</t>
-  </si>
-  <si>
-    <t>2024-09-26 13:48:30</t>
-  </si>
-  <si>
-    <t>Luiza</t>
-  </si>
-  <si>
-    <t>Mejlun</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>luizamejlun@yahoo.co.uk</t>
-    </r>
-  </si>
-  <si>
-    <t>2WQQ-TG6J-DPT1P</t>
-  </si>
-  <si>
-    <t>Suzanne Whinney</t>
-  </si>
-  <si>
-    <t>Booked through Debora Lima</t>
-  </si>
-  <si>
-    <t>2WQQ-V5B3-CNS</t>
-  </si>
-  <si>
-    <t>2024-09-26 13:57:03</t>
-  </si>
-  <si>
-    <t>Beatrice</t>
-  </si>
-  <si>
-    <t>Muzi</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>bea5_89@hotmail.fr</t>
-    </r>
-  </si>
-  <si>
-    <t>2WQQ-V5B3-CNS1P</t>
-  </si>
-  <si>
-    <t>Booked through Debora Lima (Maybe also sharing with Debora maybe not)</t>
-  </si>
-  <si>
-    <t>2WQR-MCZJ-099</t>
-  </si>
-  <si>
-    <t>2024-09-26 18:39:12</t>
-  </si>
-  <si>
-    <t>Thuvaraka</t>
-  </si>
-  <si>
-    <t>Vetpillai</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>tvetpillai@hotmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WQR-MCZJ-0991P</t>
-  </si>
-  <si>
-    <t>booked through CAMY</t>
-  </si>
-  <si>
-    <t>2WQW-TD19-KKQ</t>
-  </si>
-  <si>
-    <t>2024-09-27 20:10:07</t>
-  </si>
-  <si>
-    <t>Emmanuel</t>
-  </si>
-  <si>
-    <t>Ekpiken</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Eekpiken@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WQW-TD19-KKQ1P</t>
-  </si>
-  <si>
-    <t>£20 - DEBORA</t>
-  </si>
-  <si>
-    <t>If possible please allow it to be a single room</t>
-  </si>
-  <si>
-    <t>2WR6-1HKK-7B5</t>
-  </si>
-  <si>
-    <t>2024-09-29 22:00:27</t>
-  </si>
-  <si>
-    <t>Neto</t>
-  </si>
-  <si>
-    <t>Garcia Domingos</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>netodomingos92@hotmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WR6-1HKK-7B51P</t>
-  </si>
-  <si>
-    <t>Booked through GUSTO</t>
-  </si>
-  <si>
-    <t>2WR9-ZD83-L5M</t>
-  </si>
-  <si>
-    <t>2024-09-30 21:52:49</t>
-  </si>
-  <si>
-    <t>Anait</t>
-  </si>
-  <si>
-    <t>Sliska</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>anna44free@yahoo.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WR9-ZD83-L5M1P</t>
-  </si>
-  <si>
-    <t>Hui Jun Ho</t>
-  </si>
-  <si>
-    <t>Booked through Marky Mark</t>
-  </si>
-  <si>
-    <t>2WR9-ZJ31-J01</t>
-  </si>
-  <si>
-    <t>2024-09-30 21:54:22</t>
-  </si>
-  <si>
-    <t>Hui Jun</t>
-  </si>
-  <si>
-    <t>Ho</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>hohuijunn@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WR9-ZJ31-J011P</t>
-  </si>
-  <si>
-    <t>Anait Sliska</t>
-  </si>
-  <si>
-    <t>booked through Marky Mark</t>
-  </si>
-  <si>
-    <t>2WR9-ZN8M-PL7</t>
-  </si>
-  <si>
-    <t>2024-09-30 21:56:04</t>
-  </si>
-  <si>
-    <t>Aneta</t>
-  </si>
-  <si>
-    <t>Jenkins</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>ajenkinsanimations@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WR9-ZN8M-PL71P</t>
-  </si>
-  <si>
-    <t>Katarzyna Kowal</t>
-  </si>
-  <si>
-    <t>2WR9-ZVB2-2RL</t>
-  </si>
-  <si>
-    <t>2024-09-30 21:58:31</t>
-  </si>
-  <si>
-    <t>Leon</t>
-  </si>
-  <si>
-    <t>Gulston</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>winter998@hotmail.co.uk</t>
-    </r>
-  </si>
-  <si>
-    <t>2WR9-ZVB2-2RL1P</t>
-  </si>
-  <si>
-    <t>Mariusz Zarachowicz</t>
-  </si>
-  <si>
-    <t>2WRB-00XM-XL3</t>
-  </si>
-  <si>
-    <t>2024-09-30 22:00:23</t>
-  </si>
-  <si>
-    <t>Paulina</t>
-  </si>
-  <si>
-    <t>Malgorazata Chyrc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>pchyrc@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRB-00XM-XL31P</t>
-  </si>
-  <si>
-    <t>Ferenc Hegedus</t>
-  </si>
-  <si>
-    <t>2WRB-04XL-32Q</t>
-  </si>
-  <si>
-    <t>2024-09-30 22:02:00</t>
-  </si>
-  <si>
-    <t>Ferenc</t>
-  </si>
-  <si>
-    <t>Hegedus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>ferenc.hegedus88@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRB-04XL-32Q1P</t>
-  </si>
-  <si>
-    <t>Paulina Malgorazata Chyrc</t>
-  </si>
-  <si>
-    <t>2WRB-074N-XFK</t>
-  </si>
-  <si>
-    <t>2024-09-30 22:02:54</t>
-  </si>
-  <si>
-    <t>Oisin</t>
-  </si>
-  <si>
-    <t>Molloy</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>oisinjpm@outlook.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRB-074N-XFK1P</t>
-  </si>
-  <si>
-    <t>John Stinton</t>
-  </si>
-  <si>
-    <t>2WRB-0DCZ-27P</t>
-  </si>
-  <si>
-    <t>2024-09-30 22:05:01</t>
-  </si>
-  <si>
-    <t>Alexia</t>
-  </si>
-  <si>
-    <t>Bartuccio</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>alexiabart@hotmail.co.uk</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRB-0DCZ-27P1P</t>
-  </si>
-  <si>
-    <t>Grace Castro (awaiting money for ticket)</t>
-  </si>
-  <si>
-    <t>2WRB-0R9D-MPW</t>
-  </si>
-  <si>
-    <t>2024-09-30 22:09:26</t>
-  </si>
-  <si>
-    <t>Stinson</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>johnstinson99@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRB-0R9D-MPW1P</t>
-  </si>
-  <si>
-    <t>Oisin Molloy</t>
-  </si>
-  <si>
-    <t>2WRG-8CN0-7MH</t>
-  </si>
-  <si>
-    <t>2024-10-01 23:59:55</t>
-  </si>
-  <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>gracetty8@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRG-8CN0-7MH1P</t>
-  </si>
-  <si>
-    <t>Alexia Bartuccio</t>
-  </si>
-  <si>
-    <t>2WRN-P4RM-CHQ</t>
-  </si>
-  <si>
-    <t>2024-10-03 15:02:05</t>
-  </si>
-  <si>
-    <t>Miguel</t>
-  </si>
-  <si>
-    <t>Munoz Garcia</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>migueldemencia@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRN-P4RM-CHQ1P</t>
-  </si>
-  <si>
-    <t>Jesus Polo Carmona</t>
-  </si>
-  <si>
-    <t>booked through Sandra</t>
-  </si>
-  <si>
-    <t>2WRN-P7MK-4VR</t>
-  </si>
-  <si>
-    <t>2024-10-03 15:03:15</t>
-  </si>
-  <si>
-    <t>Jesus</t>
-  </si>
-  <si>
-    <t>Polo Carmona</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>jesuspoloc@hotmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRN-P7MK-4VR1P</t>
-  </si>
-  <si>
-    <t>Miguel Munoz Garcia</t>
-  </si>
-  <si>
-    <t>2WRN-PBHF-FRB</t>
-  </si>
-  <si>
-    <t>2024-10-03 15:04:24</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Sanchez Garcia</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>danielsg26@icloud.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRN-PBHF-FRB1P</t>
-  </si>
-  <si>
-    <t>Alvaro Lopez Romero</t>
-  </si>
-  <si>
-    <t>2WRN-PGL2-9BZ</t>
-  </si>
-  <si>
-    <t>2024-10-03 15:06:03</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>Lopez Romero</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>kokelop29@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRN-PGL2-9BZ1P</t>
-  </si>
-  <si>
-    <t>Daniel Sanchez Garcia</t>
-  </si>
-  <si>
-    <t>2WRN-PRZD-2QK</t>
-  </si>
-  <si>
-    <t>2024-10-03 15:09:51</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>Vega</t>
-  </si>
-  <si>
-    <t>2WRN-PRZD-2QK1P</t>
-  </si>
-  <si>
-    <t>Soraya Ciudad Solis</t>
-  </si>
-  <si>
-    <t>ARTIST</t>
-  </si>
-  <si>
-    <t>2WRN-PXSG-GZL</t>
-  </si>
-  <si>
-    <t>2024-10-03 15:11:49</t>
-  </si>
-  <si>
-    <t>Soraya</t>
-  </si>
-  <si>
-    <t>Ciudad Solis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>sorayaciudadsolis@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRN-PXSG-GZL1P</t>
-  </si>
-  <si>
-    <t>Sandra Vega (ARTIST)</t>
-  </si>
-  <si>
-    <t>2WRN-Q4M8-510</t>
-  </si>
-  <si>
-    <t>2024-10-03 15:14:10</t>
-  </si>
-  <si>
-    <t>Raquel</t>
-  </si>
-  <si>
-    <t>Carrero</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>carreroraquel@yahoo.es</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRN-Q4M8-5101P</t>
-  </si>
-  <si>
-    <t>Alexandra Gutierrez</t>
-  </si>
-  <si>
-    <t>2WRN-Q7WM-782</t>
-  </si>
-  <si>
-    <t>2024-10-03 15:15:30</t>
-  </si>
-  <si>
-    <t>Alexandra</t>
-  </si>
-  <si>
-    <t>Gutierrez</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>alexandra_gutierrez@hotmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRN-Q7WM-7821P</t>
-  </si>
-  <si>
-    <t>Raquel Carrero</t>
-  </si>
-  <si>
-    <t>2WRN-QZL2-MMB</t>
-  </si>
-  <si>
-    <t>2024-10-03 15:24:17</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>Gomez Quiroga</t>
-  </si>
-  <si>
-    <t>2WRN-QZL2-MMB1P</t>
-  </si>
-  <si>
-    <t>Marcos Tataje Garcia</t>
-  </si>
-  <si>
-    <t>ARTIST - Sharing with Marcos who arrives on Friday</t>
-  </si>
-  <si>
-    <t>2WRN-RBFP-6D1</t>
-  </si>
-  <si>
-    <t>2024-10-03 15:28:41</t>
-  </si>
-  <si>
-    <t>Marcos</t>
-  </si>
-  <si>
-    <t>Tataje Garcia</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>marcos_19_90@hotmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRN-RBFP-6D11P</t>
-  </si>
-  <si>
-    <t>Edward Gomez Quiroga (ARTIST)</t>
-  </si>
-  <si>
-    <t>booked through Sandra. Marcos arrives FRIDAY and will join Edward who arrives THURS</t>
-  </si>
-  <si>
-    <t>2WRN-RK8J-HB3</t>
-  </si>
-  <si>
-    <t>2024-10-03 15:31:27</t>
-  </si>
-  <si>
-    <t>Francisco</t>
-  </si>
-  <si>
-    <t>Herrera Luque</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>franjo.helu@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRN-RK8J-HB31P</t>
-  </si>
-  <si>
-    <t>Juan Miguel Garcia Haro</t>
-  </si>
-  <si>
-    <t>Booked through Sandra
-Francisco arrives FRIDAY who will join Juan Miguel who arrives Saturday</t>
-  </si>
-  <si>
-    <t>2WRN-RQWM-485</t>
-  </si>
-  <si>
-    <t>2024-10-03 15:33:44</t>
-  </si>
-  <si>
-    <t>Juan Miguel</t>
-  </si>
-  <si>
-    <t>Garcia Haro</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>juanmiguel.garcia17@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRN-RQWM-4851P</t>
-  </si>
-  <si>
-    <t>Francisco Jerrera Luque</t>
-  </si>
-  <si>
-    <t>booked through Sandra
-Juan Miguel arrives THURS- will be joined by Francisco Herrera who arrives FRI</t>
-  </si>
-  <si>
-    <t>2WRX-DH75-35F</t>
-  </si>
-  <si>
-    <t>2024-10-05 13:52:58</t>
-  </si>
-  <si>
-    <t>Joel</t>
-  </si>
-  <si>
-    <t>Cheung</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>joelcheung01@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRX-DH75-35F1P</t>
-  </si>
-  <si>
-    <t>Nived Subbarayan</t>
-  </si>
-  <si>
-    <t>2WRX-DN7N-N1R</t>
-  </si>
-  <si>
-    <t>2024-10-05 13:55:00</t>
-  </si>
-  <si>
-    <t>Katarzyna</t>
-  </si>
-  <si>
-    <t>Kowal</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>kasiakowal3001@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WRX-DN7N-N1R1P</t>
-  </si>
-  <si>
-    <t>Aneta Jenkins</t>
-  </si>
-  <si>
-    <t>2WS3-DS6Z-DVB</t>
-  </si>
-  <si>
-    <t>2024-10-06 20:19:07</t>
-  </si>
-  <si>
-    <t>Mariusz</t>
-  </si>
-  <si>
-    <t>Zarachowicz</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>mariuszzar@icloud.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WS3-DS6Z-DVB1P</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Leon Gulston</t>
-  </si>
-  <si>
-    <t>2WS7-6C02-793</t>
-  </si>
-  <si>
-    <t>2024-10-07 19:18:51</t>
-  </si>
-  <si>
-    <t>Sanjay</t>
-  </si>
-  <si>
-    <t>Chugh</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>chughsanj@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WS7-6C02-7931P</t>
-  </si>
-  <si>
-    <t>Single Room booked through BOS</t>
-  </si>
-  <si>
-    <t>booked direct through BOS</t>
-  </si>
-  <si>
-    <t>2WS8-0N3L-PV6</t>
-  </si>
-  <si>
-    <t>2024-10-08 00:14:09</t>
-  </si>
-  <si>
-    <t>Nived</t>
-  </si>
-  <si>
-    <t>Subbarayan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>ssnived@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WS8-0N3L-PV61P</t>
-  </si>
-  <si>
-    <t>Joel Cheung</t>
-  </si>
-  <si>
-    <t>2WS8-0TW1-23N</t>
-  </si>
-  <si>
-    <t>2024-10-08 00:16:29</t>
-  </si>
-  <si>
-    <t>Su Jin</t>
-  </si>
-  <si>
-    <t>Han</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>sujinpark79@hotmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WS8-0TW1-23N1P</t>
-  </si>
-  <si>
-    <t>Chrysa Skliopidou (awaiting payment)</t>
-  </si>
-  <si>
-    <t>2WSB-4V55-RR1</t>
-  </si>
-  <si>
-    <t>2024-10-08 13:14:12</t>
-  </si>
-  <si>
-    <t>Lola</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Kevin_p_gill@yahoo.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WSB-4V55-RR11P</t>
-  </si>
-  <si>
-    <t>Kevin Gill</t>
-  </si>
-  <si>
-    <t>2WSB-50T2-N5J</t>
-  </si>
-  <si>
-    <t>2024-10-08 13:16:05</t>
-  </si>
-  <si>
-    <t>Ariana</t>
-  </si>
-  <si>
-    <t>Zuna Ortega</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>arianazuna@googlemail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WSB-50T2-N5J1P</t>
-  </si>
-  <si>
-    <t>Jonathan Goldman</t>
-  </si>
-  <si>
-    <t>2WSB-54KW-BGJ</t>
-  </si>
-  <si>
-    <t>2024-10-08 13:17:36</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
-  </si>
-  <si>
-    <t>Goldman</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>jgoldman229@live.co.uk</t>
-    </r>
-  </si>
-  <si>
-    <t>2WSB-54KW-BGJ1P</t>
-  </si>
-  <si>
-    <t>Ariana Zuna Ortega</t>
-  </si>
-  <si>
-    <t>2WSH-QGGN-ZR9</t>
-  </si>
-  <si>
-    <t>2024-10-09 23:10:40</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Jamezreid1@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WSH-QGGN-ZR91P</t>
-  </si>
-  <si>
-    <t>I do not already have someone to share a room with</t>
-  </si>
-  <si>
-    <t>I have no preferences other than to be paired with another male.</t>
-  </si>
-  <si>
-    <t>2WSL-1B15-5ML</t>
-  </si>
-  <si>
-    <t>2024-10-10 13:07:13</t>
-  </si>
-  <si>
-    <t>Oi Yean</t>
-  </si>
-  <si>
-    <t>Wong</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>w.o.yean@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WSL-1B15-5ML1P</t>
-  </si>
-  <si>
-    <t>single occupancy (twin)
-previously booked sharing room - transferred direct and upgraded to single via BOS</t>
-  </si>
-  <si>
-    <t>2WT1-18LW-XG5</t>
-  </si>
-  <si>
-    <t>2024-10-13 20:05:08</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>laura.miller.1@hotmail.co.uk</t>
-    </r>
-  </si>
-  <si>
-    <t>2WT1-18LW-XG51P</t>
-  </si>
-  <si>
-    <t>£20 - BRYAN</t>
-  </si>
-  <si>
-    <t>Mrs Katharine O'Dwyer</t>
-  </si>
-  <si>
-    <t>I am booking two tickets together now one for myself Ms Laura Miller and one for Mrs Katharine O'Dwyer for us to share a double room together, with separate beds thanks</t>
-  </si>
-  <si>
-    <t>Katharine</t>
-  </si>
-  <si>
-    <t>O'Dwyer</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>katharine.gould@hotmail.co.uk</t>
-    </r>
-  </si>
-  <si>
-    <t>2WT1-18LW-XG51Q</t>
-  </si>
-  <si>
-    <t>Ms Laura Miller</t>
-  </si>
-  <si>
-    <t>I am booking two tickets together now so that myself Mrs Katharine O'Dwyer can share with Ms Laura Miller a double room with separate beds.</t>
-  </si>
-  <si>
-    <t>2WT3-SM37-TK8</t>
-  </si>
-  <si>
-    <t>2024-10-14 12:57:50</t>
-  </si>
-  <si>
-    <t>Vera</t>
-  </si>
-  <si>
-    <t>Ignatyeva</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>ignatvm@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WT3-SM37-TK81P</t>
-  </si>
-  <si>
-    <t>Anna Kacena</t>
-  </si>
-  <si>
-    <t>2WT3-SPG8-7SD</t>
-  </si>
-  <si>
-    <t>2024-10-14 12:58:47</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Kacena</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>anna36471@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WT3-SPG8-7SD1P</t>
-  </si>
-  <si>
-    <t>Vera Ignatyeva</t>
-  </si>
-  <si>
-    <t>2WT4-FWHX-VFL</t>
-  </si>
-  <si>
-    <t>2024-10-14 16:52:06</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Spencer</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Srspencer@outlook.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WT4-FWHX-VFL1P</t>
-  </si>
-  <si>
-    <t>£20 - DANIK</t>
-  </si>
-  <si>
-    <t>Nasir Farooq</t>
-  </si>
-  <si>
-    <t>2WT4-WQTL-0HB</t>
-  </si>
-  <si>
-    <t>2024-10-14 19:40:18</t>
-  </si>
-  <si>
-    <t>Gabor</t>
-  </si>
-  <si>
-    <t>Takacs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>gabika9393@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WT4-WQTL-0HB1P</t>
-  </si>
-  <si>
-    <t>Anyone</t>
-  </si>
-  <si>
-    <t>2WT5-2PS1-T87</t>
-  </si>
-  <si>
-    <t>2024-10-14 20:40:37</t>
-  </si>
-  <si>
-    <t>Angie</t>
-  </si>
-  <si>
-    <t>Shucad</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>angie.shucad@gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <t>2WT5-2PS1-T871P</t>
-  </si>
-  <si>
-    <t>Sofia Smith-Londono</t>
-  </si>
-  <si>
-    <t>Booked through THALIA</t>
+    <t>2WV1-W3QC-1QT1P</t>
   </si>
 </sst>
 </file>
@@ -6456,7 +6706,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:U178"/>
+  <dimension ref="A2:U187"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -13943,26 +14193,26 @@
         <v>891</v>
       </c>
       <c r="C126" t="s" s="11">
+        <v>546</v>
+      </c>
+      <c r="D126" t="s" s="11">
         <v>892</v>
       </c>
-      <c r="D126" t="s" s="11">
+      <c r="E126" t="s" s="11">
         <v>893</v>
-      </c>
-      <c r="E126" t="s" s="11">
-        <v>894</v>
       </c>
       <c r="F126" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G126" t="s" s="11">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H126" s="12">
         <v>470</v>
       </c>
       <c r="I126" s="13"/>
       <c r="J126" t="s" s="11">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K126" s="12">
         <v>0</v>
@@ -13987,10 +14237,10 @@
         <v>48</v>
       </c>
       <c r="S126" t="s" s="11">
+        <v>896</v>
+      </c>
+      <c r="T126" t="s" s="11">
         <v>897</v>
-      </c>
-      <c r="T126" t="s" s="11">
-        <v>898</v>
       </c>
       <c r="U126" t="s" s="11">
         <v>30</v>
@@ -13998,32 +14248,32 @@
     </row>
     <row r="127" ht="20.05" customHeight="1">
       <c r="A127" t="s" s="9">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="B127" t="s" s="10">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="C127" t="s" s="11">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D127" t="s" s="11">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E127" t="s" s="11">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F127" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G127" t="s" s="11">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H127" s="12">
         <v>470</v>
       </c>
       <c r="I127" s="13"/>
       <c r="J127" t="s" s="11">
-        <v>896</v>
+        <v>40</v>
       </c>
       <c r="K127" s="12">
         <v>0</v>
@@ -14045,16 +14295,16 @@
       </c>
       <c r="Q127" s="13"/>
       <c r="R127" t="s" s="11">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="S127" t="s" s="11">
-        <v>903</v>
+        <v>98</v>
       </c>
       <c r="T127" t="s" s="11">
         <v>904</v>
       </c>
       <c r="U127" t="s" s="11">
-        <v>30</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" ht="20.05" customHeight="1">
@@ -14065,41 +14315,39 @@
         <v>906</v>
       </c>
       <c r="C128" t="s" s="11">
-        <v>546</v>
+        <v>907</v>
       </c>
       <c r="D128" t="s" s="11">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E128" t="s" s="11">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F128" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G128" t="s" s="11">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H128" s="12">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="I128" s="13"/>
-      <c r="J128" t="s" s="11">
-        <v>910</v>
-      </c>
+      <c r="J128" s="13"/>
       <c r="K128" s="12">
         <v>0</v>
       </c>
       <c r="L128" s="12">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="M128" s="12">
         <v>0</v>
       </c>
       <c r="N128" s="12">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="O128" t="s" s="11">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="P128" t="s" s="11">
         <v>30</v>
@@ -14141,65 +14389,63 @@
         <v>918</v>
       </c>
       <c r="H129" s="12">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="I129" s="13"/>
-      <c r="J129" t="s" s="11">
-        <v>40</v>
-      </c>
+      <c r="J129" s="13"/>
       <c r="K129" s="12">
         <v>0</v>
       </c>
       <c r="L129" s="12">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="M129" s="12">
         <v>0</v>
       </c>
       <c r="N129" s="12">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="O129" t="s" s="11">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="P129" t="s" s="11">
         <v>30</v>
       </c>
       <c r="Q129" s="13"/>
       <c r="R129" t="s" s="11">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="S129" t="s" s="11">
-        <v>98</v>
+        <v>919</v>
       </c>
       <c r="T129" t="s" s="11">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="U129" t="s" s="11">
-        <v>191</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" ht="20.05" customHeight="1">
       <c r="A130" t="s" s="9">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B130" t="s" s="10">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C130" t="s" s="11">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D130" t="s" s="11">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E130" t="s" s="11">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F130" t="s" s="11">
-        <v>55</v>
+        <v>429</v>
       </c>
       <c r="G130" t="s" s="11">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H130" s="12">
         <v>0</v>
@@ -14226,11 +14472,9 @@
       </c>
       <c r="Q130" s="13"/>
       <c r="R130" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="S130" t="s" s="11">
-        <v>926</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="S130" s="13"/>
       <c r="T130" t="s" s="11">
         <v>927</v>
       </c>
@@ -14246,19 +14490,19 @@
         <v>929</v>
       </c>
       <c r="C131" t="s" s="11">
+        <v>655</v>
+      </c>
+      <c r="D131" t="s" s="11">
         <v>930</v>
       </c>
-      <c r="D131" t="s" s="11">
+      <c r="E131" t="s" s="11">
         <v>931</v>
-      </c>
-      <c r="E131" t="s" s="11">
-        <v>932</v>
       </c>
       <c r="F131" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G131" t="s" s="11">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H131" s="12">
         <v>0</v>
@@ -14288,10 +14532,10 @@
         <v>48</v>
       </c>
       <c r="S131" t="s" s="11">
+        <v>933</v>
+      </c>
+      <c r="T131" t="s" s="11">
         <v>934</v>
-      </c>
-      <c r="T131" t="s" s="11">
-        <v>935</v>
       </c>
       <c r="U131" t="s" s="11">
         <v>30</v>
@@ -14299,25 +14543,25 @@
     </row>
     <row r="132" ht="20.05" customHeight="1">
       <c r="A132" t="s" s="9">
+        <v>935</v>
+      </c>
+      <c r="B132" t="s" s="10">
         <v>936</v>
       </c>
-      <c r="B132" t="s" s="10">
+      <c r="C132" t="s" s="11">
         <v>937</v>
       </c>
-      <c r="C132" t="s" s="11">
+      <c r="D132" t="s" s="11">
         <v>938</v>
       </c>
-      <c r="D132" t="s" s="11">
+      <c r="E132" t="s" s="11">
         <v>939</v>
       </c>
-      <c r="E132" t="s" s="11">
+      <c r="F132" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="G132" t="s" s="11">
         <v>940</v>
-      </c>
-      <c r="F132" t="s" s="11">
-        <v>429</v>
-      </c>
-      <c r="G132" t="s" s="11">
-        <v>941</v>
       </c>
       <c r="H132" s="12">
         <v>0</v>
@@ -14344,9 +14588,11 @@
       </c>
       <c r="Q132" s="13"/>
       <c r="R132" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="S132" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="S132" t="s" s="11">
+        <v>941</v>
+      </c>
       <c r="T132" t="s" s="11">
         <v>942</v>
       </c>
@@ -14362,19 +14608,19 @@
         <v>944</v>
       </c>
       <c r="C133" t="s" s="11">
-        <v>655</v>
+        <v>945</v>
       </c>
       <c r="D133" t="s" s="11">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E133" t="s" s="11">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F133" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G133" t="s" s="11">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H133" s="12">
         <v>0</v>
@@ -14401,11 +14647,9 @@
       </c>
       <c r="Q133" s="13"/>
       <c r="R133" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="S133" t="s" s="11">
-        <v>948</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="S133" s="13"/>
       <c r="T133" t="s" s="11">
         <v>949</v>
       </c>
@@ -14430,7 +14674,7 @@
         <v>954</v>
       </c>
       <c r="F134" t="s" s="11">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G134" t="s" s="11">
         <v>955</v>
@@ -14462,11 +14706,9 @@
       <c r="R134" t="s" s="11">
         <v>48</v>
       </c>
-      <c r="S134" t="s" s="11">
+      <c r="S134" s="13"/>
+      <c r="T134" t="s" s="11">
         <v>956</v>
-      </c>
-      <c r="T134" t="s" s="11">
-        <v>957</v>
       </c>
       <c r="U134" t="s" s="11">
         <v>30</v>
@@ -14474,45 +14716,47 @@
     </row>
     <row r="135" ht="20.05" customHeight="1">
       <c r="A135" t="s" s="9">
+        <v>957</v>
+      </c>
+      <c r="B135" t="s" s="10">
         <v>958</v>
       </c>
-      <c r="B135" t="s" s="10">
+      <c r="C135" t="s" s="11">
         <v>959</v>
       </c>
-      <c r="C135" t="s" s="11">
+      <c r="D135" t="s" s="11">
         <v>960</v>
       </c>
-      <c r="D135" t="s" s="11">
+      <c r="E135" t="s" s="11">
         <v>961</v>
       </c>
-      <c r="E135" t="s" s="11">
+      <c r="F135" t="s" s="11">
+        <v>309</v>
+      </c>
+      <c r="G135" t="s" s="11">
         <v>962</v>
       </c>
-      <c r="F135" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="G135" t="s" s="11">
+      <c r="H135" s="12">
+        <v>420</v>
+      </c>
+      <c r="I135" s="13"/>
+      <c r="J135" t="s" s="11">
         <v>963</v>
       </c>
-      <c r="H135" s="12">
-        <v>0</v>
-      </c>
-      <c r="I135" s="13"/>
-      <c r="J135" s="13"/>
       <c r="K135" s="12">
         <v>0</v>
       </c>
       <c r="L135" s="12">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M135" s="12">
         <v>0</v>
       </c>
       <c r="N135" s="12">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O135" t="s" s="11">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="P135" t="s" s="11">
         <v>30</v>
@@ -14521,7 +14765,9 @@
       <c r="R135" t="s" s="11">
         <v>31</v>
       </c>
-      <c r="S135" s="13"/>
+      <c r="S135" t="s" s="11">
+        <v>366</v>
+      </c>
       <c r="T135" t="s" s="11">
         <v>964</v>
       </c>
@@ -14603,42 +14849,40 @@
         <v>976</v>
       </c>
       <c r="F137" t="s" s="11">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="G137" t="s" s="11">
         <v>977</v>
       </c>
       <c r="H137" s="12">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="I137" s="13"/>
-      <c r="J137" t="s" s="11">
-        <v>978</v>
-      </c>
+      <c r="J137" s="13"/>
       <c r="K137" s="12">
         <v>0</v>
       </c>
       <c r="L137" s="12">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M137" s="12">
         <v>0</v>
       </c>
       <c r="N137" s="12">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O137" t="s" s="11">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="P137" t="s" s="11">
         <v>30</v>
       </c>
       <c r="Q137" s="13"/>
       <c r="R137" t="s" s="11">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="S137" t="s" s="11">
-        <v>366</v>
+        <v>978</v>
       </c>
       <c r="T137" t="s" s="11">
         <v>979</v>
@@ -14664,7 +14908,7 @@
         <v>984</v>
       </c>
       <c r="F138" t="s" s="11">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G138" t="s" s="11">
         <v>985</v>
@@ -14696,9 +14940,11 @@
       <c r="R138" t="s" s="11">
         <v>48</v>
       </c>
-      <c r="S138" s="13"/>
+      <c r="S138" t="s" s="11">
+        <v>986</v>
+      </c>
       <c r="T138" t="s" s="11">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="U138" t="s" s="11">
         <v>30</v>
@@ -14706,25 +14952,25 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="9">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B139" t="s" s="10">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C139" t="s" s="11">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D139" t="s" s="11">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E139" t="s" s="11">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F139" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G139" t="s" s="11">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H139" s="12">
         <v>0</v>
@@ -14754,10 +15000,10 @@
         <v>48</v>
       </c>
       <c r="S139" t="s" s="11">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="T139" t="s" s="11">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="U139" t="s" s="11">
         <v>30</v>
@@ -14816,7 +15062,7 @@
         <v>1001</v>
       </c>
       <c r="T140" t="s" s="11">
-        <v>1002</v>
+        <v>979</v>
       </c>
       <c r="U140" t="s" s="11">
         <v>30</v>
@@ -14824,25 +15070,25 @@
     </row>
     <row r="141" ht="20.05" customHeight="1">
       <c r="A141" t="s" s="9">
+        <v>1002</v>
+      </c>
+      <c r="B141" t="s" s="10">
         <v>1003</v>
       </c>
-      <c r="B141" t="s" s="10">
+      <c r="C141" t="s" s="11">
         <v>1004</v>
       </c>
-      <c r="C141" t="s" s="11">
+      <c r="D141" t="s" s="11">
         <v>1005</v>
       </c>
-      <c r="D141" t="s" s="11">
+      <c r="E141" t="s" s="11">
         <v>1006</v>
-      </c>
-      <c r="E141" t="s" s="11">
-        <v>1007</v>
       </c>
       <c r="F141" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G141" t="s" s="11">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H141" s="12">
         <v>0</v>
@@ -14872,10 +15118,10 @@
         <v>48</v>
       </c>
       <c r="S141" t="s" s="11">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="T141" t="s" s="11">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="U141" t="s" s="11">
         <v>30</v>
@@ -14883,25 +15129,25 @@
     </row>
     <row r="142" ht="20.05" customHeight="1">
       <c r="A142" t="s" s="9">
+        <v>1009</v>
+      </c>
+      <c r="B142" t="s" s="10">
         <v>1010</v>
       </c>
-      <c r="B142" t="s" s="10">
+      <c r="C142" t="s" s="11">
         <v>1011</v>
       </c>
-      <c r="C142" t="s" s="11">
+      <c r="D142" t="s" s="11">
         <v>1012</v>
       </c>
-      <c r="D142" t="s" s="11">
+      <c r="E142" t="s" s="11">
         <v>1013</v>
-      </c>
-      <c r="E142" t="s" s="11">
-        <v>1014</v>
       </c>
       <c r="F142" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G142" t="s" s="11">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H142" s="12">
         <v>0</v>
@@ -14931,10 +15177,10 @@
         <v>48</v>
       </c>
       <c r="S142" t="s" s="11">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="T142" t="s" s="11">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="U142" t="s" s="11">
         <v>30</v>
@@ -14942,25 +15188,25 @@
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="9">
+        <v>1016</v>
+      </c>
+      <c r="B143" t="s" s="10">
         <v>1017</v>
       </c>
-      <c r="B143" t="s" s="10">
+      <c r="C143" t="s" s="11">
         <v>1018</v>
       </c>
-      <c r="C143" t="s" s="11">
+      <c r="D143" t="s" s="11">
         <v>1019</v>
       </c>
-      <c r="D143" t="s" s="11">
+      <c r="E143" t="s" s="11">
         <v>1020</v>
-      </c>
-      <c r="E143" t="s" s="11">
-        <v>1021</v>
       </c>
       <c r="F143" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G143" t="s" s="11">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H143" s="12">
         <v>0</v>
@@ -14990,36 +15236,34 @@
         <v>48</v>
       </c>
       <c r="S143" t="s" s="11">
-        <v>1023</v>
-      </c>
-      <c r="T143" t="s" s="11">
-        <v>994</v>
-      </c>
+        <v>1022</v>
+      </c>
+      <c r="T143" s="13"/>
       <c r="U143" t="s" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" t="s" s="9">
+        <v>1023</v>
+      </c>
+      <c r="B144" t="s" s="10">
         <v>1024</v>
       </c>
-      <c r="B144" t="s" s="10">
+      <c r="C144" t="s" s="11">
         <v>1025</v>
       </c>
-      <c r="C144" t="s" s="11">
+      <c r="D144" t="s" s="11">
         <v>1026</v>
       </c>
-      <c r="D144" t="s" s="11">
+      <c r="E144" t="s" s="11">
         <v>1027</v>
       </c>
-      <c r="E144" t="s" s="11">
+      <c r="F144" t="s" s="11">
+        <v>309</v>
+      </c>
+      <c r="G144" t="s" s="11">
         <v>1028</v>
-      </c>
-      <c r="F144" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="G144" t="s" s="11">
-        <v>1029</v>
       </c>
       <c r="H144" s="12">
         <v>0</v>
@@ -15049,10 +15293,10 @@
         <v>48</v>
       </c>
       <c r="S144" t="s" s="11">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="T144" t="s" s="11">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="U144" t="s" s="11">
         <v>30</v>
@@ -15060,25 +15304,25 @@
     </row>
     <row r="145" ht="20.05" customHeight="1">
       <c r="A145" t="s" s="9">
+        <v>1030</v>
+      </c>
+      <c r="B145" t="s" s="10">
         <v>1031</v>
       </c>
-      <c r="B145" t="s" s="10">
+      <c r="C145" t="s" s="11">
+        <v>192</v>
+      </c>
+      <c r="D145" t="s" s="11">
         <v>1032</v>
       </c>
-      <c r="C145" t="s" s="11">
+      <c r="E145" t="s" s="11">
         <v>1033</v>
-      </c>
-      <c r="D145" t="s" s="11">
-        <v>1034</v>
-      </c>
-      <c r="E145" t="s" s="11">
-        <v>1035</v>
       </c>
       <c r="F145" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G145" t="s" s="11">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H145" s="12">
         <v>0</v>
@@ -15108,34 +15352,36 @@
         <v>48</v>
       </c>
       <c r="S145" t="s" s="11">
-        <v>1037</v>
-      </c>
-      <c r="T145" s="13"/>
+        <v>1035</v>
+      </c>
+      <c r="T145" t="s" s="11">
+        <v>979</v>
+      </c>
       <c r="U145" t="s" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" t="s" s="9">
+        <v>1036</v>
+      </c>
+      <c r="B146" t="s" s="10">
+        <v>1037</v>
+      </c>
+      <c r="C146" t="s" s="11">
         <v>1038</v>
       </c>
-      <c r="B146" t="s" s="10">
+      <c r="D146" t="s" s="11">
         <v>1039</v>
       </c>
-      <c r="C146" t="s" s="11">
+      <c r="E146" t="s" s="11">
         <v>1040</v>
-      </c>
-      <c r="D146" t="s" s="11">
-        <v>1041</v>
-      </c>
-      <c r="E146" t="s" s="11">
-        <v>1042</v>
       </c>
       <c r="F146" t="s" s="11">
         <v>309</v>
       </c>
       <c r="G146" t="s" s="11">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="H146" s="12">
         <v>0</v>
@@ -15165,10 +15411,10 @@
         <v>48</v>
       </c>
       <c r="S146" t="s" s="11">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="T146" t="s" s="11">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="U146" t="s" s="11">
         <v>30</v>
@@ -15176,25 +15422,25 @@
     </row>
     <row r="147" ht="20.05" customHeight="1">
       <c r="A147" t="s" s="9">
+        <v>1043</v>
+      </c>
+      <c r="B147" t="s" s="10">
+        <v>1044</v>
+      </c>
+      <c r="C147" t="s" s="11">
         <v>1045</v>
       </c>
-      <c r="B147" t="s" s="10">
+      <c r="D147" t="s" s="11">
         <v>1046</v>
       </c>
-      <c r="C147" t="s" s="11">
-        <v>192</v>
-      </c>
-      <c r="D147" t="s" s="11">
+      <c r="E147" t="s" s="11">
         <v>1047</v>
-      </c>
-      <c r="E147" t="s" s="11">
-        <v>1048</v>
       </c>
       <c r="F147" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G147" t="s" s="11">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H147" s="12">
         <v>0</v>
@@ -15224,10 +15470,10 @@
         <v>48</v>
       </c>
       <c r="S147" t="s" s="11">
+        <v>1049</v>
+      </c>
+      <c r="T147" t="s" s="11">
         <v>1050</v>
-      </c>
-      <c r="T147" t="s" s="11">
-        <v>994</v>
       </c>
       <c r="U147" t="s" s="11">
         <v>30</v>
@@ -15250,7 +15496,7 @@
         <v>1055</v>
       </c>
       <c r="F148" t="s" s="11">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="G148" t="s" s="11">
         <v>1056</v>
@@ -15286,7 +15532,7 @@
         <v>1057</v>
       </c>
       <c r="T148" t="s" s="11">
-        <v>994</v>
+        <v>1050</v>
       </c>
       <c r="U148" t="s" s="11">
         <v>30</v>
@@ -15345,7 +15591,7 @@
         <v>1064</v>
       </c>
       <c r="T149" t="s" s="11">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="U149" t="s" s="11">
         <v>30</v>
@@ -15353,25 +15599,25 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="9">
+        <v>1065</v>
+      </c>
+      <c r="B150" t="s" s="10">
         <v>1066</v>
       </c>
-      <c r="B150" t="s" s="10">
+      <c r="C150" t="s" s="11">
         <v>1067</v>
       </c>
-      <c r="C150" t="s" s="11">
+      <c r="D150" t="s" s="11">
         <v>1068</v>
       </c>
-      <c r="D150" t="s" s="11">
+      <c r="E150" t="s" s="11">
         <v>1069</v>
-      </c>
-      <c r="E150" t="s" s="11">
-        <v>1070</v>
       </c>
       <c r="F150" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G150" t="s" s="11">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H150" s="12">
         <v>0</v>
@@ -15401,10 +15647,10 @@
         <v>48</v>
       </c>
       <c r="S150" t="s" s="11">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="T150" t="s" s="11">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="U150" t="s" s="11">
         <v>30</v>
@@ -15412,25 +15658,25 @@
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="9">
+        <v>1072</v>
+      </c>
+      <c r="B151" t="s" s="10">
         <v>1073</v>
       </c>
-      <c r="B151" t="s" s="10">
+      <c r="C151" t="s" s="11">
         <v>1074</v>
       </c>
-      <c r="C151" t="s" s="11">
+      <c r="D151" t="s" s="11">
         <v>1075</v>
       </c>
-      <c r="D151" t="s" s="11">
-        <v>1076</v>
-      </c>
       <c r="E151" t="s" s="11">
-        <v>1077</v>
+        <v>542</v>
       </c>
       <c r="F151" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G151" t="s" s="11">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H151" s="12">
         <v>0</v>
@@ -15460,10 +15706,10 @@
         <v>48</v>
       </c>
       <c r="S151" t="s" s="11">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="T151" t="s" s="11">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="U151" t="s" s="11">
         <v>30</v>
@@ -15471,25 +15717,25 @@
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="9">
+        <v>1079</v>
+      </c>
+      <c r="B152" t="s" s="10">
         <v>1080</v>
       </c>
-      <c r="B152" t="s" s="10">
+      <c r="C152" t="s" s="11">
         <v>1081</v>
       </c>
-      <c r="C152" t="s" s="11">
+      <c r="D152" t="s" s="11">
         <v>1082</v>
       </c>
-      <c r="D152" t="s" s="11">
+      <c r="E152" t="s" s="11">
         <v>1083</v>
-      </c>
-      <c r="E152" t="s" s="11">
-        <v>1084</v>
       </c>
       <c r="F152" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G152" t="s" s="11">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H152" s="12">
         <v>0</v>
@@ -15519,10 +15765,10 @@
         <v>48</v>
       </c>
       <c r="S152" t="s" s="11">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="T152" t="s" s="11">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="U152" t="s" s="11">
         <v>30</v>
@@ -15530,19 +15776,19 @@
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="9">
+        <v>1086</v>
+      </c>
+      <c r="B153" t="s" s="10">
         <v>1087</v>
       </c>
-      <c r="B153" t="s" s="10">
+      <c r="C153" t="s" s="11">
         <v>1088</v>
       </c>
-      <c r="C153" t="s" s="11">
+      <c r="D153" t="s" s="11">
         <v>1089</v>
       </c>
-      <c r="D153" t="s" s="11">
+      <c r="E153" t="s" s="11">
         <v>1090</v>
-      </c>
-      <c r="E153" t="s" s="11">
-        <v>542</v>
       </c>
       <c r="F153" t="s" s="11">
         <v>55</v>
@@ -15581,7 +15827,7 @@
         <v>1092</v>
       </c>
       <c r="T153" t="s" s="11">
-        <v>1093</v>
+        <v>1050</v>
       </c>
       <c r="U153" t="s" s="11">
         <v>30</v>
@@ -15589,25 +15835,25 @@
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" t="s" s="9">
+        <v>1093</v>
+      </c>
+      <c r="B154" t="s" s="10">
         <v>1094</v>
       </c>
-      <c r="B154" t="s" s="10">
+      <c r="C154" t="s" s="11">
         <v>1095</v>
       </c>
-      <c r="C154" t="s" s="11">
+      <c r="D154" t="s" s="11">
         <v>1096</v>
       </c>
-      <c r="D154" t="s" s="11">
+      <c r="E154" t="s" s="11">
         <v>1097</v>
-      </c>
-      <c r="E154" t="s" s="11">
-        <v>1098</v>
       </c>
       <c r="F154" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G154" t="s" s="11">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H154" s="12">
         <v>0</v>
@@ -15637,10 +15883,10 @@
         <v>48</v>
       </c>
       <c r="S154" t="s" s="11">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="T154" t="s" s="11">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="U154" t="s" s="11">
         <v>30</v>
@@ -15648,25 +15894,25 @@
     </row>
     <row r="155" ht="20.05" customHeight="1">
       <c r="A155" t="s" s="9">
+        <v>1100</v>
+      </c>
+      <c r="B155" t="s" s="10">
         <v>1101</v>
       </c>
-      <c r="B155" t="s" s="10">
+      <c r="C155" t="s" s="11">
         <v>1102</v>
       </c>
-      <c r="C155" t="s" s="11">
+      <c r="D155" t="s" s="11">
         <v>1103</v>
       </c>
-      <c r="D155" t="s" s="11">
-        <v>1104</v>
-      </c>
       <c r="E155" t="s" s="11">
-        <v>1105</v>
+        <v>542</v>
       </c>
       <c r="F155" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G155" t="s" s="11">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H155" s="12">
         <v>0</v>
@@ -15696,10 +15942,10 @@
         <v>48</v>
       </c>
       <c r="S155" t="s" s="11">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="T155" t="s" s="11">
-        <v>1065</v>
+        <v>1106</v>
       </c>
       <c r="U155" t="s" s="11">
         <v>30</v>
@@ -15707,25 +15953,25 @@
     </row>
     <row r="156" ht="20.05" customHeight="1">
       <c r="A156" t="s" s="9">
+        <v>1107</v>
+      </c>
+      <c r="B156" t="s" s="10">
         <v>1108</v>
       </c>
-      <c r="B156" t="s" s="10">
+      <c r="C156" t="s" s="11">
         <v>1109</v>
       </c>
-      <c r="C156" t="s" s="11">
+      <c r="D156" t="s" s="11">
         <v>1110</v>
       </c>
-      <c r="D156" t="s" s="11">
+      <c r="E156" t="s" s="11">
         <v>1111</v>
       </c>
-      <c r="E156" t="s" s="11">
+      <c r="F156" t="s" s="11">
+        <v>309</v>
+      </c>
+      <c r="G156" t="s" s="11">
         <v>1112</v>
-      </c>
-      <c r="F156" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="G156" t="s" s="11">
-        <v>1113</v>
       </c>
       <c r="H156" s="12">
         <v>0</v>
@@ -15755,16 +16001,16 @@
         <v>48</v>
       </c>
       <c r="S156" t="s" s="11">
+        <v>1113</v>
+      </c>
+      <c r="T156" t="s" s="11">
         <v>1114</v>
       </c>
-      <c r="T156" t="s" s="11">
-        <v>1065</v>
-      </c>
       <c r="U156" t="s" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="157" ht="20.05" customHeight="1">
+    <row r="157" ht="32.05" customHeight="1">
       <c r="A157" t="s" s="9">
         <v>1115</v>
       </c>
@@ -15778,13 +16024,13 @@
         <v>1118</v>
       </c>
       <c r="E157" t="s" s="11">
-        <v>542</v>
+        <v>1119</v>
       </c>
       <c r="F157" t="s" s="11">
-        <v>55</v>
+        <v>309</v>
       </c>
       <c r="G157" t="s" s="11">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H157" s="12">
         <v>0</v>
@@ -15814,36 +16060,36 @@
         <v>48</v>
       </c>
       <c r="S157" t="s" s="11">
-        <v>1120</v>
-      </c>
-      <c r="T157" t="s" s="11">
         <v>1121</v>
       </c>
+      <c r="T157" t="s" s="14">
+        <v>1122</v>
+      </c>
       <c r="U157" t="s" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="158" ht="20.05" customHeight="1">
+    <row r="158" ht="32.05" customHeight="1">
       <c r="A158" t="s" s="9">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B158" t="s" s="10">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C158" t="s" s="11">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D158" t="s" s="11">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E158" t="s" s="11">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F158" t="s" s="11">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="G158" t="s" s="11">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H158" s="12">
         <v>0</v>
@@ -15873,36 +16119,36 @@
         <v>48</v>
       </c>
       <c r="S158" t="s" s="11">
-        <v>1128</v>
-      </c>
-      <c r="T158" t="s" s="11">
         <v>1129</v>
       </c>
+      <c r="T158" t="s" s="14">
+        <v>1130</v>
+      </c>
       <c r="U158" t="s" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="159" ht="32.05" customHeight="1">
+    <row r="159" ht="20.05" customHeight="1">
       <c r="A159" t="s" s="9">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B159" t="s" s="10">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C159" t="s" s="11">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D159" t="s" s="11">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E159" t="s" s="11">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="F159" t="s" s="11">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="G159" t="s" s="11">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H159" s="12">
         <v>0</v>
@@ -15932,16 +16178,16 @@
         <v>48</v>
       </c>
       <c r="S159" t="s" s="11">
-        <v>1136</v>
-      </c>
-      <c r="T159" t="s" s="14">
         <v>1137</v>
       </c>
+      <c r="T159" t="s" s="11">
+        <v>987</v>
+      </c>
       <c r="U159" t="s" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="160" ht="32.05" customHeight="1">
+    <row r="160" ht="20.05" customHeight="1">
       <c r="A160" t="s" s="9">
         <v>1138</v>
       </c>
@@ -15993,8 +16239,8 @@
       <c r="S160" t="s" s="11">
         <v>1144</v>
       </c>
-      <c r="T160" t="s" s="14">
-        <v>1145</v>
+      <c r="T160" t="s" s="11">
+        <v>987</v>
       </c>
       <c r="U160" t="s" s="11">
         <v>30</v>
@@ -16002,48 +16248,50 @@
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" t="s" s="9">
+        <v>1145</v>
+      </c>
+      <c r="B161" t="s" s="10">
         <v>1146</v>
       </c>
-      <c r="B161" t="s" s="10">
+      <c r="C161" t="s" s="11">
         <v>1147</v>
       </c>
-      <c r="C161" t="s" s="11">
+      <c r="D161" t="s" s="11">
         <v>1148</v>
       </c>
-      <c r="D161" t="s" s="11">
+      <c r="E161" t="s" s="11">
         <v>1149</v>
       </c>
-      <c r="E161" t="s" s="11">
+      <c r="F161" t="s" s="11">
+        <v>309</v>
+      </c>
+      <c r="G161" t="s" s="11">
         <v>1150</v>
       </c>
-      <c r="F161" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="G161" t="s" s="11">
+      <c r="H161" s="12">
+        <v>420</v>
+      </c>
+      <c r="I161" s="13"/>
+      <c r="J161" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="K161" s="12">
+        <v>0</v>
+      </c>
+      <c r="L161" s="12">
+        <v>400</v>
+      </c>
+      <c r="M161" s="12">
+        <v>0</v>
+      </c>
+      <c r="N161" s="12">
+        <v>400</v>
+      </c>
+      <c r="O161" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="P161" t="s" s="11">
         <v>1151</v>
-      </c>
-      <c r="H161" s="12">
-        <v>0</v>
-      </c>
-      <c r="I161" s="13"/>
-      <c r="J161" s="13"/>
-      <c r="K161" s="12">
-        <v>0</v>
-      </c>
-      <c r="L161" s="12">
-        <v>0</v>
-      </c>
-      <c r="M161" s="12">
-        <v>0</v>
-      </c>
-      <c r="N161" s="12">
-        <v>0</v>
-      </c>
-      <c r="O161" t="s" s="11">
-        <v>243</v>
-      </c>
-      <c r="P161" t="s" s="11">
-        <v>30</v>
       </c>
       <c r="Q161" s="13"/>
       <c r="R161" t="s" s="11">
@@ -16052,9 +16300,7 @@
       <c r="S161" t="s" s="11">
         <v>1152</v>
       </c>
-      <c r="T161" t="s" s="11">
-        <v>1002</v>
-      </c>
+      <c r="T161" s="13"/>
       <c r="U161" t="s" s="11">
         <v>30</v>
       </c>
@@ -16076,7 +16322,7 @@
         <v>1157</v>
       </c>
       <c r="F162" t="s" s="11">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="G162" t="s" s="11">
         <v>1158</v>
@@ -16112,7 +16358,7 @@
         <v>1159</v>
       </c>
       <c r="T162" t="s" s="11">
-        <v>1002</v>
+        <v>1160</v>
       </c>
       <c r="U162" t="s" s="11">
         <v>30</v>
@@ -16120,50 +16366,48 @@
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="9">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B163" t="s" s="10">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C163" t="s" s="11">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D163" t="s" s="11">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E163" t="s" s="11">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F163" t="s" s="11">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="G163" t="s" s="11">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H163" s="12">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="I163" s="13"/>
-      <c r="J163" t="s" s="11">
-        <v>40</v>
-      </c>
+      <c r="J163" s="13"/>
       <c r="K163" s="12">
         <v>0</v>
       </c>
       <c r="L163" s="12">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M163" s="12">
         <v>0</v>
       </c>
       <c r="N163" s="12">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O163" t="s" s="11">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="P163" t="s" s="11">
-        <v>1166</v>
+        <v>30</v>
       </c>
       <c r="Q163" s="13"/>
       <c r="R163" t="s" s="11">
@@ -16172,7 +16416,9 @@
       <c r="S163" t="s" s="11">
         <v>1167</v>
       </c>
-      <c r="T163" s="13"/>
+      <c r="T163" t="s" s="11">
+        <v>987</v>
+      </c>
       <c r="U163" t="s" s="11">
         <v>30</v>
       </c>
@@ -16194,7 +16440,7 @@
         <v>1172</v>
       </c>
       <c r="F164" t="s" s="11">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="G164" t="s" s="11">
         <v>1173</v>
@@ -16230,7 +16476,7 @@
         <v>1174</v>
       </c>
       <c r="T164" t="s" s="11">
-        <v>1175</v>
+        <v>987</v>
       </c>
       <c r="U164" t="s" s="11">
         <v>30</v>
@@ -16238,25 +16484,25 @@
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" t="s" s="9">
+        <v>1175</v>
+      </c>
+      <c r="B165" t="s" s="10">
         <v>1176</v>
       </c>
-      <c r="B165" t="s" s="10">
+      <c r="C165" t="s" s="11">
         <v>1177</v>
       </c>
-      <c r="C165" t="s" s="11">
+      <c r="D165" t="s" s="11">
+        <v>892</v>
+      </c>
+      <c r="E165" t="s" s="11">
         <v>1178</v>
-      </c>
-      <c r="D165" t="s" s="11">
-        <v>1179</v>
-      </c>
-      <c r="E165" t="s" s="11">
-        <v>1180</v>
       </c>
       <c r="F165" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G165" t="s" s="11">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H165" s="12">
         <v>0</v>
@@ -16286,36 +16532,34 @@
         <v>48</v>
       </c>
       <c r="S165" t="s" s="11">
-        <v>1182</v>
-      </c>
-      <c r="T165" t="s" s="11">
-        <v>1002</v>
-      </c>
+        <v>1180</v>
+      </c>
+      <c r="T165" s="13"/>
       <c r="U165" t="s" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="166" ht="20.05" customHeight="1">
       <c r="A166" t="s" s="9">
+        <v>1181</v>
+      </c>
+      <c r="B166" t="s" s="10">
+        <v>1182</v>
+      </c>
+      <c r="C166" t="s" s="11">
         <v>1183</v>
       </c>
-      <c r="B166" t="s" s="10">
+      <c r="D166" t="s" s="11">
         <v>1184</v>
       </c>
-      <c r="C166" t="s" s="11">
+      <c r="E166" t="s" s="11">
         <v>1185</v>
-      </c>
-      <c r="D166" t="s" s="11">
-        <v>1186</v>
-      </c>
-      <c r="E166" t="s" s="11">
-        <v>1187</v>
       </c>
       <c r="F166" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G166" t="s" s="11">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="H166" s="12">
         <v>0</v>
@@ -16345,36 +16589,34 @@
         <v>48</v>
       </c>
       <c r="S166" t="s" s="11">
-        <v>1189</v>
-      </c>
-      <c r="T166" t="s" s="11">
-        <v>1002</v>
-      </c>
+        <v>1187</v>
+      </c>
+      <c r="T166" s="13"/>
       <c r="U166" t="s" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="167" ht="20.05" customHeight="1">
       <c r="A167" t="s" s="9">
+        <v>1188</v>
+      </c>
+      <c r="B167" t="s" s="10">
+        <v>1189</v>
+      </c>
+      <c r="C167" t="s" s="11">
         <v>1190</v>
       </c>
-      <c r="B167" t="s" s="10">
+      <c r="D167" t="s" s="11">
         <v>1191</v>
       </c>
-      <c r="C167" t="s" s="11">
+      <c r="E167" t="s" s="11">
         <v>1192</v>
-      </c>
-      <c r="D167" t="s" s="11">
-        <v>907</v>
-      </c>
-      <c r="E167" t="s" s="11">
-        <v>1193</v>
       </c>
       <c r="F167" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G167" t="s" s="11">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H167" s="12">
         <v>0</v>
@@ -16404,7 +16646,7 @@
         <v>48</v>
       </c>
       <c r="S167" t="s" s="11">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="T167" s="13"/>
       <c r="U167" t="s" s="11">
@@ -16413,62 +16655,66 @@
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" t="s" s="9">
+        <v>1195</v>
+      </c>
+      <c r="B168" t="s" s="10">
         <v>1196</v>
       </c>
-      <c r="B168" t="s" s="10">
+      <c r="C168" t="s" s="11">
         <v>1197</v>
       </c>
-      <c r="C168" t="s" s="11">
+      <c r="D168" t="s" s="11">
         <v>1198</v>
       </c>
-      <c r="D168" t="s" s="11">
+      <c r="E168" t="s" s="11">
         <v>1199</v>
-      </c>
-      <c r="E168" t="s" s="11">
-        <v>1200</v>
       </c>
       <c r="F168" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G168" t="s" s="11">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H168" s="12">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="I168" s="13"/>
-      <c r="J168" s="13"/>
+      <c r="J168" t="s" s="11">
+        <v>40</v>
+      </c>
       <c r="K168" s="12">
         <v>0</v>
       </c>
       <c r="L168" s="12">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="M168" s="12">
         <v>0</v>
       </c>
       <c r="N168" s="12">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O168" t="s" s="11">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="P168" t="s" s="11">
         <v>30</v>
       </c>
       <c r="Q168" s="13"/>
       <c r="R168" t="s" s="11">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="S168" t="s" s="11">
+        <v>1201</v>
+      </c>
+      <c r="T168" t="s" s="11">
         <v>1202</v>
       </c>
-      <c r="T168" s="13"/>
       <c r="U168" t="s" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="169" ht="20.05" customHeight="1">
+    <row r="169" ht="32.05" customHeight="1">
       <c r="A169" t="s" s="9">
         <v>1203</v>
       </c>
@@ -16485,7 +16731,7 @@
         <v>1207</v>
       </c>
       <c r="F169" t="s" s="11">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G169" t="s" s="11">
         <v>1208</v>
@@ -16517,10 +16763,10 @@
       <c r="R169" t="s" s="11">
         <v>48</v>
       </c>
-      <c r="S169" t="s" s="11">
+      <c r="S169" s="13"/>
+      <c r="T169" t="s" s="14">
         <v>1209</v>
       </c>
-      <c r="T169" s="13"/>
       <c r="U169" t="s" s="11">
         <v>30</v>
       </c>
@@ -16533,26 +16779,26 @@
         <v>1211</v>
       </c>
       <c r="C170" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="D170" t="s" s="11">
+        <v>623</v>
+      </c>
+      <c r="E170" t="s" s="11">
         <v>1212</v>
-      </c>
-      <c r="D170" t="s" s="11">
-        <v>1213</v>
-      </c>
-      <c r="E170" t="s" s="11">
-        <v>1214</v>
       </c>
       <c r="F170" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G170" t="s" s="11">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="H170" s="12">
         <v>470</v>
       </c>
       <c r="I170" s="13"/>
       <c r="J170" t="s" s="11">
-        <v>40</v>
+        <v>1214</v>
       </c>
       <c r="K170" s="12">
         <v>0</v>
@@ -16574,59 +16820,61 @@
       </c>
       <c r="Q170" s="13"/>
       <c r="R170" t="s" s="11">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="S170" t="s" s="11">
+        <v>1215</v>
+      </c>
+      <c r="T170" t="s" s="11">
         <v>1216</v>
       </c>
-      <c r="T170" t="s" s="11">
+      <c r="U170" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" ht="20.05" customHeight="1">
+      <c r="A171" t="s" s="9">
+        <v>1210</v>
+      </c>
+      <c r="B171" t="s" s="10">
+        <v>1211</v>
+      </c>
+      <c r="C171" t="s" s="11">
         <v>1217</v>
       </c>
-      <c r="U170" t="s" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="171" ht="32.05" customHeight="1">
-      <c r="A171" t="s" s="9">
+      <c r="D171" t="s" s="11">
         <v>1218</v>
       </c>
-      <c r="B171" t="s" s="10">
+      <c r="E171" t="s" s="11">
         <v>1219</v>
       </c>
-      <c r="C171" t="s" s="11">
+      <c r="F171" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="G171" t="s" s="11">
         <v>1220</v>
       </c>
-      <c r="D171" t="s" s="11">
-        <v>1221</v>
-      </c>
-      <c r="E171" t="s" s="11">
-        <v>1222</v>
-      </c>
-      <c r="F171" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="G171" t="s" s="11">
-        <v>1223</v>
-      </c>
       <c r="H171" s="12">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="I171" s="13"/>
-      <c r="J171" s="13"/>
+      <c r="J171" t="s" s="11">
+        <v>1214</v>
+      </c>
       <c r="K171" s="12">
         <v>0</v>
       </c>
       <c r="L171" s="12">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="M171" s="12">
         <v>0</v>
       </c>
       <c r="N171" s="12">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O171" t="s" s="11">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="P171" t="s" s="11">
         <v>30</v>
@@ -16635,9 +16883,11 @@
       <c r="R171" t="s" s="11">
         <v>48</v>
       </c>
-      <c r="S171" s="13"/>
-      <c r="T171" t="s" s="14">
-        <v>1224</v>
+      <c r="S171" t="s" s="11">
+        <v>1221</v>
+      </c>
+      <c r="T171" t="s" s="11">
+        <v>1222</v>
       </c>
       <c r="U171" t="s" s="11">
         <v>30</v>
@@ -16645,16 +16895,16 @@
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" t="s" s="9">
+        <v>1223</v>
+      </c>
+      <c r="B172" t="s" s="10">
+        <v>1224</v>
+      </c>
+      <c r="C172" t="s" s="11">
         <v>1225</v>
       </c>
-      <c r="B172" t="s" s="10">
+      <c r="D172" t="s" s="11">
         <v>1226</v>
-      </c>
-      <c r="C172" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="D172" t="s" s="11">
-        <v>623</v>
       </c>
       <c r="E172" t="s" s="11">
         <v>1227</v>
@@ -16666,26 +16916,24 @@
         <v>1228</v>
       </c>
       <c r="H172" s="12">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="I172" s="13"/>
-      <c r="J172" t="s" s="11">
-        <v>1229</v>
-      </c>
+      <c r="J172" s="13"/>
       <c r="K172" s="12">
         <v>0</v>
       </c>
       <c r="L172" s="12">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="M172" s="12">
         <v>0</v>
       </c>
       <c r="N172" s="12">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="O172" t="s" s="11">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="P172" t="s" s="11">
         <v>30</v>
@@ -16695,21 +16943,19 @@
         <v>48</v>
       </c>
       <c r="S172" t="s" s="11">
-        <v>1230</v>
-      </c>
-      <c r="T172" t="s" s="11">
-        <v>1231</v>
-      </c>
+        <v>1229</v>
+      </c>
+      <c r="T172" s="13"/>
       <c r="U172" t="s" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="9">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="B173" t="s" s="10">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="C173" t="s" s="11">
         <v>1232</v>
@@ -16727,26 +16973,24 @@
         <v>1235</v>
       </c>
       <c r="H173" s="12">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="I173" s="13"/>
-      <c r="J173" t="s" s="11">
-        <v>1229</v>
-      </c>
+      <c r="J173" s="13"/>
       <c r="K173" s="12">
         <v>0</v>
       </c>
       <c r="L173" s="12">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="M173" s="12">
         <v>0</v>
       </c>
       <c r="N173" s="12">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="O173" t="s" s="11">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="P173" t="s" s="11">
         <v>30</v>
@@ -16758,54 +17002,54 @@
       <c r="S173" t="s" s="11">
         <v>1236</v>
       </c>
-      <c r="T173" t="s" s="11">
-        <v>1237</v>
-      </c>
+      <c r="T173" s="13"/>
       <c r="U173" t="s" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="174" ht="20.05" customHeight="1">
       <c r="A174" t="s" s="9">
+        <v>1237</v>
+      </c>
+      <c r="B174" t="s" s="10">
         <v>1238</v>
       </c>
-      <c r="B174" t="s" s="10">
+      <c r="C174" t="s" s="11">
         <v>1239</v>
       </c>
-      <c r="C174" t="s" s="11">
+      <c r="D174" t="s" s="11">
         <v>1240</v>
       </c>
-      <c r="D174" t="s" s="11">
+      <c r="E174" t="s" s="11">
         <v>1241</v>
-      </c>
-      <c r="E174" t="s" s="11">
-        <v>1242</v>
       </c>
       <c r="F174" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G174" t="s" s="11">
+        <v>1242</v>
+      </c>
+      <c r="H174" s="12">
+        <v>470</v>
+      </c>
+      <c r="I174" s="13"/>
+      <c r="J174" t="s" s="11">
         <v>1243</v>
       </c>
-      <c r="H174" s="12">
-        <v>0</v>
-      </c>
-      <c r="I174" s="13"/>
-      <c r="J174" s="13"/>
       <c r="K174" s="12">
         <v>0</v>
       </c>
       <c r="L174" s="12">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="M174" s="12">
         <v>0</v>
       </c>
       <c r="N174" s="12">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O174" t="s" s="11">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="P174" t="s" s="11">
         <v>30</v>
@@ -16817,7 +17061,9 @@
       <c r="S174" t="s" s="11">
         <v>1244</v>
       </c>
-      <c r="T174" s="13"/>
+      <c r="T174" t="s" s="11">
+        <v>1244</v>
+      </c>
       <c r="U174" t="s" s="11">
         <v>30</v>
       </c>
@@ -16845,36 +17091,40 @@
         <v>1250</v>
       </c>
       <c r="H175" s="12">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="I175" s="13"/>
-      <c r="J175" s="13"/>
+      <c r="J175" t="s" s="11">
+        <v>40</v>
+      </c>
       <c r="K175" s="12">
         <v>0</v>
       </c>
       <c r="L175" s="12">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="M175" s="12">
         <v>0</v>
       </c>
       <c r="N175" s="12">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O175" t="s" s="11">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="P175" t="s" s="11">
         <v>30</v>
       </c>
       <c r="Q175" s="13"/>
       <c r="R175" t="s" s="11">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="S175" t="s" s="11">
         <v>1251</v>
       </c>
-      <c r="T175" s="13"/>
+      <c r="T175" t="s" s="11">
+        <v>1251</v>
+      </c>
       <c r="U175" t="s" s="11">
         <v>30</v>
       </c>
@@ -16902,26 +17152,24 @@
         <v>1257</v>
       </c>
       <c r="H176" s="12">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="I176" s="13"/>
-      <c r="J176" t="s" s="11">
-        <v>1258</v>
-      </c>
+      <c r="J176" s="13"/>
       <c r="K176" s="12">
         <v>0</v>
       </c>
       <c r="L176" s="12">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="M176" s="12">
         <v>0</v>
       </c>
       <c r="N176" s="12">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="O176" t="s" s="11">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="P176" t="s" s="11">
         <v>30</v>
@@ -16931,7 +17179,7 @@
         <v>48</v>
       </c>
       <c r="S176" t="s" s="11">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="T176" t="s" s="11">
         <v>1259</v>
@@ -16967,7 +17215,7 @@
       </c>
       <c r="I177" s="13"/>
       <c r="J177" t="s" s="11">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="K177" s="12">
         <v>0</v>
@@ -16989,13 +17237,13 @@
       </c>
       <c r="Q177" s="13"/>
       <c r="R177" t="s" s="11">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="S177" t="s" s="11">
-        <v>1266</v>
+        <v>794</v>
       </c>
       <c r="T177" t="s" s="11">
-        <v>1266</v>
+        <v>284</v>
       </c>
       <c r="U177" t="s" s="11">
         <v>30</v>
@@ -17003,45 +17251,47 @@
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="9">
+        <v>1260</v>
+      </c>
+      <c r="B178" t="s" s="10">
+        <v>1261</v>
+      </c>
+      <c r="C178" t="s" s="11">
+        <v>794</v>
+      </c>
+      <c r="D178" t="s" s="11">
+        <v>1266</v>
+      </c>
+      <c r="E178" t="s" s="11">
         <v>1267</v>
-      </c>
-      <c r="B178" t="s" s="10">
-        <v>1268</v>
-      </c>
-      <c r="C178" t="s" s="11">
-        <v>1269</v>
-      </c>
-      <c r="D178" t="s" s="11">
-        <v>1270</v>
-      </c>
-      <c r="E178" t="s" s="11">
-        <v>1271</v>
       </c>
       <c r="F178" t="s" s="11">
         <v>55</v>
       </c>
       <c r="G178" t="s" s="11">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="H178" s="12">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="I178" s="13"/>
-      <c r="J178" s="13"/>
+      <c r="J178" t="s" s="11">
+        <v>282</v>
+      </c>
       <c r="K178" s="12">
         <v>0</v>
       </c>
       <c r="L178" s="12">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="M178" s="12">
         <v>0</v>
       </c>
       <c r="N178" s="12">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O178" t="s" s="11">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="P178" t="s" s="11">
         <v>30</v>
@@ -17051,12 +17301,541 @@
         <v>48</v>
       </c>
       <c r="S178" t="s" s="11">
+        <v>1262</v>
+      </c>
+      <c r="T178" t="s" s="11">
+        <v>284</v>
+      </c>
+      <c r="U178" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" ht="20.05" customHeight="1">
+      <c r="A179" t="s" s="9">
+        <v>1269</v>
+      </c>
+      <c r="B179" t="s" s="10">
+        <v>1270</v>
+      </c>
+      <c r="C179" t="s" s="11">
+        <v>1271</v>
+      </c>
+      <c r="D179" t="s" s="11">
+        <v>1272</v>
+      </c>
+      <c r="E179" t="s" s="11">
         <v>1273</v>
       </c>
-      <c r="T178" t="s" s="11">
+      <c r="F179" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="G179" t="s" s="11">
         <v>1274</v>
       </c>
-      <c r="U178" t="s" s="11">
+      <c r="H179" s="12">
+        <v>0</v>
+      </c>
+      <c r="I179" s="13"/>
+      <c r="J179" s="13"/>
+      <c r="K179" s="12">
+        <v>0</v>
+      </c>
+      <c r="L179" s="12">
+        <v>0</v>
+      </c>
+      <c r="M179" s="12">
+        <v>0</v>
+      </c>
+      <c r="N179" s="12">
+        <v>0</v>
+      </c>
+      <c r="O179" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="P179" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q179" s="13"/>
+      <c r="R179" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="S179" t="s" s="11">
+        <v>1275</v>
+      </c>
+      <c r="T179" t="s" s="11">
+        <v>1276</v>
+      </c>
+      <c r="U179" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" ht="20.05" customHeight="1">
+      <c r="A180" t="s" s="9">
+        <v>1277</v>
+      </c>
+      <c r="B180" t="s" s="10">
+        <v>1278</v>
+      </c>
+      <c r="C180" t="s" s="11">
+        <v>1279</v>
+      </c>
+      <c r="D180" t="s" s="11">
+        <v>1280</v>
+      </c>
+      <c r="E180" t="s" s="11">
+        <v>1281</v>
+      </c>
+      <c r="F180" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="G180" t="s" s="11">
+        <v>1282</v>
+      </c>
+      <c r="H180" s="12">
+        <v>470</v>
+      </c>
+      <c r="I180" s="13"/>
+      <c r="J180" t="s" s="11">
+        <v>1283</v>
+      </c>
+      <c r="K180" s="12">
+        <v>0</v>
+      </c>
+      <c r="L180" s="12">
+        <v>450</v>
+      </c>
+      <c r="M180" s="12">
+        <v>0</v>
+      </c>
+      <c r="N180" s="12">
+        <v>450</v>
+      </c>
+      <c r="O180" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="P180" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q180" s="13"/>
+      <c r="R180" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="S180" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="T180" t="s" s="11">
+        <v>416</v>
+      </c>
+      <c r="U180" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" ht="32.05" customHeight="1">
+      <c r="A181" t="s" s="9">
+        <v>1284</v>
+      </c>
+      <c r="B181" t="s" s="10">
+        <v>1285</v>
+      </c>
+      <c r="C181" t="s" s="11">
+        <v>1286</v>
+      </c>
+      <c r="D181" t="s" s="11">
+        <v>1287</v>
+      </c>
+      <c r="E181" t="s" s="11">
+        <v>1288</v>
+      </c>
+      <c r="F181" t="s" s="11">
+        <v>309</v>
+      </c>
+      <c r="G181" t="s" s="11">
+        <v>1289</v>
+      </c>
+      <c r="H181" s="12">
+        <v>0</v>
+      </c>
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
+      <c r="K181" s="12">
+        <v>0</v>
+      </c>
+      <c r="L181" s="12">
+        <v>0</v>
+      </c>
+      <c r="M181" s="12">
+        <v>0</v>
+      </c>
+      <c r="N181" s="12">
+        <v>0</v>
+      </c>
+      <c r="O181" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="P181" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q181" s="13"/>
+      <c r="R181" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="S181" s="13"/>
+      <c r="T181" t="s" s="14">
+        <v>1290</v>
+      </c>
+      <c r="U181" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" ht="20.05" customHeight="1">
+      <c r="A182" t="s" s="9">
+        <v>1291</v>
+      </c>
+      <c r="B182" t="s" s="10">
+        <v>1292</v>
+      </c>
+      <c r="C182" t="s" s="11">
+        <v>1293</v>
+      </c>
+      <c r="D182" t="s" s="11">
+        <v>1294</v>
+      </c>
+      <c r="E182" t="s" s="11">
+        <v>1295</v>
+      </c>
+      <c r="F182" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="G182" t="s" s="11">
+        <v>1296</v>
+      </c>
+      <c r="H182" s="12">
+        <v>470</v>
+      </c>
+      <c r="I182" s="13"/>
+      <c r="J182" t="s" s="11">
+        <v>895</v>
+      </c>
+      <c r="K182" s="12">
+        <v>0</v>
+      </c>
+      <c r="L182" s="12">
+        <v>450</v>
+      </c>
+      <c r="M182" s="12">
+        <v>0</v>
+      </c>
+      <c r="N182" s="12">
+        <v>450</v>
+      </c>
+      <c r="O182" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="P182" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q182" s="13"/>
+      <c r="R182" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="S182" t="s" s="11">
+        <v>1297</v>
+      </c>
+      <c r="T182" s="13"/>
+      <c r="U182" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" ht="20.05" customHeight="1">
+      <c r="A183" t="s" s="9">
+        <v>1298</v>
+      </c>
+      <c r="B183" t="s" s="10">
+        <v>1299</v>
+      </c>
+      <c r="C183" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="D183" t="s" s="11">
+        <v>1300</v>
+      </c>
+      <c r="E183" t="s" s="11">
+        <v>1301</v>
+      </c>
+      <c r="F183" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="G183" t="s" s="11">
+        <v>1302</v>
+      </c>
+      <c r="H183" s="12">
+        <v>470</v>
+      </c>
+      <c r="I183" s="13"/>
+      <c r="J183" t="s" s="11">
+        <v>895</v>
+      </c>
+      <c r="K183" s="12">
+        <v>0</v>
+      </c>
+      <c r="L183" s="12">
+        <v>450</v>
+      </c>
+      <c r="M183" s="12">
+        <v>0</v>
+      </c>
+      <c r="N183" s="12">
+        <v>450</v>
+      </c>
+      <c r="O183" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="P183" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q183" s="13"/>
+      <c r="R183" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="S183" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="T183" t="s" s="11">
+        <v>1303</v>
+      </c>
+      <c r="U183" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" ht="32.05" customHeight="1">
+      <c r="A184" t="s" s="9">
+        <v>1304</v>
+      </c>
+      <c r="B184" t="s" s="10">
+        <v>1305</v>
+      </c>
+      <c r="C184" t="s" s="11">
+        <v>1306</v>
+      </c>
+      <c r="D184" t="s" s="11">
+        <v>1307</v>
+      </c>
+      <c r="E184" t="s" s="11">
+        <v>1308</v>
+      </c>
+      <c r="F184" t="s" s="11">
+        <v>309</v>
+      </c>
+      <c r="G184" t="s" s="11">
+        <v>1309</v>
+      </c>
+      <c r="H184" s="12">
+        <v>0</v>
+      </c>
+      <c r="I184" s="13"/>
+      <c r="J184" s="13"/>
+      <c r="K184" s="12">
+        <v>0</v>
+      </c>
+      <c r="L184" s="12">
+        <v>0</v>
+      </c>
+      <c r="M184" s="12">
+        <v>0</v>
+      </c>
+      <c r="N184" s="12">
+        <v>0</v>
+      </c>
+      <c r="O184" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="P184" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q184" s="13"/>
+      <c r="R184" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="S184" t="s" s="11">
+        <v>1310</v>
+      </c>
+      <c r="T184" t="s" s="14">
+        <v>1311</v>
+      </c>
+      <c r="U184" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" ht="32.05" customHeight="1">
+      <c r="A185" t="s" s="9">
+        <v>1312</v>
+      </c>
+      <c r="B185" t="s" s="10">
+        <v>1313</v>
+      </c>
+      <c r="C185" t="s" s="11">
+        <v>1314</v>
+      </c>
+      <c r="D185" t="s" s="11">
+        <v>1315</v>
+      </c>
+      <c r="E185" t="s" s="11">
+        <v>1316</v>
+      </c>
+      <c r="F185" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="G185" t="s" s="11">
+        <v>1317</v>
+      </c>
+      <c r="H185" s="12">
+        <v>0</v>
+      </c>
+      <c r="I185" s="13"/>
+      <c r="J185" s="13"/>
+      <c r="K185" s="12">
+        <v>0</v>
+      </c>
+      <c r="L185" s="12">
+        <v>0</v>
+      </c>
+      <c r="M185" s="12">
+        <v>0</v>
+      </c>
+      <c r="N185" s="12">
+        <v>0</v>
+      </c>
+      <c r="O185" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="P185" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q185" s="13"/>
+      <c r="R185" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="S185" s="13"/>
+      <c r="T185" t="s" s="14">
+        <v>1318</v>
+      </c>
+      <c r="U185" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" ht="32.05" customHeight="1">
+      <c r="A186" t="s" s="9">
+        <v>1319</v>
+      </c>
+      <c r="B186" t="s" s="10">
+        <v>1320</v>
+      </c>
+      <c r="C186" t="s" s="11">
+        <v>1321</v>
+      </c>
+      <c r="D186" t="s" s="11">
+        <v>1322</v>
+      </c>
+      <c r="E186" t="s" s="11">
+        <v>1323</v>
+      </c>
+      <c r="F186" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="G186" t="s" s="11">
+        <v>1324</v>
+      </c>
+      <c r="H186" s="12">
+        <v>0</v>
+      </c>
+      <c r="I186" s="13"/>
+      <c r="J186" s="13"/>
+      <c r="K186" s="12">
+        <v>0</v>
+      </c>
+      <c r="L186" s="12">
+        <v>0</v>
+      </c>
+      <c r="M186" s="12">
+        <v>0</v>
+      </c>
+      <c r="N186" s="12">
+        <v>0</v>
+      </c>
+      <c r="O186" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="P186" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q186" s="13"/>
+      <c r="R186" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="S186" t="s" s="11">
+        <v>1325</v>
+      </c>
+      <c r="T186" t="s" s="14">
+        <v>1326</v>
+      </c>
+      <c r="U186" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" ht="20.05" customHeight="1">
+      <c r="A187" t="s" s="9">
+        <v>1327</v>
+      </c>
+      <c r="B187" t="s" s="10">
+        <v>1328</v>
+      </c>
+      <c r="C187" t="s" s="11">
+        <v>1329</v>
+      </c>
+      <c r="D187" t="s" s="11">
+        <v>1330</v>
+      </c>
+      <c r="E187" t="s" s="11">
+        <v>1331</v>
+      </c>
+      <c r="F187" t="s" s="11">
+        <v>124</v>
+      </c>
+      <c r="G187" t="s" s="11">
+        <v>1332</v>
+      </c>
+      <c r="H187" s="12">
+        <v>0</v>
+      </c>
+      <c r="I187" s="13"/>
+      <c r="J187" s="13"/>
+      <c r="K187" s="12">
+        <v>0</v>
+      </c>
+      <c r="L187" s="12">
+        <v>0</v>
+      </c>
+      <c r="M187" s="12">
+        <v>0</v>
+      </c>
+      <c r="N187" s="12">
+        <v>0</v>
+      </c>
+      <c r="O187" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="P187" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q187" s="13"/>
+      <c r="R187" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="S187" s="13"/>
+      <c r="T187" t="s" s="11">
+        <v>1160</v>
+      </c>
+      <c r="U187" t="s" s="11">
         <v>30</v>
       </c>
     </row>
@@ -17188,59 +17967,68 @@
     <hyperlink ref="E123" r:id="rId121" location="" tooltip="" display="kas.banak@gmail.com"/>
     <hyperlink ref="E124" r:id="rId122" location="" tooltip="" display="demichee@yahoo.com"/>
     <hyperlink ref="E125" r:id="rId123" location="" tooltip="" display="eliska.prokesova@gmail.com"/>
-    <hyperlink ref="E126" r:id="rId124" location="" tooltip="" display="ayyankidba@gmail.com"/>
-    <hyperlink ref="E127" r:id="rId125" location="" tooltip="" display="dziewiecka.irena@gmail.com"/>
-    <hyperlink ref="E128" r:id="rId126" location="" tooltip="" display="kevin_p_gill@yahoo.com"/>
-    <hyperlink ref="E129" r:id="rId127" location="" tooltip="" display="jess_gomm@live.co.uk"/>
-    <hyperlink ref="E130" r:id="rId128" location="" tooltip="" display="sofia_sl@hotmail.co.uk"/>
-    <hyperlink ref="E131" r:id="rId129" location="" tooltip="" display="pedrito_51@hotmail.com"/>
-    <hyperlink ref="E132" r:id="rId130" location="" tooltip="" display="javiecija96@gmail.com"/>
-    <hyperlink ref="E133" r:id="rId131" location="" tooltip="" display="susiwhinney@gmail.com"/>
-    <hyperlink ref="E134" r:id="rId132" location="" tooltip="" display="luizamejlun@yahoo.co.uk"/>
-    <hyperlink ref="E135" r:id="rId133" location="" tooltip="" display="bea5_89@hotmail.fr"/>
-    <hyperlink ref="E136" r:id="rId134" location="" tooltip="" display="tvetpillai@hotmail.com"/>
-    <hyperlink ref="E137" r:id="rId135" location="" tooltip="" display="Eekpiken@gmail.com"/>
-    <hyperlink ref="E138" r:id="rId136" location="" tooltip="" display="netodomingos92@hotmail.com"/>
-    <hyperlink ref="E139" r:id="rId137" location="" tooltip="" display="anna44free@yahoo.com"/>
-    <hyperlink ref="E140" r:id="rId138" location="" tooltip="" display="hohuijunn@gmail.com"/>
-    <hyperlink ref="E141" r:id="rId139" location="" tooltip="" display="ajenkinsanimations@gmail.com"/>
-    <hyperlink ref="E142" r:id="rId140" location="" tooltip="" display="winter998@hotmail.co.uk"/>
-    <hyperlink ref="E143" r:id="rId141" location="" tooltip="" display="pchyrc@gmail.com"/>
-    <hyperlink ref="E144" r:id="rId142" location="" tooltip="" display="ferenc.hegedus88@gmail.com"/>
-    <hyperlink ref="E145" r:id="rId143" location="" tooltip="" display="oisinjpm@outlook.com"/>
-    <hyperlink ref="E146" r:id="rId144" location="" tooltip="" display="alexiabart@hotmail.co.uk"/>
-    <hyperlink ref="E147" r:id="rId145" location="" tooltip="" display="johnstinson99@gmail.com"/>
-    <hyperlink ref="E148" r:id="rId146" location="" tooltip="" display="gracetty8@gmail.com"/>
-    <hyperlink ref="E149" r:id="rId147" location="" tooltip="" display="migueldemencia@gmail.com"/>
-    <hyperlink ref="E150" r:id="rId148" location="" tooltip="" display="jesuspoloc@hotmail.com"/>
-    <hyperlink ref="E151" r:id="rId149" location="" tooltip="" display="danielsg26@icloud.com"/>
-    <hyperlink ref="E152" r:id="rId150" location="" tooltip="" display="kokelop29@gmail.com"/>
-    <hyperlink ref="E153" r:id="rId151" location="" tooltip="" display="bosmajorca24@bachataaddict.com"/>
-    <hyperlink ref="E154" r:id="rId152" location="" tooltip="" display="sorayaciudadsolis@gmail.com"/>
-    <hyperlink ref="E155" r:id="rId153" location="" tooltip="" display="carreroraquel@yahoo.es"/>
-    <hyperlink ref="E156" r:id="rId154" location="" tooltip="" display="alexandra_gutierrez@hotmail.com"/>
-    <hyperlink ref="E157" r:id="rId155" location="" tooltip="" display="bosmajorca24@bachataaddict.com"/>
-    <hyperlink ref="E158" r:id="rId156" location="" tooltip="" display="marcos_19_90@hotmail.com"/>
-    <hyperlink ref="E159" r:id="rId157" location="" tooltip="" display="franjo.helu@gmail.com"/>
-    <hyperlink ref="E160" r:id="rId158" location="" tooltip="" display="juanmiguel.garcia17@gmail.com"/>
-    <hyperlink ref="E161" r:id="rId159" location="" tooltip="" display="joelcheung01@gmail.com"/>
-    <hyperlink ref="E162" r:id="rId160" location="" tooltip="" display="kasiakowal3001@gmail.com"/>
-    <hyperlink ref="E163" r:id="rId161" location="" tooltip="" display="mariuszzar@icloud.com"/>
-    <hyperlink ref="E164" r:id="rId162" location="" tooltip="" display="chughsanj@gmail.com"/>
-    <hyperlink ref="E165" r:id="rId163" location="" tooltip="" display="ssnived@gmail.com"/>
-    <hyperlink ref="E166" r:id="rId164" location="" tooltip="" display="sujinpark79@hotmail.com"/>
-    <hyperlink ref="E167" r:id="rId165" location="" tooltip="" display="Kevin_p_gill@yahoo.com"/>
-    <hyperlink ref="E168" r:id="rId166" location="" tooltip="" display="arianazuna@googlemail.com"/>
-    <hyperlink ref="E169" r:id="rId167" location="" tooltip="" display="jgoldman229@live.co.uk"/>
-    <hyperlink ref="E170" r:id="rId168" location="" tooltip="" display="Jamezreid1@gmail.com"/>
-    <hyperlink ref="E171" r:id="rId169" location="" tooltip="" display="w.o.yean@gmail.com"/>
-    <hyperlink ref="E172" r:id="rId170" location="" tooltip="" display="laura.miller.1@hotmail.co.uk"/>
-    <hyperlink ref="E173" r:id="rId171" location="" tooltip="" display="katharine.gould@hotmail.co.uk"/>
-    <hyperlink ref="E174" r:id="rId172" location="" tooltip="" display="ignatvm@gmail.com"/>
-    <hyperlink ref="E175" r:id="rId173" location="" tooltip="" display="anna36471@gmail.com"/>
-    <hyperlink ref="E176" r:id="rId174" location="" tooltip="" display="Srspencer@outlook.com"/>
-    <hyperlink ref="E177" r:id="rId175" location="" tooltip="" display="gabika9393@gmail.com"/>
-    <hyperlink ref="E178" r:id="rId176" location="" tooltip="" display="angie.shucad@gmail.com"/>
+    <hyperlink ref="E126" r:id="rId124" location="" tooltip="" display="kevin_p_gill@yahoo.com"/>
+    <hyperlink ref="E127" r:id="rId125" location="" tooltip="" display="jess_gomm@live.co.uk"/>
+    <hyperlink ref="E128" r:id="rId126" location="" tooltip="" display="sofia_sl@hotmail.co.uk"/>
+    <hyperlink ref="E129" r:id="rId127" location="" tooltip="" display="pedrito_51@hotmail.com"/>
+    <hyperlink ref="E130" r:id="rId128" location="" tooltip="" display="javiecija96@gmail.com"/>
+    <hyperlink ref="E131" r:id="rId129" location="" tooltip="" display="susiwhinney@gmail.com"/>
+    <hyperlink ref="E132" r:id="rId130" location="" tooltip="" display="luizamejlun@yahoo.co.uk"/>
+    <hyperlink ref="E133" r:id="rId131" location="" tooltip="" display="bea5_89@hotmail.fr"/>
+    <hyperlink ref="E134" r:id="rId132" location="" tooltip="" display="tvetpillai@hotmail.com"/>
+    <hyperlink ref="E135" r:id="rId133" location="" tooltip="" display="Eekpiken@gmail.com"/>
+    <hyperlink ref="E136" r:id="rId134" location="" tooltip="" display="netodomingos92@hotmail.com"/>
+    <hyperlink ref="E137" r:id="rId135" location="" tooltip="" display="anna44free@yahoo.com"/>
+    <hyperlink ref="E138" r:id="rId136" location="" tooltip="" display="hohuijunn@gmail.com"/>
+    <hyperlink ref="E139" r:id="rId137" location="" tooltip="" display="ajenkinsanimations@gmail.com"/>
+    <hyperlink ref="E140" r:id="rId138" location="" tooltip="" display="winter998@hotmail.co.uk"/>
+    <hyperlink ref="E141" r:id="rId139" location="" tooltip="" display="pchyrc@gmail.com"/>
+    <hyperlink ref="E142" r:id="rId140" location="" tooltip="" display="ferenc.hegedus88@gmail.com"/>
+    <hyperlink ref="E143" r:id="rId141" location="" tooltip="" display="oisinjpm@outlook.com"/>
+    <hyperlink ref="E144" r:id="rId142" location="" tooltip="" display="alexiabart@hotmail.co.uk"/>
+    <hyperlink ref="E145" r:id="rId143" location="" tooltip="" display="johnstinson99@gmail.com"/>
+    <hyperlink ref="E146" r:id="rId144" location="" tooltip="" display="gracetty8@gmail.com"/>
+    <hyperlink ref="E147" r:id="rId145" location="" tooltip="" display="migueldemencia@gmail.com"/>
+    <hyperlink ref="E148" r:id="rId146" location="" tooltip="" display="jesuspoloc@hotmail.com"/>
+    <hyperlink ref="E149" r:id="rId147" location="" tooltip="" display="danielsg26@icloud.com"/>
+    <hyperlink ref="E150" r:id="rId148" location="" tooltip="" display="kokelop29@gmail.com"/>
+    <hyperlink ref="E151" r:id="rId149" location="" tooltip="" display="bosmajorca24@bachataaddict.com"/>
+    <hyperlink ref="E152" r:id="rId150" location="" tooltip="" display="sorayaciudadsolis@gmail.com"/>
+    <hyperlink ref="E153" r:id="rId151" location="" tooltip="" display="carreroraquel@yahoo.es"/>
+    <hyperlink ref="E154" r:id="rId152" location="" tooltip="" display="alexandra_gutierrez@hotmail.com"/>
+    <hyperlink ref="E155" r:id="rId153" location="" tooltip="" display="bosmajorca24@bachataaddict.com"/>
+    <hyperlink ref="E156" r:id="rId154" location="" tooltip="" display="marcos_19_90@hotmail.com"/>
+    <hyperlink ref="E157" r:id="rId155" location="" tooltip="" display="franjo.helu@gmail.com"/>
+    <hyperlink ref="E158" r:id="rId156" location="" tooltip="" display="juanmiguel.garcia17@gmail.com"/>
+    <hyperlink ref="E159" r:id="rId157" location="" tooltip="" display="joelcheung01@gmail.com"/>
+    <hyperlink ref="E160" r:id="rId158" location="" tooltip="" display="kasiakowal3001@gmail.com"/>
+    <hyperlink ref="E161" r:id="rId159" location="" tooltip="" display="mariuszzar@icloud.com"/>
+    <hyperlink ref="E162" r:id="rId160" location="" tooltip="" display="chughsanj@gmail.com"/>
+    <hyperlink ref="E163" r:id="rId161" location="" tooltip="" display="ssnived@gmail.com"/>
+    <hyperlink ref="E164" r:id="rId162" location="" tooltip="" display="sujinpark79@hotmail.com"/>
+    <hyperlink ref="E165" r:id="rId163" location="" tooltip="" display="Kevin_p_gill@yahoo.com"/>
+    <hyperlink ref="E166" r:id="rId164" location="" tooltip="" display="arianazuna@googlemail.com"/>
+    <hyperlink ref="E167" r:id="rId165" location="" tooltip="" display="jgoldman229@live.co.uk"/>
+    <hyperlink ref="E168" r:id="rId166" location="" tooltip="" display="Jamezreid1@gmail.com"/>
+    <hyperlink ref="E169" r:id="rId167" location="" tooltip="" display="w.o.yean@gmail.com"/>
+    <hyperlink ref="E170" r:id="rId168" location="" tooltip="" display="laura.miller.1@hotmail.co.uk"/>
+    <hyperlink ref="E171" r:id="rId169" location="" tooltip="" display="katharine.gould@hotmail.co.uk"/>
+    <hyperlink ref="E172" r:id="rId170" location="" tooltip="" display="ignatvm@gmail.com"/>
+    <hyperlink ref="E173" r:id="rId171" location="" tooltip="" display="anna36471@gmail.com"/>
+    <hyperlink ref="E174" r:id="rId172" location="" tooltip="" display="Srspencer@outlook.com"/>
+    <hyperlink ref="E175" r:id="rId173" location="" tooltip="" display="gabika9393@gmail.com"/>
+    <hyperlink ref="E176" r:id="rId174" location="" tooltip="" display="angie.shucad@gmail.com"/>
+    <hyperlink ref="E177" r:id="rId175" location="" tooltip="" display="basiunia3433@gmail.com"/>
+    <hyperlink ref="E178" r:id="rId176" location="" tooltip="" display="aguska1988@op.pl"/>
+    <hyperlink ref="E179" r:id="rId177" location="" tooltip="" display="valdenizeferreira@hotmail.com"/>
+    <hyperlink ref="E180" r:id="rId178" location="" tooltip="" display="ethanhale89@outlook.com"/>
+    <hyperlink ref="E181" r:id="rId179" location="" tooltip="" display="dimanakarakirova@gmail.com"/>
+    <hyperlink ref="E182" r:id="rId180" location="" tooltip="" display="indre89@yahoo.co.uk"/>
+    <hyperlink ref="E183" r:id="rId181" location="" tooltip="" display="laurastefanescu.ls@gmail.com"/>
+    <hyperlink ref="E184" r:id="rId182" location="" tooltip="" display="elinafjodorova91@gmail.com"/>
+    <hyperlink ref="E185" r:id="rId183" location="" tooltip="" display="ayyankidba@gmail.com"/>
+    <hyperlink ref="E186" r:id="rId184" location="" tooltip="" display="dziewiecka.irena@gmail.com"/>
+    <hyperlink ref="E187" r:id="rId185" location="" tooltip="" display="mustafahshams@hotmail.com"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/sql/websales.xlsx
+++ b/sql/websales.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1333">
-  <si>
-    <t>Guest list bos-majorca-holiday-2024 2024-10-21</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1387">
+  <si>
+    <t>Guest list bos-majorca-holiday-2024 2024-10-25</t>
   </si>
   <si>
     <t>Order number</t>
@@ -4771,7 +4771,7 @@
     <t>2WS8-0TW1-23N1P</t>
   </si>
   <si>
-    <t>Chrysa Skliopidou (awaiting payment)</t>
+    <t>Chrysa Skliopidou</t>
   </si>
   <si>
     <t>2WSB-4V55-RR1</t>
@@ -5435,6 +5435,226 @@
   </si>
   <si>
     <t>2WV1-W3QC-1QT1P</t>
+  </si>
+  <si>
+    <t>2WV3-G52H-69Q</t>
+  </si>
+  <si>
+    <t>2024-10-22 01:05:39</t>
+  </si>
+  <si>
+    <t>Chrysa</t>
+  </si>
+  <si>
+    <t>Skliopidou</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>skliopidou.chrysa@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WV3-G52H-69Q1P</t>
+  </si>
+  <si>
+    <t>Su Jin Han</t>
+  </si>
+  <si>
+    <t>2WV9-KLWG-L21</t>
+  </si>
+  <si>
+    <t>2024-10-23 14:14:42</t>
+  </si>
+  <si>
+    <t>Falkner</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>andrewdcharity@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WV9-KLWG-L211P</t>
+  </si>
+  <si>
+    <t>2WV9-R4C3-519</t>
+  </si>
+  <si>
+    <t>2024-10-23 15:21:43</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>jake_bernard90@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WV9-R4C3-5191P</t>
+  </si>
+  <si>
+    <t>Povilas Rusevicius</t>
+  </si>
+  <si>
+    <t>2WV9-R763-89F</t>
+  </si>
+  <si>
+    <t>2024-10-23 15:22:52</t>
+  </si>
+  <si>
+    <t>Povilas</t>
+  </si>
+  <si>
+    <t>Rusevicius</t>
+  </si>
+  <si>
+    <t>2WV9-R763-89F1P</t>
+  </si>
+  <si>
+    <t>Jake Bernard</t>
+  </si>
+  <si>
+    <t>2WV9-XS6R-01T</t>
+  </si>
+  <si>
+    <t>2024-10-23 16:30:30</t>
+  </si>
+  <si>
+    <t>Shillcock</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>jshillcock92@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WV9-XS6R-01T1P</t>
+  </si>
+  <si>
+    <t>Twin room
+booked through Diego &amp; Ola</t>
+  </si>
+  <si>
+    <t>2WVF-Z9G8-Z2D</t>
+  </si>
+  <si>
+    <t>2024-10-24 16:54:41</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>malva2@icloud.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WVF-Z9G8-Z2D1P</t>
+  </si>
+  <si>
+    <t>Liz Freire</t>
+  </si>
+  <si>
+    <t>Ramiro's Friends</t>
+  </si>
+  <si>
+    <t>2WVF-ZD30-SDL</t>
+  </si>
+  <si>
+    <t>2024-10-24 16:55:45</t>
+  </si>
+  <si>
+    <t>Liz</t>
+  </si>
+  <si>
+    <t>Freire</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>freireliz19@hotmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WVF-ZD30-SDL1P</t>
+  </si>
+  <si>
+    <t>Marco Vasquez</t>
+  </si>
+  <si>
+    <t>Ramiro's Friend</t>
+  </si>
+  <si>
+    <t>2WVG-6H74-L0X</t>
+  </si>
+  <si>
+    <t>2024-10-24 18:22:04</t>
+  </si>
+  <si>
+    <t>Margarita</t>
+  </si>
+  <si>
+    <t>Dobrowolska</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>margarita.dobrowolska@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>2WVG-6H74-L0X1P</t>
+  </si>
+  <si>
+    <t>Female please 
+I am super quiet</t>
   </si>
 </sst>
 </file>
@@ -6706,7 +6926,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:U187"/>
+  <dimension ref="A2:U195"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -17836,6 +18056,472 @@
         <v>1160</v>
       </c>
       <c r="U187" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" ht="20.05" customHeight="1">
+      <c r="A188" t="s" s="9">
+        <v>1333</v>
+      </c>
+      <c r="B188" t="s" s="10">
+        <v>1334</v>
+      </c>
+      <c r="C188" t="s" s="11">
+        <v>1335</v>
+      </c>
+      <c r="D188" t="s" s="11">
+        <v>1336</v>
+      </c>
+      <c r="E188" t="s" s="11">
+        <v>1337</v>
+      </c>
+      <c r="F188" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="G188" t="s" s="11">
+        <v>1338</v>
+      </c>
+      <c r="H188" s="12">
+        <v>0</v>
+      </c>
+      <c r="I188" s="13"/>
+      <c r="J188" s="13"/>
+      <c r="K188" s="12">
+        <v>0</v>
+      </c>
+      <c r="L188" s="12">
+        <v>0</v>
+      </c>
+      <c r="M188" s="12">
+        <v>0</v>
+      </c>
+      <c r="N188" s="12">
+        <v>0</v>
+      </c>
+      <c r="O188" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="P188" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q188" s="13"/>
+      <c r="R188" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="S188" t="s" s="11">
+        <v>1339</v>
+      </c>
+      <c r="T188" t="s" s="11">
+        <v>979</v>
+      </c>
+      <c r="U188" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" ht="20.05" customHeight="1">
+      <c r="A189" t="s" s="9">
+        <v>1340</v>
+      </c>
+      <c r="B189" t="s" s="10">
+        <v>1341</v>
+      </c>
+      <c r="C189" t="s" s="11">
+        <v>740</v>
+      </c>
+      <c r="D189" t="s" s="11">
+        <v>1342</v>
+      </c>
+      <c r="E189" t="s" s="11">
+        <v>1343</v>
+      </c>
+      <c r="F189" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="G189" t="s" s="11">
+        <v>1344</v>
+      </c>
+      <c r="H189" s="12">
+        <v>0</v>
+      </c>
+      <c r="I189" s="13"/>
+      <c r="J189" s="13"/>
+      <c r="K189" s="12">
+        <v>0</v>
+      </c>
+      <c r="L189" s="12">
+        <v>0</v>
+      </c>
+      <c r="M189" s="12">
+        <v>0</v>
+      </c>
+      <c r="N189" s="12">
+        <v>0</v>
+      </c>
+      <c r="O189" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="P189" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q189" s="13"/>
+      <c r="R189" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="S189" s="13"/>
+      <c r="T189" t="s" s="11">
+        <v>1276</v>
+      </c>
+      <c r="U189" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" ht="20.05" customHeight="1">
+      <c r="A190" t="s" s="9">
+        <v>1345</v>
+      </c>
+      <c r="B190" t="s" s="10">
+        <v>1346</v>
+      </c>
+      <c r="C190" t="s" s="11">
+        <v>1347</v>
+      </c>
+      <c r="D190" t="s" s="11">
+        <v>1348</v>
+      </c>
+      <c r="E190" t="s" s="11">
+        <v>1349</v>
+      </c>
+      <c r="F190" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="G190" t="s" s="11">
+        <v>1350</v>
+      </c>
+      <c r="H190" s="12">
+        <v>0</v>
+      </c>
+      <c r="I190" s="13"/>
+      <c r="J190" s="13"/>
+      <c r="K190" s="12">
+        <v>0</v>
+      </c>
+      <c r="L190" s="12">
+        <v>0</v>
+      </c>
+      <c r="M190" s="12">
+        <v>0</v>
+      </c>
+      <c r="N190" s="12">
+        <v>0</v>
+      </c>
+      <c r="O190" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="P190" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q190" s="13"/>
+      <c r="R190" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="S190" t="s" s="11">
+        <v>1351</v>
+      </c>
+      <c r="T190" s="13"/>
+      <c r="U190" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" ht="20.05" customHeight="1">
+      <c r="A191" t="s" s="9">
+        <v>1352</v>
+      </c>
+      <c r="B191" t="s" s="10">
+        <v>1353</v>
+      </c>
+      <c r="C191" t="s" s="11">
+        <v>1354</v>
+      </c>
+      <c r="D191" t="s" s="11">
+        <v>1355</v>
+      </c>
+      <c r="E191" t="s" s="11">
+        <v>1349</v>
+      </c>
+      <c r="F191" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="G191" t="s" s="11">
+        <v>1356</v>
+      </c>
+      <c r="H191" s="12">
+        <v>0</v>
+      </c>
+      <c r="I191" s="13"/>
+      <c r="J191" s="13"/>
+      <c r="K191" s="12">
+        <v>0</v>
+      </c>
+      <c r="L191" s="12">
+        <v>0</v>
+      </c>
+      <c r="M191" s="12">
+        <v>0</v>
+      </c>
+      <c r="N191" s="12">
+        <v>0</v>
+      </c>
+      <c r="O191" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="P191" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q191" s="13"/>
+      <c r="R191" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="S191" t="s" s="11">
+        <v>1357</v>
+      </c>
+      <c r="T191" s="13"/>
+      <c r="U191" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" ht="32.05" customHeight="1">
+      <c r="A192" t="s" s="9">
+        <v>1358</v>
+      </c>
+      <c r="B192" t="s" s="10">
+        <v>1359</v>
+      </c>
+      <c r="C192" t="s" s="11">
+        <v>1197</v>
+      </c>
+      <c r="D192" t="s" s="11">
+        <v>1360</v>
+      </c>
+      <c r="E192" t="s" s="11">
+        <v>1361</v>
+      </c>
+      <c r="F192" t="s" s="11">
+        <v>309</v>
+      </c>
+      <c r="G192" t="s" s="11">
+        <v>1362</v>
+      </c>
+      <c r="H192" s="12">
+        <v>0</v>
+      </c>
+      <c r="I192" s="13"/>
+      <c r="J192" s="13"/>
+      <c r="K192" s="12">
+        <v>0</v>
+      </c>
+      <c r="L192" s="12">
+        <v>0</v>
+      </c>
+      <c r="M192" s="12">
+        <v>0</v>
+      </c>
+      <c r="N192" s="12">
+        <v>0</v>
+      </c>
+      <c r="O192" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="P192" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q192" s="13"/>
+      <c r="R192" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="S192" s="13"/>
+      <c r="T192" t="s" s="14">
+        <v>1363</v>
+      </c>
+      <c r="U192" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" ht="20.05" customHeight="1">
+      <c r="A193" t="s" s="9">
+        <v>1364</v>
+      </c>
+      <c r="B193" t="s" s="10">
+        <v>1365</v>
+      </c>
+      <c r="C193" t="s" s="11">
+        <v>1366</v>
+      </c>
+      <c r="D193" t="s" s="11">
+        <v>1367</v>
+      </c>
+      <c r="E193" t="s" s="11">
+        <v>1368</v>
+      </c>
+      <c r="F193" t="s" s="11">
+        <v>309</v>
+      </c>
+      <c r="G193" t="s" s="11">
+        <v>1369</v>
+      </c>
+      <c r="H193" s="12">
+        <v>0</v>
+      </c>
+      <c r="I193" s="13"/>
+      <c r="J193" s="13"/>
+      <c r="K193" s="12">
+        <v>0</v>
+      </c>
+      <c r="L193" s="12">
+        <v>0</v>
+      </c>
+      <c r="M193" s="12">
+        <v>0</v>
+      </c>
+      <c r="N193" s="12">
+        <v>0</v>
+      </c>
+      <c r="O193" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="P193" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q193" s="13"/>
+      <c r="R193" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="S193" t="s" s="11">
+        <v>1370</v>
+      </c>
+      <c r="T193" t="s" s="11">
+        <v>1371</v>
+      </c>
+      <c r="U193" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" ht="20.05" customHeight="1">
+      <c r="A194" t="s" s="9">
+        <v>1372</v>
+      </c>
+      <c r="B194" t="s" s="10">
+        <v>1373</v>
+      </c>
+      <c r="C194" t="s" s="11">
+        <v>1374</v>
+      </c>
+      <c r="D194" t="s" s="11">
+        <v>1375</v>
+      </c>
+      <c r="E194" t="s" s="11">
+        <v>1376</v>
+      </c>
+      <c r="F194" t="s" s="11">
+        <v>309</v>
+      </c>
+      <c r="G194" t="s" s="11">
+        <v>1377</v>
+      </c>
+      <c r="H194" s="12">
+        <v>0</v>
+      </c>
+      <c r="I194" s="13"/>
+      <c r="J194" s="13"/>
+      <c r="K194" s="12">
+        <v>0</v>
+      </c>
+      <c r="L194" s="12">
+        <v>0</v>
+      </c>
+      <c r="M194" s="12">
+        <v>0</v>
+      </c>
+      <c r="N194" s="12">
+        <v>0</v>
+      </c>
+      <c r="O194" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="P194" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q194" s="13"/>
+      <c r="R194" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="S194" t="s" s="11">
+        <v>1378</v>
+      </c>
+      <c r="T194" t="s" s="11">
+        <v>1379</v>
+      </c>
+      <c r="U194" t="s" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" ht="32.05" customHeight="1">
+      <c r="A195" t="s" s="9">
+        <v>1380</v>
+      </c>
+      <c r="B195" t="s" s="10">
+        <v>1381</v>
+      </c>
+      <c r="C195" t="s" s="11">
+        <v>1382</v>
+      </c>
+      <c r="D195" t="s" s="11">
+        <v>1383</v>
+      </c>
+      <c r="E195" t="s" s="11">
+        <v>1384</v>
+      </c>
+      <c r="F195" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="G195" t="s" s="11">
+        <v>1385</v>
+      </c>
+      <c r="H195" s="12">
+        <v>470</v>
+      </c>
+      <c r="I195" s="13"/>
+      <c r="J195" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="K195" s="12">
+        <v>0</v>
+      </c>
+      <c r="L195" s="12">
+        <v>450</v>
+      </c>
+      <c r="M195" s="12">
+        <v>0</v>
+      </c>
+      <c r="N195" s="12">
+        <v>450</v>
+      </c>
+      <c r="O195" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="P195" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="Q195" s="13"/>
+      <c r="R195" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="S195" t="s" s="11">
+        <v>98</v>
+      </c>
+      <c r="T195" t="s" s="14">
+        <v>1386</v>
+      </c>
+      <c r="U195" t="s" s="11">
         <v>30</v>
       </c>
     </row>
@@ -18029,6 +18715,14 @@
     <hyperlink ref="E185" r:id="rId183" location="" tooltip="" display="ayyankidba@gmail.com"/>
     <hyperlink ref="E186" r:id="rId184" location="" tooltip="" display="dziewiecka.irena@gmail.com"/>
     <hyperlink ref="E187" r:id="rId185" location="" tooltip="" display="mustafahshams@hotmail.com"/>
+    <hyperlink ref="E188" r:id="rId186" location="" tooltip="" display="skliopidou.chrysa@gmail.com"/>
+    <hyperlink ref="E189" r:id="rId187" location="" tooltip="" display="andrewdcharity@hotmail.com"/>
+    <hyperlink ref="E190" r:id="rId188" location="" tooltip="" display="jake_bernard90@hotmail.com"/>
+    <hyperlink ref="E191" r:id="rId189" location="" tooltip="" display="jake_bernard90@hotmail.com"/>
+    <hyperlink ref="E192" r:id="rId190" location="" tooltip="" display="jshillcock92@gmail.com"/>
+    <hyperlink ref="E193" r:id="rId191" location="" tooltip="" display="malva2@icloud.com"/>
+    <hyperlink ref="E194" r:id="rId192" location="" tooltip="" display="freireliz19@hotmail.com"/>
+    <hyperlink ref="E195" r:id="rId193" location="" tooltip="" display="margarita.dobrowolska@gmail.com"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
